--- a/Documentation/Comparador Tabla de NDout.xlsx
+++ b/Documentation/Comparador Tabla de NDout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="32">
   <si>
     <t>EXP</t>
   </si>
@@ -285,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="106">
+  <cellXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -417,22 +417,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="11" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -441,16 +444,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -465,21 +474,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -782,7 +784,7 @@
   <dimension ref="A1:O113"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:O39"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -802,85 +804,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="89" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="97"/>
-      <c r="C1" s="97"/>
-      <c r="D1" s="97"/>
-      <c r="E1" s="97"/>
-      <c r="F1" s="97"/>
-      <c r="G1" s="97"/>
-      <c r="H1" s="97"/>
-      <c r="I1" s="97"/>
-      <c r="J1" s="97"/>
-      <c r="K1" s="97"/>
-      <c r="L1" s="97"/>
-      <c r="M1" s="97"/>
-      <c r="N1" s="97"/>
-      <c r="O1" s="97"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15">
-      <c r="A2" s="95" t="s">
+      <c r="A2" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="B2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="83" t="s">
+      <c r="C2" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="83" t="s">
+      <c r="D2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="83" t="s">
+      <c r="E2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="83" t="s">
+      <c r="F2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="85" t="s">
+      <c r="G2" s="104" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="72"/>
-      <c r="I2" s="85" t="s">
+      <c r="I2" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="83" t="s">
+      <c r="J2" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="83" t="s">
+      <c r="K2" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="83" t="s">
+      <c r="L2" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="83" t="s">
+      <c r="M2" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="83" t="s">
+      <c r="N2" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="81" t="s">
+      <c r="O2" s="90" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="15">
-      <c r="A3" s="96"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="86"/>
+      <c r="A3" s="103"/>
+      <c r="B3" s="97"/>
+      <c r="C3" s="97"/>
+      <c r="D3" s="97"/>
+      <c r="E3" s="97"/>
+      <c r="F3" s="97"/>
+      <c r="G3" s="105"/>
       <c r="H3" s="73"/>
-      <c r="I3" s="86"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="84"/>
-      <c r="L3" s="84"/>
-      <c r="M3" s="84"/>
-      <c r="N3" s="84"/>
-      <c r="O3" s="82"/>
+      <c r="I3" s="105"/>
+      <c r="J3" s="97"/>
+      <c r="K3" s="97"/>
+      <c r="L3" s="97"/>
+      <c r="M3" s="97"/>
+      <c r="N3" s="97"/>
+      <c r="O3" s="91"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1">
       <c r="A4" s="27"/>
@@ -900,7 +902,7 @@
       <c r="O4" s="44"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="92" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -924,7 +926,7 @@
       <c r="H5" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="91" t="s">
+      <c r="I5" s="94" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="21" t="s">
@@ -947,7 +949,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="87"/>
+      <c r="A6" s="92"/>
       <c r="B6" s="12"/>
       <c r="C6" s="6" t="s">
         <v>3</v>
@@ -967,7 +969,7 @@
       <c r="H6" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="91"/>
+      <c r="I6" s="94"/>
       <c r="J6" s="23"/>
       <c r="K6" s="16" t="s">
         <v>3</v>
@@ -986,7 +988,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="87"/>
+      <c r="A7" s="92"/>
       <c r="B7" s="12"/>
       <c r="C7" s="6" t="s">
         <v>2</v>
@@ -1006,7 +1008,7 @@
       <c r="H7" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="91"/>
+      <c r="I7" s="94"/>
       <c r="J7" s="23"/>
       <c r="K7" s="16" t="s">
         <v>2</v>
@@ -1025,7 +1027,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="87"/>
+      <c r="A8" s="92"/>
       <c r="B8" s="12"/>
       <c r="C8" s="6" t="s">
         <v>4</v>
@@ -1045,7 +1047,7 @@
       <c r="H8" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="91"/>
+      <c r="I8" s="94"/>
       <c r="J8" s="23"/>
       <c r="K8" s="16" t="s">
         <v>4</v>
@@ -1064,7 +1066,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="87"/>
+      <c r="A9" s="92"/>
       <c r="B9" s="12"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -1084,7 +1086,7 @@
       <c r="H9" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="91"/>
+      <c r="I9" s="94"/>
       <c r="J9" s="23"/>
       <c r="K9" s="16" t="s">
         <v>8</v>
@@ -1103,7 +1105,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="87"/>
+      <c r="A10" s="92"/>
       <c r="B10" s="12"/>
       <c r="C10" s="6" t="s">
         <v>5</v>
@@ -1123,7 +1125,7 @@
       <c r="H10" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="91"/>
+      <c r="I10" s="94"/>
       <c r="J10" s="23"/>
       <c r="K10" s="59" t="s">
         <v>5</v>
@@ -1131,18 +1133,18 @@
       <c r="L10" s="59">
         <v>45.62</v>
       </c>
-      <c r="M10" s="101">
+      <c r="M10" s="84">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N10" s="102">
+      <c r="N10" s="85">
         <v>3.9763000000000002</v>
       </c>
-      <c r="O10" s="103" t="s">
+      <c r="O10" s="86" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="87"/>
+      <c r="A11" s="92"/>
       <c r="B11" s="14"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
@@ -1162,7 +1164,7 @@
       <c r="H11" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="91"/>
+      <c r="I11" s="94"/>
       <c r="J11" s="25"/>
       <c r="K11" s="19" t="s">
         <v>6</v>
@@ -1181,7 +1183,7 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="87"/>
+      <c r="A12" s="92"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
@@ -1189,7 +1191,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
       <c r="H12" s="74"/>
-      <c r="I12" s="91"/>
+      <c r="I12" s="94"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -1198,173 +1200,245 @@
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="87"/>
+      <c r="A13" s="92"/>
       <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="5"/>
+      <c r="D13" s="5">
+        <v>5.6111000000000004</v>
+      </c>
       <c r="E13" s="5">
         <v>3.2029999999999998</v>
       </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="11">
+        <v>3.1549999999999998</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="H13" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="91"/>
+      <c r="I13" s="94"/>
       <c r="J13" s="21" t="s">
         <v>7</v>
       </c>
       <c r="K13" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L13" s="15"/>
+      <c r="L13" s="15">
+        <v>7.1666999999999996</v>
+      </c>
       <c r="M13" s="22">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N13" s="69"/>
-      <c r="O13" s="18"/>
+      <c r="N13" s="69">
+        <v>-9.7224000000000005E-2</v>
+      </c>
+      <c r="O13" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="87"/>
+      <c r="A14" s="92"/>
       <c r="B14" s="12"/>
       <c r="C14" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" s="6">
+        <v>4.6109999999999998</v>
+      </c>
       <c r="E14" s="6">
         <v>3.2029999999999998</v>
       </c>
-      <c r="F14" s="13"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="13">
+        <v>3.2513000000000001</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="H14" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="91"/>
+      <c r="I14" s="94"/>
       <c r="J14" s="23"/>
       <c r="K14" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="L14" s="16">
+        <v>8</v>
+      </c>
       <c r="M14" s="17">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N14" s="26"/>
-      <c r="O14" s="18"/>
+      <c r="N14" s="26">
+        <v>6.3624E-2</v>
+      </c>
+      <c r="O14" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="87"/>
+      <c r="A15" s="92"/>
       <c r="B15" s="12"/>
       <c r="C15" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" s="6">
+        <v>8.1667000000000005</v>
+      </c>
       <c r="E15" s="6">
         <v>3.2029999999999998</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="7"/>
+      <c r="F15" s="106">
+        <v>2.9731000000000001</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="H15" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="91"/>
+      <c r="I15" s="94"/>
       <c r="J15" s="23"/>
       <c r="K15" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="16">
+        <v>8.6649999999999991</v>
+      </c>
       <c r="M15" s="17">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N15" s="26"/>
-      <c r="O15" s="18"/>
+      <c r="N15" s="26">
+        <v>-0.39913799999999999</v>
+      </c>
+      <c r="O15" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="87"/>
+      <c r="A16" s="92"/>
       <c r="B16" s="12"/>
       <c r="C16" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" s="6">
+        <v>8</v>
+      </c>
       <c r="E16" s="6">
         <v>3.2029999999999998</v>
       </c>
-      <c r="F16" s="13"/>
-      <c r="G16" s="7"/>
+      <c r="F16" s="13">
+        <v>3.4500999999999999</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="H16" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="91"/>
+      <c r="I16" s="94"/>
       <c r="J16" s="23"/>
       <c r="K16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="59"/>
+      <c r="L16" s="78">
+        <v>12.055999999999999</v>
+      </c>
       <c r="M16" s="17">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N16" s="24"/>
-      <c r="O16" s="18"/>
+      <c r="N16" s="26">
+        <v>0.102019</v>
+      </c>
+      <c r="O16" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="87"/>
+      <c r="A17" s="92"/>
       <c r="B17" s="12"/>
       <c r="C17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" s="6">
+        <v>13.111000000000001</v>
+      </c>
       <c r="E17" s="6">
         <v>3.2029999999999998</v>
       </c>
-      <c r="F17" s="13"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="13">
+        <v>3.0529999999999999</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="H17" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="91"/>
+      <c r="I17" s="94"/>
       <c r="J17" s="23"/>
       <c r="K17" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="16"/>
+      <c r="L17" s="16">
+        <v>69.125</v>
+      </c>
       <c r="M17" s="17">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N17" s="26"/>
-      <c r="O17" s="18"/>
+      <c r="N17" s="26">
+        <v>-0.216142</v>
+      </c>
+      <c r="O17" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="87"/>
+      <c r="A18" s="92"/>
       <c r="B18" s="12"/>
       <c r="C18" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" s="6">
+        <v>10.611000000000001</v>
+      </c>
       <c r="E18" s="6">
         <v>3.2029999999999998</v>
       </c>
-      <c r="F18" s="13"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="13">
+        <v>3.6985999999999999</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="H18" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="91"/>
+      <c r="I18" s="94"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="16" t="s">
+      <c r="K18" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="59"/>
-      <c r="M18" s="101">
+      <c r="L18" s="59">
+        <v>58.65</v>
+      </c>
+      <c r="M18" s="84">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N18" s="24"/>
-      <c r="O18" s="18"/>
+      <c r="N18" s="85">
+        <v>3.9887000000000001</v>
+      </c>
+      <c r="O18" s="86" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="87"/>
+      <c r="A19" s="92"/>
       <c r="B19" s="14"/>
       <c r="C19" s="8" t="s">
         <v>6</v>
@@ -1378,11 +1452,13 @@
       <c r="F19" s="61">
         <v>2.6655000000000002</v>
       </c>
-      <c r="G19" s="7"/>
+      <c r="G19" s="7" t="s">
+        <v>16</v>
+      </c>
       <c r="H19" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="91"/>
+      <c r="I19" s="94"/>
       <c r="J19" s="25"/>
       <c r="K19" s="19" t="s">
         <v>6</v>
@@ -1396,10 +1472,12 @@
       <c r="N19" s="66">
         <v>-0.669624</v>
       </c>
-      <c r="O19" s="18"/>
+      <c r="O19" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="88"/>
+      <c r="A20" s="93"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
@@ -1407,7 +1485,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
       <c r="H20" s="74"/>
-      <c r="I20" s="92"/>
+      <c r="I20" s="95"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -1433,7 +1511,7 @@
       <c r="O21" s="47"/>
     </row>
     <row r="22" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A22" s="89" t="s">
+      <c r="A22" s="98" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="33" t="s">
@@ -1457,7 +1535,7 @@
       <c r="H22" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="93" t="s">
+      <c r="I22" s="100" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="48" t="s">
@@ -1480,7 +1558,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="89"/>
+      <c r="A23" s="98"/>
       <c r="B23" s="36"/>
       <c r="C23" s="37" t="s">
         <v>3</v>
@@ -1500,7 +1578,7 @@
       <c r="H23" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="93"/>
+      <c r="I23" s="100"/>
       <c r="J23" s="51"/>
       <c r="K23" s="52" t="s">
         <v>3</v>
@@ -1519,7 +1597,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="89"/>
+      <c r="A24" s="98"/>
       <c r="B24" s="36"/>
       <c r="C24" s="37" t="s">
         <v>2</v>
@@ -1539,7 +1617,7 @@
       <c r="H24" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="93"/>
+      <c r="I24" s="100"/>
       <c r="J24" s="51"/>
       <c r="K24" s="52" t="s">
         <v>2</v>
@@ -1558,7 +1636,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="89"/>
+      <c r="A25" s="98"/>
       <c r="B25" s="36"/>
       <c r="C25" s="37" t="s">
         <v>4</v>
@@ -1578,7 +1656,7 @@
       <c r="H25" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="93"/>
+      <c r="I25" s="100"/>
       <c r="J25" s="51"/>
       <c r="K25" s="52" t="s">
         <v>4</v>
@@ -1597,7 +1675,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="89"/>
+      <c r="A26" s="98"/>
       <c r="B26" s="36"/>
       <c r="C26" s="37" t="s">
         <v>8</v>
@@ -1617,7 +1695,7 @@
       <c r="H26" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="93"/>
+      <c r="I26" s="100"/>
       <c r="J26" s="51"/>
       <c r="K26" s="52" t="s">
         <v>8</v>
@@ -1636,7 +1714,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="89"/>
+      <c r="A27" s="98"/>
       <c r="B27" s="36"/>
       <c r="C27" s="37" t="s">
         <v>5</v>
@@ -1656,7 +1734,7 @@
       <c r="H27" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="93"/>
+      <c r="I27" s="100"/>
       <c r="J27" s="51"/>
       <c r="K27" s="60" t="s">
         <v>5</v>
@@ -1664,18 +1742,18 @@
       <c r="L27" s="60">
         <v>47.92</v>
       </c>
-      <c r="M27" s="99">
+      <c r="M27" s="82">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N27" s="100">
+      <c r="N27" s="83">
         <v>3.9861</v>
       </c>
-      <c r="O27" s="98" t="s">
+      <c r="O27" s="81" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="89"/>
+      <c r="A28" s="98"/>
       <c r="B28" s="39"/>
       <c r="C28" s="40" t="s">
         <v>6</v>
@@ -1695,7 +1773,7 @@
       <c r="H28" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="93"/>
+      <c r="I28" s="100"/>
       <c r="J28" s="56"/>
       <c r="K28" s="57" t="s">
         <v>6</v>
@@ -1714,7 +1792,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="89"/>
+      <c r="A29" s="98"/>
       <c r="B29" s="37"/>
       <c r="C29" s="37"/>
       <c r="D29" s="37"/>
@@ -1722,7 +1800,7 @@
       <c r="F29" s="37"/>
       <c r="G29" s="35"/>
       <c r="H29" s="74"/>
-      <c r="I29" s="93"/>
+      <c r="I29" s="100"/>
       <c r="J29" s="52"/>
       <c r="K29" s="52"/>
       <c r="L29" s="52"/>
@@ -1731,178 +1809,250 @@
       <c r="O29" s="50"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="89"/>
+      <c r="A30" s="98"/>
       <c r="B30" s="33" t="s">
         <v>7</v>
       </c>
       <c r="C30" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="31"/>
+      <c r="D30" s="31">
+        <v>5.7220000000000004</v>
+      </c>
       <c r="E30" s="31">
         <v>3.1757</v>
       </c>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
+      <c r="F30" s="34">
+        <v>3.1181000000000001</v>
+      </c>
+      <c r="G30" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="H30" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="93"/>
+      <c r="I30" s="100"/>
       <c r="J30" s="48" t="s">
         <v>7</v>
       </c>
       <c r="K30" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="L30" s="46"/>
+      <c r="L30" s="46">
+        <v>7.2220000000000004</v>
+      </c>
       <c r="M30" s="49">
         <v>2.5725000000000001E-3</v>
       </c>
-      <c r="N30" s="70"/>
-      <c r="O30" s="50"/>
+      <c r="N30" s="70">
+        <v>-9.5528000000000002E-2</v>
+      </c>
+      <c r="O30" s="50" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="89"/>
+      <c r="A31" s="98"/>
       <c r="B31" s="36"/>
       <c r="C31" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="37"/>
+      <c r="D31" s="37">
+        <v>5.0556000000000001</v>
+      </c>
       <c r="E31" s="37">
         <v>3.1757</v>
       </c>
-      <c r="F31" s="38"/>
-      <c r="G31" s="35"/>
+      <c r="F31" s="38">
+        <v>3.2349000000000001</v>
+      </c>
+      <c r="G31" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="H31" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="93"/>
+      <c r="I31" s="100"/>
       <c r="J31" s="51"/>
       <c r="K31" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="L31" s="52"/>
+      <c r="L31" s="52">
+        <v>8.6111000000000004</v>
+      </c>
       <c r="M31" s="53">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N31" s="54"/>
-      <c r="O31" s="50"/>
+      <c r="N31" s="54">
+        <v>2.4462000000000001E-2</v>
+      </c>
+      <c r="O31" s="50" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="89"/>
+      <c r="A32" s="98"/>
       <c r="B32" s="36"/>
       <c r="C32" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="71"/>
+      <c r="D32" s="107">
+        <v>8</v>
+      </c>
       <c r="E32" s="37">
         <v>3.1757</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="35"/>
+      <c r="F32" s="38">
+        <v>2.8919000000000001</v>
+      </c>
+      <c r="G32" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="H32" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="93"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="51"/>
       <c r="K32" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="L32" s="52"/>
+      <c r="L32" s="52">
+        <v>9</v>
+      </c>
       <c r="M32" s="53">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N32" s="54"/>
-      <c r="O32" s="50"/>
+      <c r="N32" s="54">
+        <v>-0.40907300000000002</v>
+      </c>
+      <c r="O32" s="50" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="89"/>
+      <c r="A33" s="98"/>
       <c r="B33" s="36"/>
       <c r="C33" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="37"/>
+      <c r="D33" s="37">
+        <v>8.3888999999999996</v>
+      </c>
       <c r="E33" s="37">
         <v>3.1757</v>
       </c>
-      <c r="F33" s="38"/>
-      <c r="G33" s="35"/>
+      <c r="F33" s="38">
+        <v>3.4988999999999999</v>
+      </c>
+      <c r="G33" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="H33" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="93"/>
+      <c r="I33" s="100"/>
       <c r="J33" s="51"/>
       <c r="K33" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="52"/>
+      <c r="L33" s="52">
+        <v>12.278</v>
+      </c>
       <c r="M33" s="53">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N33" s="54"/>
-      <c r="O33" s="50"/>
+      <c r="N33" s="54">
+        <v>3.4770000000000002E-2</v>
+      </c>
+      <c r="O33" s="50" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="89"/>
+      <c r="A34" s="98"/>
       <c r="B34" s="36"/>
       <c r="C34" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="37"/>
+      <c r="D34" s="37">
+        <v>47.83</v>
+      </c>
       <c r="E34" s="37">
         <v>3.1757</v>
       </c>
-      <c r="F34" s="38"/>
-      <c r="G34" s="35"/>
+      <c r="F34" s="38">
+        <v>2.9952999999999999</v>
+      </c>
+      <c r="G34" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="H34" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="93"/>
+      <c r="I34" s="100"/>
       <c r="J34" s="51"/>
       <c r="K34" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="52"/>
+      <c r="L34" s="52">
+        <v>14.778</v>
+      </c>
       <c r="M34" s="53">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N34" s="54"/>
-      <c r="O34" s="50"/>
+      <c r="N34" s="54">
+        <v>-0.20065</v>
+      </c>
+      <c r="O34" s="50" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="89"/>
+      <c r="A35" s="98"/>
       <c r="B35" s="36"/>
       <c r="C35" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="37"/>
+      <c r="D35" s="37">
+        <v>13</v>
+      </c>
       <c r="E35" s="37">
         <v>3.1757</v>
       </c>
-      <c r="F35" s="38"/>
-      <c r="G35" s="35"/>
+      <c r="F35" s="38">
+        <v>3.8393999999999999</v>
+      </c>
+      <c r="G35" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="H35" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="93"/>
+      <c r="I35" s="100"/>
       <c r="J35" s="51"/>
-      <c r="K35" s="52" t="s">
+      <c r="K35" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="60"/>
-      <c r="M35" s="99">
+      <c r="L35" s="60">
+        <v>56.127000000000002</v>
+      </c>
+      <c r="M35" s="82">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N35" s="55"/>
-      <c r="O35" s="50"/>
+      <c r="N35" s="83">
+        <v>3.9839000000000002</v>
+      </c>
+      <c r="O35" s="81" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="89"/>
+      <c r="A36" s="98"/>
       <c r="B36" s="39"/>
       <c r="C36" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="64">
+      <c r="D36" s="80">
         <v>13.667</v>
       </c>
       <c r="E36" s="40">
@@ -1911,11 +2061,13 @@
       <c r="F36" s="62">
         <v>2.3001</v>
       </c>
-      <c r="G36" s="35"/>
+      <c r="G36" s="35" t="s">
+        <v>16</v>
+      </c>
       <c r="H36" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="93"/>
+      <c r="I36" s="100"/>
       <c r="J36" s="56"/>
       <c r="K36" s="57" t="s">
         <v>6</v>
@@ -1929,10 +2081,12 @@
       <c r="N36" s="68">
         <v>-0.66981800000000002</v>
       </c>
-      <c r="O36" s="50"/>
+      <c r="O36" s="50" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="90"/>
+      <c r="A37" s="99"/>
       <c r="B37" s="40"/>
       <c r="C37" s="40"/>
       <c r="D37" s="40"/>
@@ -1940,7 +2094,7 @@
       <c r="F37" s="40"/>
       <c r="G37" s="41"/>
       <c r="H37" s="75"/>
-      <c r="I37" s="94"/>
+      <c r="I37" s="101"/>
       <c r="J37" s="57"/>
       <c r="K37" s="57"/>
       <c r="L37" s="57"/>
@@ -1950,85 +2104,85 @@
     </row>
     <row r="38" spans="1:15" ht="17.25" customHeight="1"/>
     <row r="39" spans="1:15">
-      <c r="A39" s="97" t="s">
+      <c r="A39" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="97"/>
-      <c r="C39" s="97"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="97"/>
-      <c r="F39" s="97"/>
-      <c r="G39" s="97"/>
-      <c r="H39" s="97"/>
-      <c r="I39" s="97"/>
-      <c r="J39" s="97"/>
-      <c r="K39" s="97"/>
-      <c r="L39" s="97"/>
-      <c r="M39" s="97"/>
-      <c r="N39" s="97"/>
-      <c r="O39" s="97"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="89"/>
+      <c r="D39" s="89"/>
+      <c r="E39" s="89"/>
+      <c r="F39" s="89"/>
+      <c r="G39" s="89"/>
+      <c r="H39" s="89"/>
+      <c r="I39" s="89"/>
+      <c r="J39" s="89"/>
+      <c r="K39" s="89"/>
+      <c r="L39" s="89"/>
+      <c r="M39" s="89"/>
+      <c r="N39" s="89"/>
+      <c r="O39" s="89"/>
     </row>
     <row r="40" spans="1:15" ht="15">
-      <c r="A40" s="95" t="s">
+      <c r="A40" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="83" t="s">
+      <c r="B40" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="83" t="s">
+      <c r="C40" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="83" t="s">
+      <c r="D40" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="83" t="s">
+      <c r="E40" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="83" t="s">
+      <c r="F40" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="85" t="s">
+      <c r="G40" s="104" t="s">
         <v>15</v>
       </c>
       <c r="H40" s="72"/>
-      <c r="I40" s="85" t="s">
+      <c r="I40" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="83" t="s">
+      <c r="J40" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="83" t="s">
+      <c r="K40" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="L40" s="83" t="s">
+      <c r="L40" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="M40" s="83" t="s">
+      <c r="M40" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="N40" s="83" t="s">
+      <c r="N40" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O40" s="81" t="s">
+      <c r="O40" s="90" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15">
-      <c r="A41" s="96"/>
-      <c r="B41" s="84"/>
-      <c r="C41" s="84"/>
-      <c r="D41" s="84"/>
-      <c r="E41" s="84"/>
-      <c r="F41" s="84"/>
-      <c r="G41" s="86"/>
+      <c r="A41" s="103"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="97"/>
+      <c r="D41" s="97"/>
+      <c r="E41" s="97"/>
+      <c r="F41" s="97"/>
+      <c r="G41" s="105"/>
       <c r="H41" s="73"/>
-      <c r="I41" s="86"/>
-      <c r="J41" s="84"/>
-      <c r="K41" s="84"/>
-      <c r="L41" s="84"/>
-      <c r="M41" s="84"/>
-      <c r="N41" s="84"/>
-      <c r="O41" s="82"/>
+      <c r="I41" s="105"/>
+      <c r="J41" s="97"/>
+      <c r="K41" s="97"/>
+      <c r="L41" s="97"/>
+      <c r="M41" s="97"/>
+      <c r="N41" s="97"/>
+      <c r="O41" s="91"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="27"/>
@@ -2048,7 +2202,7 @@
       <c r="O42" s="44"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="87" t="s">
+      <c r="A43" s="92" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -2072,7 +2226,7 @@
       <c r="H43" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I43" s="91" t="s">
+      <c r="I43" s="94" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="21" t="s">
@@ -2095,7 +2249,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="87"/>
+      <c r="A44" s="92"/>
       <c r="B44" s="12"/>
       <c r="C44" s="6" t="s">
         <v>3</v>
@@ -2115,7 +2269,7 @@
       <c r="H44" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="91"/>
+      <c r="I44" s="94"/>
       <c r="J44" s="23"/>
       <c r="K44" s="16" t="s">
         <v>3</v>
@@ -2134,7 +2288,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="87"/>
+      <c r="A45" s="92"/>
       <c r="B45" s="12"/>
       <c r="C45" s="6" t="s">
         <v>2</v>
@@ -2154,7 +2308,7 @@
       <c r="H45" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="91"/>
+      <c r="I45" s="94"/>
       <c r="J45" s="23"/>
       <c r="K45" s="16" t="s">
         <v>2</v>
@@ -2173,7 +2327,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="87"/>
+      <c r="A46" s="92"/>
       <c r="B46" s="12"/>
       <c r="C46" s="6" t="s">
         <v>4</v>
@@ -2193,7 +2347,7 @@
       <c r="H46" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="91"/>
+      <c r="I46" s="94"/>
       <c r="J46" s="23"/>
       <c r="K46" s="16" t="s">
         <v>4</v>
@@ -2212,7 +2366,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="87"/>
+      <c r="A47" s="92"/>
       <c r="B47" s="12"/>
       <c r="C47" s="6" t="s">
         <v>8</v>
@@ -2232,7 +2386,7 @@
       <c r="H47" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="91"/>
+      <c r="I47" s="94"/>
       <c r="J47" s="23"/>
       <c r="K47" s="16" t="s">
         <v>8</v>
@@ -2251,7 +2405,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="87"/>
+      <c r="A48" s="92"/>
       <c r="B48" s="12"/>
       <c r="C48" s="6" t="s">
         <v>5</v>
@@ -2271,7 +2425,7 @@
       <c r="H48" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="91"/>
+      <c r="I48" s="94"/>
       <c r="J48" s="23"/>
       <c r="K48" s="59" t="s">
         <v>5</v>
@@ -2279,18 +2433,18 @@
       <c r="L48" s="59">
         <v>47.25</v>
       </c>
-      <c r="M48" s="101">
+      <c r="M48" s="84">
         <v>10.404</v>
       </c>
-      <c r="N48" s="102">
+      <c r="N48" s="85">
         <v>3.9748000000000001</v>
       </c>
-      <c r="O48" s="103" t="s">
+      <c r="O48" s="86" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="87"/>
+      <c r="A49" s="92"/>
       <c r="B49" s="14"/>
       <c r="C49" s="8" t="s">
         <v>6</v>
@@ -2310,7 +2464,7 @@
       <c r="H49" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="91"/>
+      <c r="I49" s="94"/>
       <c r="J49" s="25"/>
       <c r="K49" s="19" t="s">
         <v>6</v>
@@ -2329,7 +2483,7 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="87"/>
+      <c r="A50" s="92"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
@@ -2337,7 +2491,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
       <c r="H50" s="74"/>
-      <c r="I50" s="91"/>
+      <c r="I50" s="94"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
       <c r="L50" s="16"/>
@@ -2346,7 +2500,7 @@
       <c r="O50" s="18"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="87"/>
+      <c r="A51" s="92"/>
       <c r="B51" s="10" t="s">
         <v>7</v>
       </c>
@@ -2360,7 +2514,7 @@
       <c r="H51" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I51" s="91"/>
+      <c r="I51" s="94"/>
       <c r="J51" s="21" t="s">
         <v>7</v>
       </c>
@@ -2373,7 +2527,7 @@
       <c r="O51" s="18"/>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="87"/>
+      <c r="A52" s="92"/>
       <c r="B52" s="12"/>
       <c r="C52" s="6" t="s">
         <v>3</v>
@@ -2385,7 +2539,7 @@
       <c r="H52" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="91"/>
+      <c r="I52" s="94"/>
       <c r="J52" s="23"/>
       <c r="K52" s="16" t="s">
         <v>3</v>
@@ -2396,7 +2550,7 @@
       <c r="O52" s="18"/>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="87"/>
+      <c r="A53" s="92"/>
       <c r="B53" s="12"/>
       <c r="C53" s="6" t="s">
         <v>2</v>
@@ -2408,7 +2562,7 @@
       <c r="H53" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I53" s="91"/>
+      <c r="I53" s="94"/>
       <c r="J53" s="23"/>
       <c r="K53" s="16" t="s">
         <v>2</v>
@@ -2419,7 +2573,7 @@
       <c r="O53" s="18"/>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="87"/>
+      <c r="A54" s="92"/>
       <c r="B54" s="12"/>
       <c r="C54" s="6" t="s">
         <v>4</v>
@@ -2431,7 +2585,7 @@
       <c r="H54" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="91"/>
+      <c r="I54" s="94"/>
       <c r="J54" s="23"/>
       <c r="K54" s="16" t="s">
         <v>4</v>
@@ -2442,7 +2596,7 @@
       <c r="O54" s="18"/>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="87"/>
+      <c r="A55" s="92"/>
       <c r="B55" s="12"/>
       <c r="C55" s="6" t="s">
         <v>8</v>
@@ -2454,7 +2608,7 @@
       <c r="H55" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I55" s="91"/>
+      <c r="I55" s="94"/>
       <c r="J55" s="23"/>
       <c r="K55" s="16" t="s">
         <v>8</v>
@@ -2465,7 +2619,7 @@
       <c r="O55" s="18"/>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="87"/>
+      <c r="A56" s="92"/>
       <c r="B56" s="12"/>
       <c r="C56" s="6" t="s">
         <v>5</v>
@@ -2477,7 +2631,7 @@
       <c r="H56" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="91"/>
+      <c r="I56" s="94"/>
       <c r="J56" s="23"/>
       <c r="K56" s="16" t="s">
         <v>5</v>
@@ -2488,7 +2642,7 @@
       <c r="O56" s="18"/>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="87"/>
+      <c r="A57" s="92"/>
       <c r="B57" s="14"/>
       <c r="C57" s="8" t="s">
         <v>6</v>
@@ -2500,7 +2654,7 @@
       <c r="H57" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I57" s="91"/>
+      <c r="I57" s="94"/>
       <c r="J57" s="25"/>
       <c r="K57" s="19" t="s">
         <v>6</v>
@@ -2511,7 +2665,7 @@
       <c r="O57" s="18"/>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="88"/>
+      <c r="A58" s="93"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
@@ -2519,7 +2673,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
       <c r="H58" s="74"/>
-      <c r="I58" s="92"/>
+      <c r="I58" s="95"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
@@ -2545,7 +2699,7 @@
       <c r="O59" s="47"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="89" t="s">
+      <c r="A60" s="98" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="33" t="s">
@@ -2569,7 +2723,7 @@
       <c r="H60" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="93" t="s">
+      <c r="I60" s="100" t="s">
         <v>20</v>
       </c>
       <c r="J60" s="48" t="s">
@@ -2592,7 +2746,7 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="89"/>
+      <c r="A61" s="98"/>
       <c r="B61" s="36"/>
       <c r="C61" s="37" t="s">
         <v>3</v>
@@ -2612,7 +2766,7 @@
       <c r="H61" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I61" s="93"/>
+      <c r="I61" s="100"/>
       <c r="J61" s="51"/>
       <c r="K61" s="52" t="s">
         <v>3</v>
@@ -2631,7 +2785,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1">
-      <c r="A62" s="89"/>
+      <c r="A62" s="98"/>
       <c r="B62" s="36"/>
       <c r="C62" s="37" t="s">
         <v>2</v>
@@ -2651,7 +2805,7 @@
       <c r="H62" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="93"/>
+      <c r="I62" s="100"/>
       <c r="J62" s="51"/>
       <c r="K62" s="52" t="s">
         <v>2</v>
@@ -2670,7 +2824,7 @@
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="89"/>
+      <c r="A63" s="98"/>
       <c r="B63" s="36"/>
       <c r="C63" s="37" t="s">
         <v>4</v>
@@ -2690,7 +2844,7 @@
       <c r="H63" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I63" s="93"/>
+      <c r="I63" s="100"/>
       <c r="J63" s="51"/>
       <c r="K63" s="52" t="s">
         <v>4</v>
@@ -2709,7 +2863,7 @@
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="89"/>
+      <c r="A64" s="98"/>
       <c r="B64" s="36"/>
       <c r="C64" s="37" t="s">
         <v>8</v>
@@ -2729,7 +2883,7 @@
       <c r="H64" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="93"/>
+      <c r="I64" s="100"/>
       <c r="J64" s="51"/>
       <c r="K64" s="52" t="s">
         <v>8</v>
@@ -2748,7 +2902,7 @@
       </c>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="89"/>
+      <c r="A65" s="98"/>
       <c r="B65" s="36"/>
       <c r="C65" s="37" t="s">
         <v>5</v>
@@ -2768,7 +2922,7 @@
       <c r="H65" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="93"/>
+      <c r="I65" s="100"/>
       <c r="J65" s="51"/>
       <c r="K65" s="60" t="s">
         <v>5</v>
@@ -2776,18 +2930,18 @@
       <c r="L65" s="60">
         <v>47.954000000000001</v>
       </c>
-      <c r="M65" s="99">
+      <c r="M65" s="82">
         <v>3.787E-3</v>
       </c>
-      <c r="N65" s="100">
+      <c r="N65" s="83">
         <v>3.9754</v>
       </c>
-      <c r="O65" s="98" t="s">
+      <c r="O65" s="81" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="89"/>
+      <c r="A66" s="98"/>
       <c r="B66" s="39"/>
       <c r="C66" s="40" t="s">
         <v>6</v>
@@ -2807,7 +2961,7 @@
       <c r="H66" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="93"/>
+      <c r="I66" s="100"/>
       <c r="J66" s="56"/>
       <c r="K66" s="57" t="s">
         <v>6</v>
@@ -2826,7 +2980,7 @@
       </c>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="89"/>
+      <c r="A67" s="98"/>
       <c r="B67" s="37"/>
       <c r="C67" s="37"/>
       <c r="D67" s="37"/>
@@ -2834,7 +2988,7 @@
       <c r="F67" s="37"/>
       <c r="G67" s="35"/>
       <c r="H67" s="74"/>
-      <c r="I67" s="93"/>
+      <c r="I67" s="100"/>
       <c r="J67" s="52"/>
       <c r="K67" s="52"/>
       <c r="L67" s="52"/>
@@ -2843,7 +2997,7 @@
       <c r="O67" s="50"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="89"/>
+      <c r="A68" s="98"/>
       <c r="B68" s="33" t="s">
         <v>7</v>
       </c>
@@ -2857,7 +3011,7 @@
       <c r="H68" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I68" s="93"/>
+      <c r="I68" s="100"/>
       <c r="J68" s="48" t="s">
         <v>7</v>
       </c>
@@ -2870,7 +3024,7 @@
       <c r="O68" s="50"/>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="89"/>
+      <c r="A69" s="98"/>
       <c r="B69" s="36"/>
       <c r="C69" s="37" t="s">
         <v>3</v>
@@ -2882,7 +3036,7 @@
       <c r="H69" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I69" s="93"/>
+      <c r="I69" s="100"/>
       <c r="J69" s="51"/>
       <c r="K69" s="52" t="s">
         <v>3</v>
@@ -2893,7 +3047,7 @@
       <c r="O69" s="50"/>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="89"/>
+      <c r="A70" s="98"/>
       <c r="B70" s="36"/>
       <c r="C70" s="37" t="s">
         <v>2</v>
@@ -2905,7 +3059,7 @@
       <c r="H70" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I70" s="93"/>
+      <c r="I70" s="100"/>
       <c r="J70" s="51"/>
       <c r="K70" s="52" t="s">
         <v>2</v>
@@ -2916,7 +3070,7 @@
       <c r="O70" s="50"/>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="89"/>
+      <c r="A71" s="98"/>
       <c r="B71" s="36"/>
       <c r="C71" s="37" t="s">
         <v>4</v>
@@ -2928,7 +3082,7 @@
       <c r="H71" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I71" s="93"/>
+      <c r="I71" s="100"/>
       <c r="J71" s="51"/>
       <c r="K71" s="52" t="s">
         <v>4</v>
@@ -2939,7 +3093,7 @@
       <c r="O71" s="50"/>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="89"/>
+      <c r="A72" s="98"/>
       <c r="B72" s="36"/>
       <c r="C72" s="37" t="s">
         <v>8</v>
@@ -2951,7 +3105,7 @@
       <c r="H72" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I72" s="93"/>
+      <c r="I72" s="100"/>
       <c r="J72" s="51"/>
       <c r="K72" s="52" t="s">
         <v>8</v>
@@ -2962,7 +3116,7 @@
       <c r="O72" s="50"/>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="89"/>
+      <c r="A73" s="98"/>
       <c r="B73" s="36"/>
       <c r="C73" s="37" t="s">
         <v>5</v>
@@ -2974,7 +3128,7 @@
       <c r="H73" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I73" s="93"/>
+      <c r="I73" s="100"/>
       <c r="J73" s="51"/>
       <c r="K73" s="52" t="s">
         <v>5</v>
@@ -2985,7 +3139,7 @@
       <c r="O73" s="50"/>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="89"/>
+      <c r="A74" s="98"/>
       <c r="B74" s="39"/>
       <c r="C74" s="40" t="s">
         <v>6</v>
@@ -2997,7 +3151,7 @@
       <c r="H74" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I74" s="93"/>
+      <c r="I74" s="100"/>
       <c r="J74" s="56"/>
       <c r="K74" s="57" t="s">
         <v>6</v>
@@ -3008,7 +3162,7 @@
       <c r="O74" s="50"/>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="90"/>
+      <c r="A75" s="99"/>
       <c r="B75" s="40"/>
       <c r="C75" s="40"/>
       <c r="D75" s="40"/>
@@ -3016,7 +3170,7 @@
       <c r="F75" s="40"/>
       <c r="G75" s="41"/>
       <c r="H75" s="75"/>
-      <c r="I75" s="94"/>
+      <c r="I75" s="101"/>
       <c r="J75" s="57"/>
       <c r="K75" s="57"/>
       <c r="L75" s="57"/>
@@ -3025,85 +3179,85 @@
       <c r="O75" s="58"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="97" t="s">
+      <c r="A77" s="89" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="97"/>
-      <c r="C77" s="97"/>
-      <c r="D77" s="97"/>
-      <c r="E77" s="97"/>
-      <c r="F77" s="97"/>
-      <c r="G77" s="97"/>
-      <c r="H77" s="97"/>
-      <c r="I77" s="97"/>
-      <c r="J77" s="97"/>
-      <c r="K77" s="97"/>
-      <c r="L77" s="97"/>
-      <c r="M77" s="97"/>
-      <c r="N77" s="97"/>
-      <c r="O77" s="97"/>
+      <c r="B77" s="89"/>
+      <c r="C77" s="89"/>
+      <c r="D77" s="89"/>
+      <c r="E77" s="89"/>
+      <c r="F77" s="89"/>
+      <c r="G77" s="89"/>
+      <c r="H77" s="89"/>
+      <c r="I77" s="89"/>
+      <c r="J77" s="89"/>
+      <c r="K77" s="89"/>
+      <c r="L77" s="89"/>
+      <c r="M77" s="89"/>
+      <c r="N77" s="89"/>
+      <c r="O77" s="89"/>
     </row>
     <row r="78" spans="1:15" ht="15">
-      <c r="A78" s="95" t="s">
+      <c r="A78" s="102" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="83" t="s">
+      <c r="B78" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="83" t="s">
+      <c r="C78" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="83" t="s">
+      <c r="D78" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="83" t="s">
+      <c r="E78" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="83" t="s">
+      <c r="F78" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="G78" s="85" t="s">
+      <c r="G78" s="104" t="s">
         <v>15</v>
       </c>
       <c r="H78" s="72"/>
-      <c r="I78" s="85" t="s">
+      <c r="I78" s="104" t="s">
         <v>14</v>
       </c>
-      <c r="J78" s="83" t="s">
+      <c r="J78" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="K78" s="83" t="s">
+      <c r="K78" s="96" t="s">
         <v>12</v>
       </c>
-      <c r="L78" s="83" t="s">
+      <c r="L78" s="96" t="s">
         <v>11</v>
       </c>
-      <c r="M78" s="83" t="s">
+      <c r="M78" s="96" t="s">
         <v>9</v>
       </c>
-      <c r="N78" s="83" t="s">
+      <c r="N78" s="96" t="s">
         <v>10</v>
       </c>
-      <c r="O78" s="81" t="s">
+      <c r="O78" s="90" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15">
-      <c r="A79" s="96"/>
-      <c r="B79" s="84"/>
-      <c r="C79" s="84"/>
-      <c r="D79" s="84"/>
-      <c r="E79" s="84"/>
-      <c r="F79" s="84"/>
-      <c r="G79" s="86"/>
+      <c r="A79" s="103"/>
+      <c r="B79" s="97"/>
+      <c r="C79" s="97"/>
+      <c r="D79" s="97"/>
+      <c r="E79" s="97"/>
+      <c r="F79" s="97"/>
+      <c r="G79" s="105"/>
       <c r="H79" s="73"/>
-      <c r="I79" s="86"/>
-      <c r="J79" s="84"/>
-      <c r="K79" s="84"/>
-      <c r="L79" s="84"/>
-      <c r="M79" s="84"/>
-      <c r="N79" s="84"/>
-      <c r="O79" s="82"/>
+      <c r="I79" s="105"/>
+      <c r="J79" s="97"/>
+      <c r="K79" s="97"/>
+      <c r="L79" s="97"/>
+      <c r="M79" s="97"/>
+      <c r="N79" s="97"/>
+      <c r="O79" s="91"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="27"/>
@@ -3123,7 +3277,7 @@
       <c r="O80" s="44"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="87" t="s">
+      <c r="A81" s="92" t="s">
         <v>17</v>
       </c>
       <c r="B81" s="10" t="s">
@@ -3147,7 +3301,7 @@
       <c r="H81" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I81" s="91" t="s">
+      <c r="I81" s="94" t="s">
         <v>19</v>
       </c>
       <c r="J81" s="21" t="s">
@@ -3170,7 +3324,7 @@
       </c>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="87"/>
+      <c r="A82" s="92"/>
       <c r="B82" s="12"/>
       <c r="C82" s="6" t="s">
         <v>3</v>
@@ -3190,7 +3344,7 @@
       <c r="H82" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I82" s="91"/>
+      <c r="I82" s="94"/>
       <c r="J82" s="23"/>
       <c r="K82" s="16" t="s">
         <v>3</v>
@@ -3209,7 +3363,7 @@
       </c>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="87"/>
+      <c r="A83" s="92"/>
       <c r="B83" s="12"/>
       <c r="C83" s="6" t="s">
         <v>2</v>
@@ -3229,7 +3383,7 @@
       <c r="H83" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I83" s="91"/>
+      <c r="I83" s="94"/>
       <c r="J83" s="23"/>
       <c r="K83" s="16" t="s">
         <v>2</v>
@@ -3248,7 +3402,7 @@
       </c>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="87"/>
+      <c r="A84" s="92"/>
       <c r="B84" s="12"/>
       <c r="C84" s="6" t="s">
         <v>4</v>
@@ -3268,7 +3422,7 @@
       <c r="H84" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I84" s="91"/>
+      <c r="I84" s="94"/>
       <c r="J84" s="23"/>
       <c r="K84" s="16" t="s">
         <v>4</v>
@@ -3287,7 +3441,7 @@
       </c>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="87"/>
+      <c r="A85" s="92"/>
       <c r="B85" s="12"/>
       <c r="C85" s="6" t="s">
         <v>8</v>
@@ -3307,7 +3461,7 @@
       <c r="H85" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I85" s="91"/>
+      <c r="I85" s="94"/>
       <c r="J85" s="23"/>
       <c r="K85" s="16" t="s">
         <v>8</v>
@@ -3326,7 +3480,7 @@
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="87"/>
+      <c r="A86" s="92"/>
       <c r="B86" s="12"/>
       <c r="C86" s="6" t="s">
         <v>5</v>
@@ -3346,26 +3500,26 @@
       <c r="H86" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I86" s="91"/>
-      <c r="J86" s="105"/>
+      <c r="I86" s="94"/>
+      <c r="J86" s="88"/>
       <c r="K86" s="59" t="s">
         <v>5</v>
       </c>
       <c r="L86" s="59">
         <v>47.353999999999999</v>
       </c>
-      <c r="M86" s="101">
+      <c r="M86" s="84">
         <v>1.1328E-2</v>
       </c>
-      <c r="N86" s="102">
+      <c r="N86" s="85">
         <v>3.9763000000000002</v>
       </c>
-      <c r="O86" s="103" t="s">
+      <c r="O86" s="86" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="87"/>
+      <c r="A87" s="92"/>
       <c r="B87" s="14"/>
       <c r="C87" s="8" t="s">
         <v>6</v>
@@ -3385,7 +3539,7 @@
       <c r="H87" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I87" s="91"/>
+      <c r="I87" s="94"/>
       <c r="J87" s="25"/>
       <c r="K87" s="19" t="s">
         <v>6</v>
@@ -3404,7 +3558,7 @@
       </c>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="87"/>
+      <c r="A88" s="92"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
@@ -3412,7 +3566,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="7"/>
       <c r="H88" s="74"/>
-      <c r="I88" s="91"/>
+      <c r="I88" s="94"/>
       <c r="J88" s="16"/>
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
@@ -3421,7 +3575,7 @@
       <c r="O88" s="18"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="87"/>
+      <c r="A89" s="92"/>
       <c r="B89" s="10" t="s">
         <v>7</v>
       </c>
@@ -3435,7 +3589,7 @@
       <c r="H89" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I89" s="91"/>
+      <c r="I89" s="94"/>
       <c r="J89" s="21" t="s">
         <v>7</v>
       </c>
@@ -3448,7 +3602,7 @@
       <c r="O89" s="18"/>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="87"/>
+      <c r="A90" s="92"/>
       <c r="B90" s="12"/>
       <c r="C90" s="6" t="s">
         <v>3</v>
@@ -3460,7 +3614,7 @@
       <c r="H90" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I90" s="91"/>
+      <c r="I90" s="94"/>
       <c r="J90" s="23"/>
       <c r="K90" s="16" t="s">
         <v>3</v>
@@ -3471,7 +3625,7 @@
       <c r="O90" s="18"/>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="87"/>
+      <c r="A91" s="92"/>
       <c r="B91" s="12"/>
       <c r="C91" s="6" t="s">
         <v>2</v>
@@ -3483,7 +3637,7 @@
       <c r="H91" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I91" s="91"/>
+      <c r="I91" s="94"/>
       <c r="J91" s="23"/>
       <c r="K91" s="16" t="s">
         <v>2</v>
@@ -3494,7 +3648,7 @@
       <c r="O91" s="18"/>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="87"/>
+      <c r="A92" s="92"/>
       <c r="B92" s="12"/>
       <c r="C92" s="6" t="s">
         <v>4</v>
@@ -3506,7 +3660,7 @@
       <c r="H92" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I92" s="91"/>
+      <c r="I92" s="94"/>
       <c r="J92" s="23"/>
       <c r="K92" s="16" t="s">
         <v>4</v>
@@ -3517,7 +3671,7 @@
       <c r="O92" s="18"/>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="87"/>
+      <c r="A93" s="92"/>
       <c r="B93" s="12"/>
       <c r="C93" s="6" t="s">
         <v>8</v>
@@ -3529,7 +3683,7 @@
       <c r="H93" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I93" s="91"/>
+      <c r="I93" s="94"/>
       <c r="J93" s="23"/>
       <c r="K93" s="16" t="s">
         <v>8</v>
@@ -3540,7 +3694,7 @@
       <c r="O93" s="18"/>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="87"/>
+      <c r="A94" s="92"/>
       <c r="B94" s="12"/>
       <c r="C94" s="6" t="s">
         <v>5</v>
@@ -3552,7 +3706,7 @@
       <c r="H94" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I94" s="91"/>
+      <c r="I94" s="94"/>
       <c r="J94" s="23"/>
       <c r="K94" s="16" t="s">
         <v>5</v>
@@ -3563,7 +3717,7 @@
       <c r="O94" s="18"/>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="87"/>
+      <c r="A95" s="92"/>
       <c r="B95" s="14"/>
       <c r="C95" s="8" t="s">
         <v>6</v>
@@ -3575,7 +3729,7 @@
       <c r="H95" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I95" s="91"/>
+      <c r="I95" s="94"/>
       <c r="J95" s="25"/>
       <c r="K95" s="19" t="s">
         <v>6</v>
@@ -3586,7 +3740,7 @@
       <c r="O95" s="18"/>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="88"/>
+      <c r="A96" s="93"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
@@ -3594,7 +3748,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
       <c r="H96" s="74"/>
-      <c r="I96" s="92"/>
+      <c r="I96" s="95"/>
       <c r="J96" s="19"/>
       <c r="K96" s="19"/>
       <c r="L96" s="19"/>
@@ -3620,7 +3774,7 @@
       <c r="O97" s="47"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="89" t="s">
+      <c r="A98" s="98" t="s">
         <v>18</v>
       </c>
       <c r="B98" s="33" t="s">
@@ -3644,7 +3798,7 @@
       <c r="H98" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I98" s="93" t="s">
+      <c r="I98" s="100" t="s">
         <v>20</v>
       </c>
       <c r="J98" s="48" t="s">
@@ -3667,7 +3821,7 @@
       </c>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="89"/>
+      <c r="A99" s="98"/>
       <c r="B99" s="36"/>
       <c r="C99" s="37" t="s">
         <v>3</v>
@@ -3687,7 +3841,7 @@
       <c r="H99" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I99" s="93"/>
+      <c r="I99" s="100"/>
       <c r="J99" s="51"/>
       <c r="K99" s="52" t="s">
         <v>3</v>
@@ -3706,7 +3860,7 @@
       </c>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="89"/>
+      <c r="A100" s="98"/>
       <c r="B100" s="36"/>
       <c r="C100" s="37" t="s">
         <v>2</v>
@@ -3726,7 +3880,7 @@
       <c r="H100" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I100" s="93"/>
+      <c r="I100" s="100"/>
       <c r="J100" s="51"/>
       <c r="K100" s="52" t="s">
         <v>2</v>
@@ -3745,7 +3899,7 @@
       </c>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="89"/>
+      <c r="A101" s="98"/>
       <c r="B101" s="36"/>
       <c r="C101" s="37" t="s">
         <v>4</v>
@@ -3765,7 +3919,7 @@
       <c r="H101" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I101" s="93"/>
+      <c r="I101" s="100"/>
       <c r="J101" s="51"/>
       <c r="K101" s="52" t="s">
         <v>4</v>
@@ -3784,7 +3938,7 @@
       </c>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="89"/>
+      <c r="A102" s="98"/>
       <c r="B102" s="36"/>
       <c r="C102" s="37" t="s">
         <v>8</v>
@@ -3804,7 +3958,7 @@
       <c r="H102" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I102" s="93"/>
+      <c r="I102" s="100"/>
       <c r="J102" s="51"/>
       <c r="K102" s="52" t="s">
         <v>8</v>
@@ -3823,7 +3977,7 @@
       </c>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="89"/>
+      <c r="A103" s="98"/>
       <c r="B103" s="36"/>
       <c r="C103" s="37" t="s">
         <v>5</v>
@@ -3843,26 +3997,26 @@
       <c r="H103" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I103" s="93"/>
-      <c r="J103" s="104"/>
+      <c r="I103" s="100"/>
+      <c r="J103" s="87"/>
       <c r="K103" s="60" t="s">
         <v>5</v>
       </c>
       <c r="L103" s="60">
         <v>48</v>
       </c>
-      <c r="M103" s="99">
+      <c r="M103" s="82">
         <v>4.0325999999999999E-3</v>
       </c>
-      <c r="N103" s="100">
+      <c r="N103" s="83">
         <v>3.9773000000000001</v>
       </c>
-      <c r="O103" s="98" t="s">
+      <c r="O103" s="81" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="89"/>
+      <c r="A104" s="98"/>
       <c r="B104" s="39"/>
       <c r="C104" s="40" t="s">
         <v>6</v>
@@ -3882,7 +4036,7 @@
       <c r="H104" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I104" s="93"/>
+      <c r="I104" s="100"/>
       <c r="J104" s="56"/>
       <c r="K104" s="57" t="s">
         <v>6</v>
@@ -3901,7 +4055,7 @@
       </c>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="89"/>
+      <c r="A105" s="98"/>
       <c r="B105" s="37"/>
       <c r="C105" s="37"/>
       <c r="D105" s="37"/>
@@ -3909,7 +4063,7 @@
       <c r="F105" s="37"/>
       <c r="G105" s="35"/>
       <c r="H105" s="74"/>
-      <c r="I105" s="93"/>
+      <c r="I105" s="100"/>
       <c r="J105" s="52"/>
       <c r="K105" s="52"/>
       <c r="L105" s="52"/>
@@ -3918,7 +4072,7 @@
       <c r="O105" s="50"/>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="89"/>
+      <c r="A106" s="98"/>
       <c r="B106" s="33" t="s">
         <v>7</v>
       </c>
@@ -3932,7 +4086,7 @@
       <c r="H106" s="76" t="s">
         <v>24</v>
       </c>
-      <c r="I106" s="93"/>
+      <c r="I106" s="100"/>
       <c r="J106" s="48" t="s">
         <v>7</v>
       </c>
@@ -3945,7 +4099,7 @@
       <c r="O106" s="50"/>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="89"/>
+      <c r="A107" s="98"/>
       <c r="B107" s="36"/>
       <c r="C107" s="37" t="s">
         <v>3</v>
@@ -3957,7 +4111,7 @@
       <c r="H107" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="I107" s="93"/>
+      <c r="I107" s="100"/>
       <c r="J107" s="51"/>
       <c r="K107" s="52" t="s">
         <v>3</v>
@@ -3968,7 +4122,7 @@
       <c r="O107" s="50"/>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="89"/>
+      <c r="A108" s="98"/>
       <c r="B108" s="36"/>
       <c r="C108" s="37" t="s">
         <v>2</v>
@@ -3980,7 +4134,7 @@
       <c r="H108" s="76" t="s">
         <v>26</v>
       </c>
-      <c r="I108" s="93"/>
+      <c r="I108" s="100"/>
       <c r="J108" s="51"/>
       <c r="K108" s="52" t="s">
         <v>2</v>
@@ -3991,7 +4145,7 @@
       <c r="O108" s="50"/>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="89"/>
+      <c r="A109" s="98"/>
       <c r="B109" s="36"/>
       <c r="C109" s="37" t="s">
         <v>4</v>
@@ -4003,7 +4157,7 @@
       <c r="H109" s="77" t="s">
         <v>27</v>
       </c>
-      <c r="I109" s="93"/>
+      <c r="I109" s="100"/>
       <c r="J109" s="51"/>
       <c r="K109" s="52" t="s">
         <v>4</v>
@@ -4014,7 +4168,7 @@
       <c r="O109" s="50"/>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="89"/>
+      <c r="A110" s="98"/>
       <c r="B110" s="36"/>
       <c r="C110" s="37" t="s">
         <v>8</v>
@@ -4026,7 +4180,7 @@
       <c r="H110" s="77" t="s">
         <v>28</v>
       </c>
-      <c r="I110" s="93"/>
+      <c r="I110" s="100"/>
       <c r="J110" s="51"/>
       <c r="K110" s="52" t="s">
         <v>8</v>
@@ -4037,7 +4191,7 @@
       <c r="O110" s="50"/>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="89"/>
+      <c r="A111" s="98"/>
       <c r="B111" s="36"/>
       <c r="C111" s="37" t="s">
         <v>5</v>
@@ -4049,7 +4203,7 @@
       <c r="H111" s="77" t="s">
         <v>29</v>
       </c>
-      <c r="I111" s="93"/>
+      <c r="I111" s="100"/>
       <c r="J111" s="51"/>
       <c r="K111" s="52" t="s">
         <v>5</v>
@@ -4060,7 +4214,7 @@
       <c r="O111" s="50"/>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="89"/>
+      <c r="A112" s="98"/>
       <c r="B112" s="39"/>
       <c r="C112" s="40" t="s">
         <v>6</v>
@@ -4072,7 +4226,7 @@
       <c r="H112" s="77" t="s">
         <v>30</v>
       </c>
-      <c r="I112" s="93"/>
+      <c r="I112" s="100"/>
       <c r="J112" s="56"/>
       <c r="K112" s="57" t="s">
         <v>6</v>
@@ -4083,7 +4237,7 @@
       <c r="O112" s="50"/>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="90"/>
+      <c r="A113" s="99"/>
       <c r="B113" s="40"/>
       <c r="C113" s="40"/>
       <c r="D113" s="40"/>
@@ -4091,7 +4245,7 @@
       <c r="F113" s="40"/>
       <c r="G113" s="41"/>
       <c r="H113" s="75"/>
-      <c r="I113" s="94"/>
+      <c r="I113" s="101"/>
       <c r="J113" s="57"/>
       <c r="K113" s="57"/>
       <c r="L113" s="57"/>
@@ -4101,6 +4255,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="I5:I20"/>
+    <mergeCell ref="I22:I37"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="I98:I113"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="I78:I79"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A39:O39"/>
     <mergeCell ref="A77:O77"/>
@@ -4117,47 +4312,6 @@
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="A43:A58"/>
     <mergeCell ref="I43:I58"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="I98:I113"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="I5:I20"/>
-    <mergeCell ref="I22:I37"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Comparador Tabla de NDout.xlsx
+++ b/Documentation/Comparador Tabla de NDout.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="32">
   <si>
     <t>EXP</t>
   </si>
@@ -285,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="108">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -324,7 +324,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -381,7 +380,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -391,7 +389,6 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -399,7 +396,6 @@
     <xf numFmtId="11" fontId="0" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -429,13 +425,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -444,22 +451,16 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -474,14 +475,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -783,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="L115" sqref="L115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -804,105 +805,105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="103" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="89"/>
-      <c r="N1" s="89"/>
-      <c r="O1" s="89"/>
+      <c r="B1" s="103"/>
+      <c r="C1" s="103"/>
+      <c r="D1" s="103"/>
+      <c r="E1" s="103"/>
+      <c r="F1" s="103"/>
+      <c r="G1" s="103"/>
+      <c r="H1" s="103"/>
+      <c r="I1" s="103"/>
+      <c r="J1" s="103"/>
+      <c r="K1" s="103"/>
+      <c r="L1" s="103"/>
+      <c r="M1" s="103"/>
+      <c r="N1" s="103"/>
+      <c r="O1" s="103"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15">
-      <c r="A2" s="102" t="s">
+      <c r="A2" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="96" t="s">
+      <c r="B2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="96" t="s">
+      <c r="C2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="96" t="s">
+      <c r="D2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="96" t="s">
+      <c r="E2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="96" t="s">
+      <c r="F2" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="104" t="s">
+      <c r="G2" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="72"/>
-      <c r="I2" s="104" t="s">
+      <c r="H2" s="68"/>
+      <c r="I2" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="96" t="s">
+      <c r="J2" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="96" t="s">
+      <c r="K2" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="96" t="s">
+      <c r="L2" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="96" t="s">
+      <c r="M2" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="96" t="s">
+      <c r="N2" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="90" t="s">
+      <c r="O2" s="87" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="15">
-      <c r="A3" s="103"/>
-      <c r="B3" s="97"/>
-      <c r="C3" s="97"/>
-      <c r="D3" s="97"/>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97"/>
-      <c r="G3" s="105"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="105"/>
-      <c r="J3" s="97"/>
-      <c r="K3" s="97"/>
-      <c r="L3" s="97"/>
-      <c r="M3" s="97"/>
-      <c r="N3" s="97"/>
-      <c r="O3" s="91"/>
+      <c r="A3" s="102"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="90"/>
+      <c r="K3" s="90"/>
+      <c r="L3" s="90"/>
+      <c r="M3" s="90"/>
+      <c r="N3" s="90"/>
+      <c r="O3" s="88"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="43"/>
-      <c r="K4" s="43"/>
-      <c r="L4" s="43"/>
-      <c r="M4" s="43"/>
-      <c r="N4" s="43"/>
-      <c r="O4" s="44"/>
+      <c r="A4" s="26"/>
+      <c r="B4" s="27"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
+      <c r="O4" s="43"/>
     </row>
     <row r="5" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="93" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -923,10 +924,10 @@
       <c r="G5" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="76" t="s">
+      <c r="H5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="94" t="s">
+      <c r="I5" s="97" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="21" t="s">
@@ -941,7 +942,7 @@
       <c r="M5" s="22">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N5" s="69">
+      <c r="N5" s="66">
         <v>-9.5232999999999998E-2</v>
       </c>
       <c r="O5" s="18" t="s">
@@ -949,7 +950,7 @@
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="92"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="12"/>
       <c r="C6" s="6" t="s">
         <v>3</v>
@@ -966,10 +967,10 @@
       <c r="G6" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="76" t="s">
+      <c r="H6" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="94"/>
+      <c r="I6" s="97"/>
       <c r="J6" s="23"/>
       <c r="K6" s="16" t="s">
         <v>3</v>
@@ -980,7 +981,7 @@
       <c r="M6" s="17">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N6" s="26">
+      <c r="N6" s="25">
         <v>6.3242999999999994E-2</v>
       </c>
       <c r="O6" s="18" t="s">
@@ -988,7 +989,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="92"/>
+      <c r="A7" s="93"/>
       <c r="B7" s="12"/>
       <c r="C7" s="6" t="s">
         <v>2</v>
@@ -1005,10 +1006,10 @@
       <c r="G7" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="76" t="s">
+      <c r="H7" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="94"/>
+      <c r="I7" s="97"/>
       <c r="J7" s="23"/>
       <c r="K7" s="16" t="s">
         <v>2</v>
@@ -1019,7 +1020,7 @@
       <c r="M7" s="17">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N7" s="26">
+      <c r="N7" s="25">
         <v>-0.38363000000000003</v>
       </c>
       <c r="O7" s="18" t="s">
@@ -1027,7 +1028,7 @@
       </c>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="92"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="12"/>
       <c r="C8" s="6" t="s">
         <v>4</v>
@@ -1044,21 +1045,21 @@
       <c r="G8" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H8" s="77" t="s">
+      <c r="H8" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="94"/>
+      <c r="I8" s="97"/>
       <c r="J8" s="23"/>
       <c r="K8" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="78">
+      <c r="L8" s="74">
         <v>11.91</v>
       </c>
       <c r="M8" s="17">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N8" s="26">
+      <c r="N8" s="25">
         <v>0.10210900000000001</v>
       </c>
       <c r="O8" s="18" t="s">
@@ -1066,7 +1067,7 @@
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="92"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="12"/>
       <c r="C9" s="6" t="s">
         <v>8</v>
@@ -1083,10 +1084,10 @@
       <c r="G9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="77" t="s">
+      <c r="H9" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="94"/>
+      <c r="I9" s="97"/>
       <c r="J9" s="23"/>
       <c r="K9" s="16" t="s">
         <v>8</v>
@@ -1097,7 +1098,7 @@
       <c r="M9" s="17">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="25">
         <v>-0.17081499999999999</v>
       </c>
       <c r="O9" s="18" t="s">
@@ -1105,7 +1106,7 @@
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="92"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="12"/>
       <c r="C10" s="6" t="s">
         <v>5</v>
@@ -1122,60 +1123,60 @@
       <c r="G10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="77" t="s">
+      <c r="H10" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="94"/>
+      <c r="I10" s="97"/>
       <c r="J10" s="23"/>
-      <c r="K10" s="59" t="s">
+      <c r="K10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="L10" s="59">
+      <c r="L10" s="57">
         <v>45.62</v>
       </c>
-      <c r="M10" s="84">
+      <c r="M10" s="80">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N10" s="85">
+      <c r="N10" s="81">
         <v>3.9763000000000002</v>
       </c>
-      <c r="O10" s="86" t="s">
+      <c r="O10" s="82" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="92"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="14"/>
       <c r="C11" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="79">
+      <c r="D11" s="75">
         <v>13.333</v>
       </c>
       <c r="E11" s="8">
         <v>3.2029999999999998</v>
       </c>
-      <c r="F11" s="61">
+      <c r="F11" s="59">
         <v>2.6779000000000002</v>
       </c>
       <c r="G11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H11" s="77" t="s">
+      <c r="H11" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="94"/>
-      <c r="J11" s="25"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="24"/>
       <c r="K11" s="19" t="s">
         <v>6</v>
       </c>
       <c r="L11" s="19">
         <v>45.610999999999997</v>
       </c>
-      <c r="M11" s="65">
+      <c r="M11" s="62">
         <v>7.0200000000000002E-3</v>
       </c>
-      <c r="N11" s="66">
+      <c r="N11" s="63">
         <v>-0.66932199999999997</v>
       </c>
       <c r="O11" s="18" t="s">
@@ -1183,15 +1184,15 @@
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="92"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="6"/>
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
-      <c r="H12" s="74"/>
-      <c r="I12" s="94"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="97"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -1200,7 +1201,7 @@
       <c r="O12" s="18"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="92"/>
+      <c r="A13" s="93"/>
       <c r="B13" s="10" t="s">
         <v>7</v>
       </c>
@@ -1219,10 +1220,10 @@
       <c r="G13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="76" t="s">
+      <c r="H13" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="94"/>
+      <c r="I13" s="97"/>
       <c r="J13" s="21" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1236,7 @@
       <c r="M13" s="22">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N13" s="69">
+      <c r="N13" s="66">
         <v>-9.7224000000000005E-2</v>
       </c>
       <c r="O13" s="18" t="s">
@@ -1243,7 +1244,7 @@
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="92"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="12"/>
       <c r="C14" s="6" t="s">
         <v>3</v>
@@ -1260,10 +1261,10 @@
       <c r="G14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H14" s="76" t="s">
+      <c r="H14" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="94"/>
+      <c r="I14" s="97"/>
       <c r="J14" s="23"/>
       <c r="K14" s="16" t="s">
         <v>3</v>
@@ -1274,7 +1275,7 @@
       <c r="M14" s="17">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N14" s="26">
+      <c r="N14" s="25">
         <v>6.3624E-2</v>
       </c>
       <c r="O14" s="18" t="s">
@@ -1282,7 +1283,7 @@
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="92"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="12"/>
       <c r="C15" s="6" t="s">
         <v>2</v>
@@ -1293,16 +1294,16 @@
       <c r="E15" s="6">
         <v>3.2029999999999998</v>
       </c>
-      <c r="F15" s="106">
+      <c r="F15" s="85">
         <v>2.9731000000000001</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="76" t="s">
+      <c r="H15" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="94"/>
+      <c r="I15" s="97"/>
       <c r="J15" s="23"/>
       <c r="K15" s="16" t="s">
         <v>2</v>
@@ -1313,7 +1314,7 @@
       <c r="M15" s="17">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N15" s="26">
+      <c r="N15" s="25">
         <v>-0.39913799999999999</v>
       </c>
       <c r="O15" s="18" t="s">
@@ -1321,7 +1322,7 @@
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="92"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="12"/>
       <c r="C16" s="6" t="s">
         <v>4</v>
@@ -1338,21 +1339,21 @@
       <c r="G16" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H16" s="77" t="s">
+      <c r="H16" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="94"/>
+      <c r="I16" s="97"/>
       <c r="J16" s="23"/>
       <c r="K16" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L16" s="78">
+      <c r="L16" s="74">
         <v>12.055999999999999</v>
       </c>
       <c r="M16" s="17">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N16" s="26">
+      <c r="N16" s="25">
         <v>0.102019</v>
       </c>
       <c r="O16" s="18" t="s">
@@ -1360,7 +1361,7 @@
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="92"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="12"/>
       <c r="C17" s="6" t="s">
         <v>8</v>
@@ -1377,10 +1378,10 @@
       <c r="G17" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H17" s="77" t="s">
+      <c r="H17" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="94"/>
+      <c r="I17" s="97"/>
       <c r="J17" s="23"/>
       <c r="K17" s="16" t="s">
         <v>8</v>
@@ -1391,7 +1392,7 @@
       <c r="M17" s="17">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N17" s="26">
+      <c r="N17" s="25">
         <v>-0.216142</v>
       </c>
       <c r="O17" s="18" t="s">
@@ -1399,7 +1400,7 @@
       </c>
     </row>
     <row r="18" spans="1:15">
-      <c r="A18" s="92"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="12"/>
       <c r="C18" s="6" t="s">
         <v>5</v>
@@ -1416,60 +1417,60 @@
       <c r="G18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H18" s="77" t="s">
+      <c r="H18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="94"/>
+      <c r="I18" s="97"/>
       <c r="J18" s="23"/>
-      <c r="K18" s="59" t="s">
+      <c r="K18" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="L18" s="59">
+      <c r="L18" s="57">
         <v>58.65</v>
       </c>
-      <c r="M18" s="84">
+      <c r="M18" s="80">
         <v>7.0159999999999997E-3</v>
       </c>
-      <c r="N18" s="85">
+      <c r="N18" s="81">
         <v>3.9887000000000001</v>
       </c>
-      <c r="O18" s="86" t="s">
+      <c r="O18" s="82" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:15">
-      <c r="A19" s="92"/>
+      <c r="A19" s="93"/>
       <c r="B19" s="14"/>
       <c r="C19" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="79">
+      <c r="D19" s="75">
         <v>12.11</v>
       </c>
       <c r="E19" s="8">
         <v>3.2029999999999998</v>
       </c>
-      <c r="F19" s="61">
+      <c r="F19" s="59">
         <v>2.6655000000000002</v>
       </c>
       <c r="G19" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H19" s="77" t="s">
+      <c r="H19" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="94"/>
-      <c r="J19" s="25"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="24"/>
       <c r="K19" s="19" t="s">
         <v>6</v>
       </c>
       <c r="L19" s="19">
         <v>48</v>
       </c>
-      <c r="M19" s="65">
+      <c r="M19" s="62">
         <v>7.0200000000000002E-3</v>
       </c>
-      <c r="N19" s="66">
+      <c r="N19" s="63">
         <v>-0.669624</v>
       </c>
       <c r="O19" s="18" t="s">
@@ -1477,15 +1478,15 @@
       </c>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="93"/>
+      <c r="A20" s="94"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="74"/>
-      <c r="I20" s="95"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="98"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -1494,715 +1495,715 @@
       <c r="O20" s="20"/>
     </row>
     <row r="21" spans="1:15">
-      <c r="A21" s="30"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="32"/>
-      <c r="H21" s="74"/>
-      <c r="I21" s="45"/>
-      <c r="J21" s="46"/>
-      <c r="K21" s="46"/>
-      <c r="L21" s="46"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="46"/>
-      <c r="O21" s="47"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="31"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="45"/>
+      <c r="K21" s="45"/>
+      <c r="L21" s="45"/>
+      <c r="M21" s="45"/>
+      <c r="N21" s="45"/>
+      <c r="O21" s="46"/>
     </row>
     <row r="22" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A22" s="98" t="s">
+      <c r="A22" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B22" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="30">
         <v>5.0561999999999996</v>
       </c>
-      <c r="E22" s="31">
+      <c r="E22" s="30">
         <v>3.1757</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="33">
         <v>3.1194000000000002</v>
       </c>
-      <c r="G22" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="76" t="s">
+      <c r="G22" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="100" t="s">
+      <c r="I22" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="48" t="s">
+      <c r="J22" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="K22" s="46" t="s">
+      <c r="K22" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L22" s="46">
+      <c r="L22" s="45">
         <v>6.9663000000000004</v>
       </c>
-      <c r="M22" s="49">
+      <c r="M22" s="48">
         <v>2.5725000000000001E-3</v>
       </c>
-      <c r="N22" s="70">
+      <c r="N22" s="67">
         <v>-9.0359999999999996E-2</v>
       </c>
-      <c r="O22" s="50" t="s">
+      <c r="O22" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="98"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="37" t="s">
+      <c r="A23" s="95"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D23" s="37">
+      <c r="D23" s="36">
         <v>4.9438000000000004</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="36">
         <v>3.1757</v>
       </c>
-      <c r="F23" s="38">
+      <c r="F23" s="37">
         <v>3.2341000000000002</v>
       </c>
-      <c r="G23" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="76" t="s">
+      <c r="G23" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="100"/>
-      <c r="J23" s="51"/>
-      <c r="K23" s="52" t="s">
+      <c r="I23" s="99"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="L23" s="52">
+      <c r="L23" s="51">
         <v>8.7079000000000004</v>
       </c>
-      <c r="M23" s="53">
+      <c r="M23" s="52">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N23" s="54">
+      <c r="N23" s="53">
         <v>2.4035000000000001E-2</v>
       </c>
-      <c r="O23" s="50" t="s">
+      <c r="O23" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="98"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="37" t="s">
+      <c r="A24" s="95"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="37">
+      <c r="D24" s="36">
         <v>8.3707999999999991</v>
       </c>
-      <c r="E24" s="37">
+      <c r="E24" s="36">
         <v>3.1757</v>
       </c>
-      <c r="F24" s="38">
+      <c r="F24" s="37">
         <v>2.891</v>
       </c>
-      <c r="G24" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="76" t="s">
+      <c r="G24" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="100"/>
-      <c r="J24" s="51"/>
-      <c r="K24" s="52" t="s">
+      <c r="I24" s="99"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L24" s="52">
+      <c r="L24" s="51">
         <v>9.3257999999999992</v>
       </c>
-      <c r="M24" s="53">
+      <c r="M24" s="52">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N24" s="54">
+      <c r="N24" s="53">
         <v>-0.38068099999999999</v>
       </c>
-      <c r="O24" s="50" t="s">
+      <c r="O24" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="98"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="37" t="s">
+      <c r="A25" s="95"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="37">
+      <c r="D25" s="36">
         <v>8.7639999999999993</v>
       </c>
-      <c r="E25" s="37">
+      <c r="E25" s="36">
         <v>3.1757</v>
       </c>
-      <c r="F25" s="38">
+      <c r="F25" s="37">
         <v>3.4870999999999999</v>
       </c>
-      <c r="G25" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="77" t="s">
+      <c r="G25" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="100"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="52" t="s">
+      <c r="I25" s="99"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="L25" s="52">
+      <c r="L25" s="51">
         <v>12.023</v>
       </c>
-      <c r="M25" s="53">
+      <c r="M25" s="52">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N25" s="54">
+      <c r="N25" s="53">
         <v>3.4705E-2</v>
       </c>
-      <c r="O25" s="50" t="s">
+      <c r="O25" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="98"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="37" t="s">
+      <c r="A26" s="95"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D26" s="36">
         <v>13.325799999999999</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="36">
         <v>3.1757</v>
       </c>
-      <c r="F26" s="38">
+      <c r="F26" s="37">
         <v>3.0318000000000001</v>
       </c>
-      <c r="G26" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="77" t="s">
+      <c r="G26" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="100"/>
-      <c r="J26" s="51"/>
-      <c r="K26" s="52" t="s">
+      <c r="I26" s="99"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L26" s="52">
+      <c r="L26" s="51">
         <v>15.055999999999999</v>
       </c>
-      <c r="M26" s="53">
+      <c r="M26" s="52">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N26" s="54">
+      <c r="N26" s="53">
         <v>-0.161492</v>
       </c>
-      <c r="O26" s="50" t="s">
+      <c r="O26" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="98"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="37" t="s">
+      <c r="A27" s="95"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="36">
         <v>16.667000000000002</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="36">
         <v>3.1757</v>
       </c>
-      <c r="F27" s="38">
+      <c r="F27" s="37">
         <v>3.8851</v>
       </c>
-      <c r="G27" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="77" t="s">
+      <c r="G27" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="100"/>
-      <c r="J27" s="51"/>
-      <c r="K27" s="60" t="s">
+      <c r="I27" s="99"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L27" s="60">
+      <c r="L27" s="58">
         <v>47.92</v>
       </c>
-      <c r="M27" s="82">
+      <c r="M27" s="78">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N27" s="83">
+      <c r="N27" s="79">
         <v>3.9861</v>
       </c>
-      <c r="O27" s="81" t="s">
+      <c r="O27" s="77" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="98"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40" t="s">
+      <c r="A28" s="95"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D28" s="80">
+      <c r="D28" s="76">
         <v>14.778</v>
       </c>
-      <c r="E28" s="40">
+      <c r="E28" s="39">
         <v>3.1757</v>
       </c>
-      <c r="F28" s="62">
+      <c r="F28" s="60">
         <v>2.3609</v>
       </c>
-      <c r="G28" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="77" t="s">
+      <c r="G28" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="100"/>
-      <c r="J28" s="56"/>
-      <c r="K28" s="57" t="s">
+      <c r="I28" s="99"/>
+      <c r="J28" s="54"/>
+      <c r="K28" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L28" s="57">
+      <c r="L28" s="55">
         <v>47.262999999999998</v>
       </c>
-      <c r="M28" s="67">
+      <c r="M28" s="64">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N28" s="68">
+      <c r="N28" s="65">
         <v>-0.665628</v>
       </c>
-      <c r="O28" s="50" t="s">
+      <c r="O28" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="98"/>
-      <c r="B29" s="37"/>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="37"/>
-      <c r="F29" s="37"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="74"/>
-      <c r="I29" s="100"/>
-      <c r="J29" s="52"/>
-      <c r="K29" s="52"/>
-      <c r="L29" s="52"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="52"/>
-      <c r="O29" s="50"/>
+      <c r="A29" s="95"/>
+      <c r="B29" s="36"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="36"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="99"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="49"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="98"/>
-      <c r="B30" s="33" t="s">
+      <c r="A30" s="95"/>
+      <c r="B30" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="31" t="s">
+      <c r="C30" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D30" s="31">
+      <c r="D30" s="30">
         <v>5.7220000000000004</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="30">
         <v>3.1757</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="33">
         <v>3.1181000000000001</v>
       </c>
-      <c r="G30" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="76" t="s">
+      <c r="G30" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="100"/>
-      <c r="J30" s="48" t="s">
+      <c r="I30" s="99"/>
+      <c r="J30" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="46" t="s">
+      <c r="K30" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L30" s="46">
+      <c r="L30" s="45">
         <v>7.2220000000000004</v>
       </c>
-      <c r="M30" s="49">
+      <c r="M30" s="48">
         <v>2.5725000000000001E-3</v>
       </c>
-      <c r="N30" s="70">
+      <c r="N30" s="67">
         <v>-9.5528000000000002E-2</v>
       </c>
-      <c r="O30" s="50" t="s">
+      <c r="O30" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="98"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="37" t="s">
+      <c r="A31" s="95"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D31" s="37">
+      <c r="D31" s="36">
         <v>5.0556000000000001</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="36">
         <v>3.1757</v>
       </c>
-      <c r="F31" s="38">
+      <c r="F31" s="37">
         <v>3.2349000000000001</v>
       </c>
-      <c r="G31" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="76" t="s">
+      <c r="G31" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="100"/>
-      <c r="J31" s="51"/>
-      <c r="K31" s="52" t="s">
+      <c r="I31" s="99"/>
+      <c r="J31" s="50"/>
+      <c r="K31" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="L31" s="52">
+      <c r="L31" s="51">
         <v>8.6111000000000004</v>
       </c>
-      <c r="M31" s="53">
+      <c r="M31" s="52">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N31" s="54">
+      <c r="N31" s="53">
         <v>2.4462000000000001E-2</v>
       </c>
-      <c r="O31" s="50" t="s">
+      <c r="O31" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="98"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="37" t="s">
+      <c r="A32" s="95"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="107">
+      <c r="D32" s="86">
         <v>8</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="36">
         <v>3.1757</v>
       </c>
-      <c r="F32" s="38">
+      <c r="F32" s="37">
         <v>2.8919000000000001</v>
       </c>
-      <c r="G32" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="76" t="s">
+      <c r="G32" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="100"/>
-      <c r="J32" s="51"/>
-      <c r="K32" s="52" t="s">
+      <c r="I32" s="99"/>
+      <c r="J32" s="50"/>
+      <c r="K32" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L32" s="52">
+      <c r="L32" s="51">
         <v>9</v>
       </c>
-      <c r="M32" s="53">
+      <c r="M32" s="52">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N32" s="54">
+      <c r="N32" s="53">
         <v>-0.40907300000000002</v>
       </c>
-      <c r="O32" s="50" t="s">
+      <c r="O32" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="98"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="37" t="s">
+      <c r="A33" s="95"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D33" s="37">
+      <c r="D33" s="36">
         <v>8.3888999999999996</v>
       </c>
-      <c r="E33" s="37">
+      <c r="E33" s="36">
         <v>3.1757</v>
       </c>
-      <c r="F33" s="38">
+      <c r="F33" s="37">
         <v>3.4988999999999999</v>
       </c>
-      <c r="G33" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="77" t="s">
+      <c r="G33" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="100"/>
-      <c r="J33" s="51"/>
-      <c r="K33" s="52" t="s">
+      <c r="I33" s="99"/>
+      <c r="J33" s="50"/>
+      <c r="K33" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="L33" s="52">
+      <c r="L33" s="51">
         <v>12.278</v>
       </c>
-      <c r="M33" s="53">
+      <c r="M33" s="52">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N33" s="54">
+      <c r="N33" s="53">
         <v>3.4770000000000002E-2</v>
       </c>
-      <c r="O33" s="50" t="s">
+      <c r="O33" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="98"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="37" t="s">
+      <c r="A34" s="95"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D34" s="37">
+      <c r="D34" s="36">
         <v>47.83</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="36">
         <v>3.1757</v>
       </c>
-      <c r="F34" s="38">
+      <c r="F34" s="37">
         <v>2.9952999999999999</v>
       </c>
-      <c r="G34" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="77" t="s">
+      <c r="G34" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="100"/>
-      <c r="J34" s="51"/>
-      <c r="K34" s="52" t="s">
+      <c r="I34" s="99"/>
+      <c r="J34" s="50"/>
+      <c r="K34" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L34" s="52">
+      <c r="L34" s="51">
         <v>14.778</v>
       </c>
-      <c r="M34" s="53">
+      <c r="M34" s="52">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N34" s="54">
+      <c r="N34" s="53">
         <v>-0.20065</v>
       </c>
-      <c r="O34" s="50" t="s">
+      <c r="O34" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="98"/>
-      <c r="B35" s="36"/>
-      <c r="C35" s="37" t="s">
+      <c r="A35" s="95"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>13</v>
       </c>
-      <c r="E35" s="37">
+      <c r="E35" s="36">
         <v>3.1757</v>
       </c>
-      <c r="F35" s="38">
+      <c r="F35" s="37">
         <v>3.8393999999999999</v>
       </c>
-      <c r="G35" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="77" t="s">
+      <c r="G35" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="100"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="60" t="s">
+      <c r="I35" s="99"/>
+      <c r="J35" s="50"/>
+      <c r="K35" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L35" s="60">
+      <c r="L35" s="58">
         <v>56.127000000000002</v>
       </c>
-      <c r="M35" s="82">
+      <c r="M35" s="78">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N35" s="83">
+      <c r="N35" s="79">
         <v>3.9839000000000002</v>
       </c>
-      <c r="O35" s="81" t="s">
+      <c r="O35" s="77" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="98"/>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40" t="s">
+      <c r="A36" s="95"/>
+      <c r="B36" s="38"/>
+      <c r="C36" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="80">
+      <c r="D36" s="76">
         <v>13.667</v>
       </c>
-      <c r="E36" s="40">
+      <c r="E36" s="39">
         <v>3.1757</v>
       </c>
-      <c r="F36" s="62">
+      <c r="F36" s="60">
         <v>2.3001</v>
       </c>
-      <c r="G36" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="77" t="s">
+      <c r="G36" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="100"/>
-      <c r="J36" s="56"/>
-      <c r="K36" s="57" t="s">
+      <c r="I36" s="99"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L36" s="57">
+      <c r="L36" s="55">
         <v>25.332999999999998</v>
       </c>
-      <c r="M36" s="67">
+      <c r="M36" s="64">
         <v>2.5699999999999998E-3</v>
       </c>
-      <c r="N36" s="68">
+      <c r="N36" s="65">
         <v>-0.66981800000000002</v>
       </c>
-      <c r="O36" s="50" t="s">
+      <c r="O36" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="99"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="40"/>
-      <c r="D37" s="40"/>
-      <c r="E37" s="40"/>
-      <c r="F37" s="40"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="101"/>
-      <c r="J37" s="57"/>
-      <c r="K37" s="57"/>
-      <c r="L37" s="57"/>
-      <c r="M37" s="57"/>
-      <c r="N37" s="57"/>
-      <c r="O37" s="58"/>
+      <c r="A37" s="96"/>
+      <c r="B37" s="39"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="39"/>
+      <c r="E37" s="39"/>
+      <c r="F37" s="39"/>
+      <c r="G37" s="40"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="100"/>
+      <c r="J37" s="55"/>
+      <c r="K37" s="55"/>
+      <c r="L37" s="55"/>
+      <c r="M37" s="55"/>
+      <c r="N37" s="55"/>
+      <c r="O37" s="56"/>
     </row>
     <row r="38" spans="1:15" ht="17.25" customHeight="1"/>
     <row r="39" spans="1:15">
-      <c r="A39" s="89" t="s">
+      <c r="A39" s="103" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="89"/>
-      <c r="C39" s="89"/>
-      <c r="D39" s="89"/>
-      <c r="E39" s="89"/>
-      <c r="F39" s="89"/>
-      <c r="G39" s="89"/>
-      <c r="H39" s="89"/>
-      <c r="I39" s="89"/>
-      <c r="J39" s="89"/>
-      <c r="K39" s="89"/>
-      <c r="L39" s="89"/>
-      <c r="M39" s="89"/>
-      <c r="N39" s="89"/>
-      <c r="O39" s="89"/>
+      <c r="B39" s="103"/>
+      <c r="C39" s="103"/>
+      <c r="D39" s="103"/>
+      <c r="E39" s="103"/>
+      <c r="F39" s="103"/>
+      <c r="G39" s="103"/>
+      <c r="H39" s="103"/>
+      <c r="I39" s="103"/>
+      <c r="J39" s="103"/>
+      <c r="K39" s="103"/>
+      <c r="L39" s="103"/>
+      <c r="M39" s="103"/>
+      <c r="N39" s="103"/>
+      <c r="O39" s="103"/>
     </row>
     <row r="40" spans="1:15" ht="15">
-      <c r="A40" s="102" t="s">
+      <c r="A40" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="96" t="s">
+      <c r="B40" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="96" t="s">
+      <c r="C40" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="96" t="s">
+      <c r="D40" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="96" t="s">
+      <c r="E40" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="96" t="s">
+      <c r="F40" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="104" t="s">
+      <c r="G40" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="H40" s="72"/>
-      <c r="I40" s="104" t="s">
+      <c r="H40" s="68"/>
+      <c r="I40" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="96" t="s">
+      <c r="J40" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="96" t="s">
+      <c r="K40" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="L40" s="96" t="s">
+      <c r="L40" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="M40" s="96" t="s">
+      <c r="M40" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="N40" s="96" t="s">
+      <c r="N40" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O40" s="90" t="s">
+      <c r="O40" s="87" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15">
-      <c r="A41" s="103"/>
-      <c r="B41" s="97"/>
-      <c r="C41" s="97"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="97"/>
-      <c r="F41" s="97"/>
-      <c r="G41" s="105"/>
-      <c r="H41" s="73"/>
-      <c r="I41" s="105"/>
-      <c r="J41" s="97"/>
-      <c r="K41" s="97"/>
-      <c r="L41" s="97"/>
-      <c r="M41" s="97"/>
-      <c r="N41" s="97"/>
-      <c r="O41" s="91"/>
+      <c r="A41" s="102"/>
+      <c r="B41" s="90"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="90"/>
+      <c r="E41" s="90"/>
+      <c r="F41" s="90"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="69"/>
+      <c r="I41" s="92"/>
+      <c r="J41" s="90"/>
+      <c r="K41" s="90"/>
+      <c r="L41" s="90"/>
+      <c r="M41" s="90"/>
+      <c r="N41" s="90"/>
+      <c r="O41" s="88"/>
     </row>
     <row r="42" spans="1:15">
-      <c r="A42" s="27"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="28"/>
-      <c r="E42" s="28"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="73"/>
-      <c r="I42" s="42"/>
-      <c r="J42" s="43"/>
-      <c r="K42" s="43"/>
-      <c r="L42" s="43"/>
-      <c r="M42" s="43"/>
-      <c r="N42" s="43"/>
-      <c r="O42" s="44"/>
+      <c r="A42" s="26"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+      <c r="H42" s="69"/>
+      <c r="I42" s="41"/>
+      <c r="J42" s="42"/>
+      <c r="K42" s="42"/>
+      <c r="L42" s="42"/>
+      <c r="M42" s="42"/>
+      <c r="N42" s="42"/>
+      <c r="O42" s="43"/>
     </row>
     <row r="43" spans="1:15">
-      <c r="A43" s="92" t="s">
+      <c r="A43" s="93" t="s">
         <v>17</v>
       </c>
       <c r="B43" s="10" t="s">
@@ -2223,10 +2224,10 @@
       <c r="G43" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H43" s="76" t="s">
+      <c r="H43" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I43" s="94" t="s">
+      <c r="I43" s="97" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="21" t="s">
@@ -2241,7 +2242,7 @@
       <c r="M43" s="22">
         <v>10.404</v>
       </c>
-      <c r="N43" s="69">
+      <c r="N43" s="66">
         <v>-9.2942999999999998E-2</v>
       </c>
       <c r="O43" s="18" t="s">
@@ -2249,7 +2250,7 @@
       </c>
     </row>
     <row r="44" spans="1:15">
-      <c r="A44" s="92"/>
+      <c r="A44" s="93"/>
       <c r="B44" s="12"/>
       <c r="C44" s="6" t="s">
         <v>3</v>
@@ -2266,10 +2267,10 @@
       <c r="G44" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H44" s="76" t="s">
+      <c r="H44" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="94"/>
+      <c r="I44" s="97"/>
       <c r="J44" s="23"/>
       <c r="K44" s="16" t="s">
         <v>3</v>
@@ -2280,7 +2281,7 @@
       <c r="M44" s="17">
         <v>10.404</v>
       </c>
-      <c r="N44" s="26">
+      <c r="N44" s="25">
         <v>7.5215000000000004E-2</v>
       </c>
       <c r="O44" s="18" t="s">
@@ -2288,7 +2289,7 @@
       </c>
     </row>
     <row r="45" spans="1:15">
-      <c r="A45" s="92"/>
+      <c r="A45" s="93"/>
       <c r="B45" s="12"/>
       <c r="C45" s="6" t="s">
         <v>2</v>
@@ -2305,10 +2306,10 @@
       <c r="G45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H45" s="76" t="s">
+      <c r="H45" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="94"/>
+      <c r="I45" s="97"/>
       <c r="J45" s="23"/>
       <c r="K45" s="16" t="s">
         <v>2</v>
@@ -2319,7 +2320,7 @@
       <c r="M45" s="17">
         <v>10.404</v>
       </c>
-      <c r="N45" s="26">
+      <c r="N45" s="25">
         <v>-0.37559700000000001</v>
       </c>
       <c r="O45" s="18" t="s">
@@ -2327,7 +2328,7 @@
       </c>
     </row>
     <row r="46" spans="1:15">
-      <c r="A46" s="92"/>
+      <c r="A46" s="93"/>
       <c r="B46" s="12"/>
       <c r="C46" s="6" t="s">
         <v>4</v>
@@ -2344,21 +2345,21 @@
       <c r="G46" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H46" s="77" t="s">
+      <c r="H46" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="94"/>
+      <c r="I46" s="97"/>
       <c r="J46" s="23"/>
       <c r="K46" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L46" s="78">
+      <c r="L46" s="74">
         <v>11.944000000000001</v>
       </c>
       <c r="M46" s="17">
         <v>10.404</v>
       </c>
-      <c r="N46" s="26">
+      <c r="N46" s="25">
         <v>0.14213100000000001</v>
       </c>
       <c r="O46" s="18" t="s">
@@ -2366,7 +2367,7 @@
       </c>
     </row>
     <row r="47" spans="1:15">
-      <c r="A47" s="92"/>
+      <c r="A47" s="93"/>
       <c r="B47" s="12"/>
       <c r="C47" s="6" t="s">
         <v>8</v>
@@ -2383,10 +2384,10 @@
       <c r="G47" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H47" s="77" t="s">
+      <c r="H47" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="94"/>
+      <c r="I47" s="97"/>
       <c r="J47" s="23"/>
       <c r="K47" s="16" t="s">
         <v>8</v>
@@ -2397,7 +2398,7 @@
       <c r="M47" s="17">
         <v>10.404</v>
       </c>
-      <c r="N47" s="26">
+      <c r="N47" s="25">
         <v>-0.18697900000000001</v>
       </c>
       <c r="O47" s="18" t="s">
@@ -2405,7 +2406,7 @@
       </c>
     </row>
     <row r="48" spans="1:15">
-      <c r="A48" s="92"/>
+      <c r="A48" s="93"/>
       <c r="B48" s="12"/>
       <c r="C48" s="6" t="s">
         <v>5</v>
@@ -2422,60 +2423,60 @@
       <c r="G48" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H48" s="77" t="s">
+      <c r="H48" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="94"/>
+      <c r="I48" s="97"/>
       <c r="J48" s="23"/>
-      <c r="K48" s="59" t="s">
+      <c r="K48" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="L48" s="59">
+      <c r="L48" s="57">
         <v>47.25</v>
       </c>
-      <c r="M48" s="84">
+      <c r="M48" s="80">
         <v>10.404</v>
       </c>
-      <c r="N48" s="85">
+      <c r="N48" s="81">
         <v>3.9748000000000001</v>
       </c>
-      <c r="O48" s="86" t="s">
+      <c r="O48" s="82" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="49" spans="1:15">
-      <c r="A49" s="92"/>
+      <c r="A49" s="93"/>
       <c r="B49" s="14"/>
       <c r="C49" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D49" s="79">
+      <c r="D49" s="75">
         <v>12.888999999999999</v>
       </c>
       <c r="E49" s="8">
         <v>3.2021000000000002</v>
       </c>
-      <c r="F49" s="61">
+      <c r="F49" s="59">
         <v>2.6707999999999998</v>
       </c>
       <c r="G49" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H49" s="77" t="s">
+      <c r="H49" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="94"/>
-      <c r="J49" s="25"/>
+      <c r="I49" s="97"/>
+      <c r="J49" s="24"/>
       <c r="K49" s="19" t="s">
         <v>6</v>
       </c>
       <c r="L49" s="19">
         <v>34</v>
       </c>
-      <c r="M49" s="65">
+      <c r="M49" s="62">
         <v>10.404</v>
       </c>
-      <c r="N49" s="66">
+      <c r="N49" s="63">
         <v>-0.668937</v>
       </c>
       <c r="O49" s="18" t="s">
@@ -2483,15 +2484,15 @@
       </c>
     </row>
     <row r="50" spans="1:15">
-      <c r="A50" s="92"/>
+      <c r="A50" s="93"/>
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="6"/>
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
-      <c r="H50" s="74"/>
-      <c r="I50" s="94"/>
+      <c r="H50" s="70"/>
+      <c r="I50" s="97"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
       <c r="L50" s="16"/>
@@ -2500,180 +2501,292 @@
       <c r="O50" s="18"/>
     </row>
     <row r="51" spans="1:15">
-      <c r="A51" s="92"/>
+      <c r="A51" s="93"/>
       <c r="B51" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D51" s="5"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="11"/>
-      <c r="G51" s="7"/>
-      <c r="H51" s="76" t="s">
+      <c r="D51" s="5">
+        <v>5.6666999999999996</v>
+      </c>
+      <c r="E51" s="5">
+        <v>3.2021000000000002</v>
+      </c>
+      <c r="F51" s="11">
+        <v>3.1545000000000001</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I51" s="94"/>
+      <c r="I51" s="97"/>
       <c r="J51" s="21" t="s">
         <v>7</v>
       </c>
       <c r="K51" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L51" s="15"/>
-      <c r="M51" s="22"/>
-      <c r="N51" s="69"/>
-      <c r="O51" s="18"/>
+      <c r="L51" s="15">
+        <v>7.0556000000000001</v>
+      </c>
+      <c r="M51" s="22">
+        <v>10.404</v>
+      </c>
+      <c r="N51" s="66">
+        <v>-9.5515000000000003E-2</v>
+      </c>
+      <c r="O51" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="52" spans="1:15">
-      <c r="A52" s="92"/>
+      <c r="A52" s="93"/>
       <c r="B52" s="12"/>
       <c r="C52" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="13"/>
-      <c r="G52" s="7"/>
-      <c r="H52" s="76" t="s">
+      <c r="D52" s="6">
+        <v>4.7229999999999999</v>
+      </c>
+      <c r="E52" s="6">
+        <v>3.2021000000000002</v>
+      </c>
+      <c r="F52" s="13">
+        <v>3.2504</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H52" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="94"/>
+      <c r="I52" s="97"/>
       <c r="J52" s="23"/>
       <c r="K52" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L52" s="16"/>
-      <c r="M52" s="17"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="18"/>
+      <c r="L52" s="16">
+        <v>7.8339999999999996</v>
+      </c>
+      <c r="M52" s="17">
+        <v>10.404</v>
+      </c>
+      <c r="N52" s="25">
+        <v>7.8512999999999999E-2</v>
+      </c>
+      <c r="O52" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="53" spans="1:15">
-      <c r="A53" s="92"/>
+      <c r="A53" s="93"/>
       <c r="B53" s="12"/>
       <c r="C53" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="13"/>
-      <c r="G53" s="7"/>
-      <c r="H53" s="76" t="s">
+      <c r="D53" s="6">
+        <v>7.73</v>
+      </c>
+      <c r="E53" s="6">
+        <v>3.2021000000000002</v>
+      </c>
+      <c r="F53" s="13">
+        <v>2.9706000000000001</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H53" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I53" s="94"/>
+      <c r="I53" s="97"/>
       <c r="J53" s="23"/>
       <c r="K53" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L53" s="16"/>
-      <c r="M53" s="17"/>
-      <c r="N53" s="26"/>
-      <c r="O53" s="18"/>
+      <c r="L53" s="16">
+        <v>8.5570000000000004</v>
+      </c>
+      <c r="M53" s="17">
+        <v>10.404</v>
+      </c>
+      <c r="N53" s="25">
+        <v>-0.39083200000000001</v>
+      </c>
+      <c r="O53" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="54" spans="1:15">
-      <c r="A54" s="92"/>
+      <c r="A54" s="93"/>
       <c r="B54" s="12"/>
       <c r="C54" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D54" s="6"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="13"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="77" t="s">
+      <c r="D54" s="6">
+        <v>8</v>
+      </c>
+      <c r="E54" s="6">
+        <v>3.2021000000000002</v>
+      </c>
+      <c r="F54" s="13">
+        <v>3.4506999999999999</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H54" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="94"/>
+      <c r="I54" s="97"/>
       <c r="J54" s="23"/>
       <c r="K54" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L54" s="59"/>
-      <c r="M54" s="17"/>
-      <c r="N54" s="24"/>
-      <c r="O54" s="18"/>
+      <c r="L54" s="74">
+        <v>12.055999999999999</v>
+      </c>
+      <c r="M54" s="17">
+        <v>10.404</v>
+      </c>
+      <c r="N54" s="25">
+        <v>0.15581400000000001</v>
+      </c>
+      <c r="O54" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="55" spans="1:15">
-      <c r="A55" s="92"/>
+      <c r="A55" s="93"/>
       <c r="B55" s="12"/>
       <c r="C55" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="77" t="s">
+      <c r="D55" s="6">
+        <v>12.778</v>
+      </c>
+      <c r="E55" s="6">
+        <v>3.2021000000000002</v>
+      </c>
+      <c r="F55" s="13">
+        <v>3.0417999999999998</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H55" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I55" s="94"/>
+      <c r="I55" s="97"/>
       <c r="J55" s="23"/>
       <c r="K55" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L55" s="16"/>
-      <c r="M55" s="17"/>
-      <c r="N55" s="26"/>
-      <c r="O55" s="18"/>
+      <c r="L55" s="16">
+        <v>13.788</v>
+      </c>
+      <c r="M55" s="17">
+        <v>10.404</v>
+      </c>
+      <c r="N55" s="25">
+        <v>-0.23756099999999999</v>
+      </c>
+      <c r="O55" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="56" spans="1:15">
-      <c r="A56" s="92"/>
+      <c r="A56" s="93"/>
       <c r="B56" s="12"/>
       <c r="C56" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
-      <c r="F56" s="13"/>
-      <c r="G56" s="7"/>
-      <c r="H56" s="77" t="s">
+      <c r="D56" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="E56" s="6">
+        <v>3.2021000000000002</v>
+      </c>
+      <c r="F56" s="13">
+        <v>3.7633000000000001</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="94"/>
+      <c r="I56" s="97"/>
       <c r="J56" s="23"/>
       <c r="K56" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L56" s="59"/>
-      <c r="M56" s="17"/>
-      <c r="N56" s="24"/>
-      <c r="O56" s="18"/>
+      <c r="L56" s="57">
+        <v>76.546999999999997</v>
+      </c>
+      <c r="M56" s="80">
+        <v>10.404</v>
+      </c>
+      <c r="N56" s="81">
+        <v>3.9866999999999999</v>
+      </c>
+      <c r="O56" s="82" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="57" spans="1:15">
-      <c r="A57" s="92"/>
+      <c r="A57" s="93"/>
       <c r="B57" s="14"/>
       <c r="C57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="63"/>
-      <c r="E57" s="8"/>
-      <c r="F57" s="61"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="77" t="s">
+      <c r="D57" s="104">
+        <v>11.5</v>
+      </c>
+      <c r="E57" s="8">
+        <v>3.2021000000000002</v>
+      </c>
+      <c r="F57" s="59">
+        <v>2.6570999999999998</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H57" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I57" s="94"/>
-      <c r="J57" s="25"/>
+      <c r="I57" s="97"/>
+      <c r="J57" s="24"/>
       <c r="K57" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L57" s="19"/>
-      <c r="M57" s="65"/>
-      <c r="N57" s="66"/>
-      <c r="O57" s="18"/>
+      <c r="L57" s="19">
+        <v>46.59</v>
+      </c>
+      <c r="M57" s="62">
+        <v>10.404</v>
+      </c>
+      <c r="N57" s="63">
+        <v>-0.66685499999999998</v>
+      </c>
+      <c r="O57" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="58" spans="1:15">
-      <c r="A58" s="93"/>
+      <c r="A58" s="94"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
-      <c r="H58" s="74"/>
-      <c r="I58" s="95"/>
+      <c r="H58" s="70"/>
+      <c r="I58" s="98"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
@@ -2682,602 +2795,714 @@
       <c r="O58" s="20"/>
     </row>
     <row r="59" spans="1:15">
-      <c r="A59" s="30"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="31"/>
-      <c r="D59" s="31"/>
-      <c r="E59" s="31"/>
-      <c r="F59" s="31"/>
-      <c r="G59" s="32"/>
-      <c r="H59" s="74"/>
-      <c r="I59" s="45"/>
-      <c r="J59" s="46"/>
-      <c r="K59" s="46"/>
-      <c r="L59" s="46"/>
-      <c r="M59" s="46"/>
-      <c r="N59" s="46"/>
-      <c r="O59" s="47"/>
+      <c r="A59" s="29"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="30"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="44"/>
+      <c r="J59" s="45"/>
+      <c r="K59" s="45"/>
+      <c r="L59" s="45"/>
+      <c r="M59" s="45"/>
+      <c r="N59" s="45"/>
+      <c r="O59" s="46"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="98" t="s">
+      <c r="A60" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B60" s="33" t="s">
+      <c r="B60" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C60" s="31" t="s">
+      <c r="C60" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D60" s="31">
+      <c r="D60" s="30">
         <v>5</v>
       </c>
-      <c r="E60" s="31">
+      <c r="E60" s="30">
         <v>3.1758000000000002</v>
       </c>
-      <c r="F60" s="34">
+      <c r="F60" s="33">
         <v>3.1204999999999998</v>
       </c>
-      <c r="G60" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H60" s="76" t="s">
+      <c r="G60" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H60" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="100" t="s">
+      <c r="I60" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="J60" s="48" t="s">
+      <c r="J60" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="K60" s="46" t="s">
+      <c r="K60" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L60" s="46">
+      <c r="L60" s="45">
         <v>6.8888999999999996</v>
       </c>
-      <c r="M60" s="49">
+      <c r="M60" s="48">
         <v>3.787E-3</v>
       </c>
-      <c r="N60" s="70">
+      <c r="N60" s="67">
         <v>-9.4186000000000006E-2</v>
       </c>
-      <c r="O60" s="50" t="s">
+      <c r="O60" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="98"/>
-      <c r="B61" s="36"/>
-      <c r="C61" s="37" t="s">
+      <c r="A61" s="95"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D61" s="37">
+      <c r="D61" s="36">
         <v>5.0556000000000001</v>
       </c>
-      <c r="E61" s="37">
+      <c r="E61" s="36">
         <v>3.1758000000000002</v>
       </c>
-      <c r="F61" s="38">
+      <c r="F61" s="37">
         <v>3.2395</v>
       </c>
-      <c r="G61" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="76" t="s">
+      <c r="G61" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H61" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I61" s="100"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="52" t="s">
+      <c r="I61" s="99"/>
+      <c r="J61" s="50"/>
+      <c r="K61" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="L61" s="52">
+      <c r="L61" s="51">
         <v>8.5</v>
       </c>
-      <c r="M61" s="53">
+      <c r="M61" s="52">
         <v>3.787E-3</v>
       </c>
-      <c r="N61" s="54">
+      <c r="N61" s="53">
         <v>3.4480999999999998E-2</v>
       </c>
-      <c r="O61" s="50" t="s">
+      <c r="O61" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1">
-      <c r="A62" s="98"/>
-      <c r="B62" s="36"/>
-      <c r="C62" s="37" t="s">
+      <c r="A62" s="95"/>
+      <c r="B62" s="35"/>
+      <c r="C62" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="37">
+      <c r="D62" s="36">
         <v>8.11</v>
       </c>
-      <c r="E62" s="37">
+      <c r="E62" s="36">
         <v>3.1758000000000002</v>
       </c>
-      <c r="F62" s="38">
+      <c r="F62" s="37">
         <v>2.8914</v>
       </c>
-      <c r="G62" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H62" s="76" t="s">
+      <c r="G62" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H62" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="100"/>
-      <c r="J62" s="51"/>
-      <c r="K62" s="52" t="s">
+      <c r="I62" s="99"/>
+      <c r="J62" s="50"/>
+      <c r="K62" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L62" s="52">
+      <c r="L62" s="51">
         <v>9.1667000000000005</v>
       </c>
-      <c r="M62" s="53">
+      <c r="M62" s="52">
         <v>3.787E-3</v>
       </c>
-      <c r="N62" s="54">
+      <c r="N62" s="53">
         <v>-0.38253100000000001</v>
       </c>
-      <c r="O62" s="50" t="s">
+      <c r="O62" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="98"/>
-      <c r="B63" s="36"/>
-      <c r="C63" s="37" t="s">
+      <c r="A63" s="95"/>
+      <c r="B63" s="35"/>
+      <c r="C63" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D63" s="37">
+      <c r="D63" s="36">
         <v>8.6111000000000004</v>
       </c>
-      <c r="E63" s="37">
+      <c r="E63" s="36">
         <v>3.1758000000000002</v>
       </c>
-      <c r="F63" s="38">
+      <c r="F63" s="37">
         <v>3.4868999999999999</v>
       </c>
-      <c r="G63" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H63" s="77" t="s">
+      <c r="G63" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H63" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I63" s="100"/>
-      <c r="J63" s="51"/>
-      <c r="K63" s="52" t="s">
+      <c r="I63" s="99"/>
+      <c r="J63" s="50"/>
+      <c r="K63" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="L63" s="52">
+      <c r="L63" s="51">
         <v>11.833</v>
       </c>
-      <c r="M63" s="53">
+      <c r="M63" s="52">
         <v>3.787E-3</v>
       </c>
-      <c r="N63" s="54">
+      <c r="N63" s="53">
         <v>5.2082999999999997E-2</v>
       </c>
-      <c r="O63" s="50" t="s">
+      <c r="O63" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="98"/>
-      <c r="B64" s="36"/>
-      <c r="C64" s="37" t="s">
+      <c r="A64" s="95"/>
+      <c r="B64" s="35"/>
+      <c r="C64" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D64" s="37">
+      <c r="D64" s="36">
         <v>12.778</v>
       </c>
-      <c r="E64" s="37">
+      <c r="E64" s="36">
         <v>3.1758000000000002</v>
       </c>
-      <c r="F64" s="38">
+      <c r="F64" s="37">
         <v>3.0236000000000001</v>
       </c>
-      <c r="G64" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H64" s="77" t="s">
+      <c r="G64" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="100"/>
-      <c r="J64" s="51"/>
-      <c r="K64" s="52" t="s">
+      <c r="I64" s="99"/>
+      <c r="J64" s="50"/>
+      <c r="K64" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L64" s="52">
+      <c r="L64" s="51">
         <v>14.555999999999999</v>
       </c>
-      <c r="M64" s="53">
+      <c r="M64" s="52">
         <v>3.787E-3</v>
       </c>
-      <c r="N64" s="54">
+      <c r="N64" s="53">
         <v>0.180619</v>
       </c>
-      <c r="O64" s="50" t="s">
+      <c r="O64" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="98"/>
-      <c r="B65" s="36"/>
-      <c r="C65" s="37" t="s">
+      <c r="A65" s="95"/>
+      <c r="B65" s="35"/>
+      <c r="C65" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D65" s="37">
+      <c r="D65" s="36">
         <v>12.68</v>
       </c>
-      <c r="E65" s="37">
+      <c r="E65" s="36">
         <v>3.1758000000000002</v>
       </c>
-      <c r="F65" s="38">
+      <c r="F65" s="37">
         <v>3.8599000000000001</v>
       </c>
-      <c r="G65" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H65" s="77" t="s">
+      <c r="G65" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H65" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="100"/>
-      <c r="J65" s="51"/>
-      <c r="K65" s="60" t="s">
+      <c r="I65" s="99"/>
+      <c r="J65" s="50"/>
+      <c r="K65" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L65" s="60">
+      <c r="L65" s="58">
         <v>47.954000000000001</v>
       </c>
-      <c r="M65" s="82">
+      <c r="M65" s="78">
         <v>3.787E-3</v>
       </c>
-      <c r="N65" s="83">
+      <c r="N65" s="79">
         <v>3.9754</v>
       </c>
-      <c r="O65" s="81" t="s">
+      <c r="O65" s="77" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="98"/>
-      <c r="B66" s="39"/>
-      <c r="C66" s="40" t="s">
+      <c r="A66" s="95"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D66" s="80">
+      <c r="D66" s="76">
         <v>15.055999999999999</v>
       </c>
-      <c r="E66" s="40">
+      <c r="E66" s="39">
         <v>3.1758000000000002</v>
       </c>
-      <c r="F66" s="62">
+      <c r="F66" s="60">
         <v>2.3631000000000002</v>
       </c>
-      <c r="G66" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H66" s="77" t="s">
+      <c r="G66" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H66" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="100"/>
-      <c r="J66" s="56"/>
-      <c r="K66" s="57" t="s">
+      <c r="I66" s="99"/>
+      <c r="J66" s="54"/>
+      <c r="K66" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L66" s="57">
+      <c r="L66" s="55">
         <v>27.11</v>
       </c>
-      <c r="M66" s="67">
+      <c r="M66" s="64">
         <v>3.787E-3</v>
       </c>
-      <c r="N66" s="68">
+      <c r="N66" s="65">
         <v>-0.66979599999999995</v>
       </c>
-      <c r="O66" s="50" t="s">
+      <c r="O66" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="98"/>
-      <c r="B67" s="37"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="37"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="37"/>
-      <c r="G67" s="35"/>
-      <c r="H67" s="74"/>
-      <c r="I67" s="100"/>
-      <c r="J67" s="52"/>
-      <c r="K67" s="52"/>
-      <c r="L67" s="52"/>
-      <c r="M67" s="52"/>
-      <c r="N67" s="52"/>
-      <c r="O67" s="50"/>
+      <c r="A67" s="95"/>
+      <c r="B67" s="36"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36"/>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
+      <c r="G67" s="34"/>
+      <c r="H67" s="70"/>
+      <c r="I67" s="99"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="51"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="51"/>
+      <c r="O67" s="49"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="98"/>
-      <c r="B68" s="33" t="s">
+      <c r="A68" s="95"/>
+      <c r="B68" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C68" s="31" t="s">
+      <c r="C68" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D68" s="31"/>
-      <c r="E68" s="31"/>
-      <c r="F68" s="34"/>
-      <c r="G68" s="35"/>
-      <c r="H68" s="76" t="s">
+      <c r="D68" s="30">
+        <v>5.7222</v>
+      </c>
+      <c r="E68" s="30">
+        <v>3.1758000000000002</v>
+      </c>
+      <c r="F68" s="33">
+        <v>3.1193</v>
+      </c>
+      <c r="G68" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H68" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I68" s="100"/>
-      <c r="J68" s="48" t="s">
+      <c r="I68" s="99"/>
+      <c r="J68" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K68" s="46" t="s">
+      <c r="K68" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L68" s="46"/>
-      <c r="M68" s="49"/>
-      <c r="N68" s="70"/>
-      <c r="O68" s="50"/>
+      <c r="L68" s="45">
+        <v>7.2229999999999999</v>
+      </c>
+      <c r="M68" s="48">
+        <v>3.787E-3</v>
+      </c>
+      <c r="N68" s="67">
+        <v>-9.8916000000000004E-2</v>
+      </c>
+      <c r="O68" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="98"/>
-      <c r="B69" s="36"/>
-      <c r="C69" s="37" t="s">
+      <c r="A69" s="95"/>
+      <c r="B69" s="35"/>
+      <c r="C69" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D69" s="37"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="38"/>
-      <c r="G69" s="35"/>
-      <c r="H69" s="76" t="s">
+      <c r="D69" s="36">
+        <v>5.0556000000000001</v>
+      </c>
+      <c r="E69" s="36">
+        <v>3.1758000000000002</v>
+      </c>
+      <c r="F69" s="37">
+        <v>3.2315999999999998</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H69" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I69" s="100"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="52" t="s">
+      <c r="I69" s="99"/>
+      <c r="J69" s="50"/>
+      <c r="K69" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="L69" s="52"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="54"/>
-      <c r="O69" s="50"/>
+      <c r="L69" s="51">
+        <v>8.61</v>
+      </c>
+      <c r="M69" s="52">
+        <v>3.787E-3</v>
+      </c>
+      <c r="N69" s="53">
+        <v>3.6056999999999999E-2</v>
+      </c>
+      <c r="O69" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="98"/>
-      <c r="B70" s="36"/>
-      <c r="C70" s="37" t="s">
+      <c r="A70" s="95"/>
+      <c r="B70" s="35"/>
+      <c r="C70" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="71"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="38"/>
-      <c r="G70" s="35"/>
-      <c r="H70" s="76" t="s">
+      <c r="D70" s="86">
+        <v>8</v>
+      </c>
+      <c r="E70" s="36">
+        <v>3.1758000000000002</v>
+      </c>
+      <c r="F70" s="37">
+        <v>2.8927</v>
+      </c>
+      <c r="G70" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H70" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I70" s="100"/>
-      <c r="J70" s="51"/>
-      <c r="K70" s="52" t="s">
+      <c r="I70" s="99"/>
+      <c r="J70" s="50"/>
+      <c r="K70" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L70" s="52"/>
-      <c r="M70" s="53"/>
-      <c r="N70" s="54"/>
-      <c r="O70" s="50"/>
+      <c r="L70" s="51">
+        <v>8.7780000000000005</v>
+      </c>
+      <c r="M70" s="52">
+        <v>3.787E-3</v>
+      </c>
+      <c r="N70" s="53">
+        <v>-0.40808</v>
+      </c>
+      <c r="O70" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="98"/>
-      <c r="B71" s="36"/>
-      <c r="C71" s="37" t="s">
+      <c r="A71" s="95"/>
+      <c r="B71" s="35"/>
+      <c r="C71" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="38"/>
-      <c r="G71" s="35"/>
-      <c r="H71" s="77" t="s">
+      <c r="D71" s="36">
+        <v>8.5</v>
+      </c>
+      <c r="E71" s="36">
+        <v>3.1758000000000002</v>
+      </c>
+      <c r="F71" s="37">
+        <v>3.4988999999999999</v>
+      </c>
+      <c r="G71" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H71" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I71" s="100"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="52" t="s">
+      <c r="I71" s="99"/>
+      <c r="J71" s="50"/>
+      <c r="K71" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="L71" s="52"/>
-      <c r="M71" s="53"/>
-      <c r="N71" s="54"/>
-      <c r="O71" s="50"/>
+      <c r="L71" s="51">
+        <v>12.167</v>
+      </c>
+      <c r="M71" s="52">
+        <v>3.787E-3</v>
+      </c>
+      <c r="N71" s="53">
+        <v>5.4552999999999997E-2</v>
+      </c>
+      <c r="O71" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="98"/>
-      <c r="B72" s="36"/>
-      <c r="C72" s="37" t="s">
+      <c r="A72" s="95"/>
+      <c r="B72" s="35"/>
+      <c r="C72" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="38"/>
-      <c r="G72" s="35"/>
-      <c r="H72" s="77" t="s">
+      <c r="D72" s="36">
+        <v>12.67</v>
+      </c>
+      <c r="E72" s="36">
+        <v>3.1758000000000002</v>
+      </c>
+      <c r="F72" s="37">
+        <v>2.9834000000000001</v>
+      </c>
+      <c r="G72" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H72" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I72" s="100"/>
-      <c r="J72" s="51"/>
-      <c r="K72" s="52" t="s">
+      <c r="I72" s="99"/>
+      <c r="J72" s="50"/>
+      <c r="K72" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L72" s="52"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="54"/>
-      <c r="O72" s="50"/>
+      <c r="L72" s="51">
+        <v>14.278</v>
+      </c>
+      <c r="M72" s="52">
+        <v>3.787E-3</v>
+      </c>
+      <c r="N72" s="53">
+        <v>-0.22847400000000001</v>
+      </c>
+      <c r="O72" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="98"/>
-      <c r="B73" s="36"/>
-      <c r="C73" s="37" t="s">
+      <c r="A73" s="95"/>
+      <c r="B73" s="35"/>
+      <c r="C73" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="38"/>
-      <c r="G73" s="35"/>
-      <c r="H73" s="77" t="s">
+      <c r="D73" s="36">
+        <v>14.231999999999999</v>
+      </c>
+      <c r="E73" s="36">
+        <v>3.1758000000000002</v>
+      </c>
+      <c r="F73" s="37">
+        <v>3.8708999999999998</v>
+      </c>
+      <c r="G73" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H73" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I73" s="100"/>
-      <c r="J73" s="51"/>
-      <c r="K73" s="52" t="s">
+      <c r="I73" s="99"/>
+      <c r="J73" s="50"/>
+      <c r="K73" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L73" s="60"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="55"/>
-      <c r="O73" s="50"/>
+      <c r="L73" s="58">
+        <v>79.844999999999999</v>
+      </c>
+      <c r="M73" s="78">
+        <v>3.787E-3</v>
+      </c>
+      <c r="N73" s="79">
+        <v>3.9824000000000002</v>
+      </c>
+      <c r="O73" s="77" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="98"/>
-      <c r="B74" s="39"/>
-      <c r="C74" s="40" t="s">
+      <c r="A74" s="95"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D74" s="64"/>
-      <c r="E74" s="40"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="35"/>
-      <c r="H74" s="77" t="s">
+      <c r="D74" s="76">
+        <v>10.778</v>
+      </c>
+      <c r="E74" s="39">
+        <v>3.1758000000000002</v>
+      </c>
+      <c r="F74" s="60">
+        <v>2.3027000000000002</v>
+      </c>
+      <c r="G74" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H74" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I74" s="100"/>
-      <c r="J74" s="56"/>
-      <c r="K74" s="57" t="s">
+      <c r="I74" s="99"/>
+      <c r="J74" s="54"/>
+      <c r="K74" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L74" s="57"/>
-      <c r="M74" s="67"/>
-      <c r="N74" s="68"/>
-      <c r="O74" s="50"/>
+      <c r="L74" s="55">
+        <v>22.722999999999999</v>
+      </c>
+      <c r="M74" s="64">
+        <v>3.787E-3</v>
+      </c>
+      <c r="N74" s="65">
+        <v>-0.667605</v>
+      </c>
+      <c r="O74" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="99"/>
-      <c r="B75" s="40"/>
-      <c r="C75" s="40"/>
-      <c r="D75" s="40"/>
-      <c r="E75" s="40"/>
-      <c r="F75" s="40"/>
-      <c r="G75" s="41"/>
-      <c r="H75" s="75"/>
-      <c r="I75" s="101"/>
-      <c r="J75" s="57"/>
-      <c r="K75" s="57"/>
-      <c r="L75" s="57"/>
-      <c r="M75" s="57"/>
-      <c r="N75" s="57"/>
-      <c r="O75" s="58"/>
+      <c r="A75" s="96"/>
+      <c r="B75" s="39"/>
+      <c r="C75" s="39"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
+      <c r="F75" s="39"/>
+      <c r="G75" s="40"/>
+      <c r="H75" s="71"/>
+      <c r="I75" s="100"/>
+      <c r="J75" s="55"/>
+      <c r="K75" s="55"/>
+      <c r="L75" s="55"/>
+      <c r="M75" s="55"/>
+      <c r="N75" s="55"/>
+      <c r="O75" s="56"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="89" t="s">
+      <c r="A77" s="103" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="89"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="89"/>
-      <c r="H77" s="89"/>
-      <c r="I77" s="89"/>
-      <c r="J77" s="89"/>
-      <c r="K77" s="89"/>
-      <c r="L77" s="89"/>
-      <c r="M77" s="89"/>
-      <c r="N77" s="89"/>
-      <c r="O77" s="89"/>
+      <c r="B77" s="103"/>
+      <c r="C77" s="103"/>
+      <c r="D77" s="103"/>
+      <c r="E77" s="103"/>
+      <c r="F77" s="103"/>
+      <c r="G77" s="103"/>
+      <c r="H77" s="103"/>
+      <c r="I77" s="103"/>
+      <c r="J77" s="103"/>
+      <c r="K77" s="103"/>
+      <c r="L77" s="103"/>
+      <c r="M77" s="103"/>
+      <c r="N77" s="103"/>
+      <c r="O77" s="103"/>
     </row>
     <row r="78" spans="1:15" ht="15">
-      <c r="A78" s="102" t="s">
+      <c r="A78" s="101" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="96" t="s">
+      <c r="B78" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="96" t="s">
+      <c r="C78" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="96" t="s">
+      <c r="D78" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="96" t="s">
+      <c r="E78" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="96" t="s">
+      <c r="F78" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="G78" s="104" t="s">
+      <c r="G78" s="91" t="s">
         <v>15</v>
       </c>
-      <c r="H78" s="72"/>
-      <c r="I78" s="104" t="s">
+      <c r="H78" s="68"/>
+      <c r="I78" s="91" t="s">
         <v>14</v>
       </c>
-      <c r="J78" s="96" t="s">
+      <c r="J78" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="K78" s="96" t="s">
+      <c r="K78" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="L78" s="96" t="s">
+      <c r="L78" s="89" t="s">
         <v>11</v>
       </c>
-      <c r="M78" s="96" t="s">
+      <c r="M78" s="89" t="s">
         <v>9</v>
       </c>
-      <c r="N78" s="96" t="s">
+      <c r="N78" s="89" t="s">
         <v>10</v>
       </c>
-      <c r="O78" s="90" t="s">
+      <c r="O78" s="87" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15">
-      <c r="A79" s="103"/>
-      <c r="B79" s="97"/>
-      <c r="C79" s="97"/>
-      <c r="D79" s="97"/>
-      <c r="E79" s="97"/>
-      <c r="F79" s="97"/>
-      <c r="G79" s="105"/>
-      <c r="H79" s="73"/>
-      <c r="I79" s="105"/>
-      <c r="J79" s="97"/>
-      <c r="K79" s="97"/>
-      <c r="L79" s="97"/>
-      <c r="M79" s="97"/>
-      <c r="N79" s="97"/>
-      <c r="O79" s="91"/>
+      <c r="A79" s="102"/>
+      <c r="B79" s="90"/>
+      <c r="C79" s="90"/>
+      <c r="D79" s="90"/>
+      <c r="E79" s="90"/>
+      <c r="F79" s="90"/>
+      <c r="G79" s="92"/>
+      <c r="H79" s="69"/>
+      <c r="I79" s="92"/>
+      <c r="J79" s="90"/>
+      <c r="K79" s="90"/>
+      <c r="L79" s="90"/>
+      <c r="M79" s="90"/>
+      <c r="N79" s="90"/>
+      <c r="O79" s="88"/>
     </row>
     <row r="80" spans="1:15">
-      <c r="A80" s="27"/>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="29"/>
-      <c r="H80" s="73"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="43"/>
-      <c r="K80" s="43"/>
-      <c r="L80" s="43"/>
-      <c r="M80" s="43"/>
-      <c r="N80" s="43"/>
-      <c r="O80" s="44"/>
+      <c r="A80" s="26"/>
+      <c r="B80" s="27"/>
+      <c r="C80" s="27"/>
+      <c r="D80" s="27"/>
+      <c r="E80" s="27"/>
+      <c r="F80" s="27"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="69"/>
+      <c r="I80" s="41"/>
+      <c r="J80" s="42"/>
+      <c r="K80" s="42"/>
+      <c r="L80" s="42"/>
+      <c r="M80" s="42"/>
+      <c r="N80" s="42"/>
+      <c r="O80" s="43"/>
     </row>
     <row r="81" spans="1:15">
-      <c r="A81" s="92" t="s">
+      <c r="A81" s="93" t="s">
         <v>17</v>
       </c>
       <c r="B81" s="10" t="s">
@@ -3298,10 +3523,10 @@
       <c r="G81" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H81" s="76" t="s">
+      <c r="H81" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I81" s="94" t="s">
+      <c r="I81" s="97" t="s">
         <v>19</v>
       </c>
       <c r="J81" s="21" t="s">
@@ -3316,7 +3541,7 @@
       <c r="M81" s="22">
         <v>1.1328E-2</v>
       </c>
-      <c r="N81" s="69">
+      <c r="N81" s="66">
         <v>-9.0719999999999995E-2</v>
       </c>
       <c r="O81" s="18" t="s">
@@ -3324,7 +3549,7 @@
       </c>
     </row>
     <row r="82" spans="1:15">
-      <c r="A82" s="92"/>
+      <c r="A82" s="93"/>
       <c r="B82" s="12"/>
       <c r="C82" s="6" t="s">
         <v>3</v>
@@ -3341,10 +3566,10 @@
       <c r="G82" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H82" s="76" t="s">
+      <c r="H82" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I82" s="94"/>
+      <c r="I82" s="97"/>
       <c r="J82" s="23"/>
       <c r="K82" s="16" t="s">
         <v>3</v>
@@ -3355,7 +3580,7 @@
       <c r="M82" s="17">
         <v>1.1328E-2</v>
       </c>
-      <c r="N82" s="26">
+      <c r="N82" s="25">
         <v>7.936E-2</v>
       </c>
       <c r="O82" s="18" t="s">
@@ -3363,7 +3588,7 @@
       </c>
     </row>
     <row r="83" spans="1:15">
-      <c r="A83" s="92"/>
+      <c r="A83" s="93"/>
       <c r="B83" s="12"/>
       <c r="C83" s="6" t="s">
         <v>2</v>
@@ -3380,10 +3605,10 @@
       <c r="G83" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H83" s="76" t="s">
+      <c r="H83" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I83" s="94"/>
+      <c r="I83" s="97"/>
       <c r="J83" s="23"/>
       <c r="K83" s="16" t="s">
         <v>2</v>
@@ -3394,7 +3619,7 @@
       <c r="M83" s="17">
         <v>1.1328E-2</v>
       </c>
-      <c r="N83" s="26">
+      <c r="N83" s="25">
         <v>-0.378494</v>
       </c>
       <c r="O83" s="18" t="s">
@@ -3402,7 +3627,7 @@
       </c>
     </row>
     <row r="84" spans="1:15">
-      <c r="A84" s="92"/>
+      <c r="A84" s="93"/>
       <c r="B84" s="12"/>
       <c r="C84" s="6" t="s">
         <v>4</v>
@@ -3419,21 +3644,21 @@
       <c r="G84" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H84" s="77" t="s">
+      <c r="H84" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I84" s="94"/>
+      <c r="I84" s="97"/>
       <c r="J84" s="23"/>
       <c r="K84" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L84" s="78">
+      <c r="L84" s="74">
         <v>12.055999999999999</v>
       </c>
       <c r="M84" s="17">
         <v>1.1328E-2</v>
       </c>
-      <c r="N84" s="26">
+      <c r="N84" s="25">
         <v>0.167602</v>
       </c>
       <c r="O84" s="18" t="s">
@@ -3441,7 +3666,7 @@
       </c>
     </row>
     <row r="85" spans="1:15">
-      <c r="A85" s="92"/>
+      <c r="A85" s="93"/>
       <c r="B85" s="12"/>
       <c r="C85" s="6" t="s">
         <v>8</v>
@@ -3458,10 +3683,10 @@
       <c r="G85" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H85" s="77" t="s">
+      <c r="H85" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I85" s="94"/>
+      <c r="I85" s="97"/>
       <c r="J85" s="23"/>
       <c r="K85" s="16" t="s">
         <v>8</v>
@@ -3472,7 +3697,7 @@
       <c r="M85" s="17">
         <v>1.1328E-2</v>
       </c>
-      <c r="N85" s="26">
+      <c r="N85" s="25">
         <v>-0.19176000000000001</v>
       </c>
       <c r="O85" s="18" t="s">
@@ -3480,7 +3705,7 @@
       </c>
     </row>
     <row r="86" spans="1:15">
-      <c r="A86" s="92"/>
+      <c r="A86" s="93"/>
       <c r="B86" s="12"/>
       <c r="C86" s="6" t="s">
         <v>5</v>
@@ -3497,60 +3722,60 @@
       <c r="G86" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H86" s="77" t="s">
+      <c r="H86" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I86" s="94"/>
-      <c r="J86" s="88"/>
-      <c r="K86" s="59" t="s">
+      <c r="I86" s="97"/>
+      <c r="J86" s="84"/>
+      <c r="K86" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="L86" s="59">
+      <c r="L86" s="57">
         <v>47.353999999999999</v>
       </c>
-      <c r="M86" s="84">
+      <c r="M86" s="80">
         <v>1.1328E-2</v>
       </c>
-      <c r="N86" s="85">
+      <c r="N86" s="81">
         <v>3.9763000000000002</v>
       </c>
-      <c r="O86" s="86" t="s">
+      <c r="O86" s="82" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="87" spans="1:15">
-      <c r="A87" s="92"/>
+      <c r="A87" s="93"/>
       <c r="B87" s="14"/>
       <c r="C87" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D87" s="79">
+      <c r="D87" s="75">
         <v>15.112</v>
       </c>
       <c r="E87" s="8">
         <v>3.1993999999999998</v>
       </c>
-      <c r="F87" s="61">
+      <c r="F87" s="59">
         <v>2.6429999999999998</v>
       </c>
       <c r="G87" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H87" s="77" t="s">
+      <c r="H87" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I87" s="94"/>
-      <c r="J87" s="25"/>
+      <c r="I87" s="97"/>
+      <c r="J87" s="24"/>
       <c r="K87" s="19" t="s">
         <v>6</v>
       </c>
       <c r="L87" s="19">
         <v>29.388999999999999</v>
       </c>
-      <c r="M87" s="65">
+      <c r="M87" s="62">
         <v>1.1328E-2</v>
       </c>
-      <c r="N87" s="66">
+      <c r="N87" s="63">
         <v>-0.67108400000000001</v>
       </c>
       <c r="O87" s="18" t="s">
@@ -3558,15 +3783,15 @@
       </c>
     </row>
     <row r="88" spans="1:15">
-      <c r="A88" s="92"/>
+      <c r="A88" s="93"/>
       <c r="B88" s="6"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="6"/>
       <c r="F88" s="6"/>
       <c r="G88" s="7"/>
-      <c r="H88" s="74"/>
-      <c r="I88" s="94"/>
+      <c r="H88" s="70"/>
+      <c r="I88" s="97"/>
       <c r="J88" s="16"/>
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
@@ -3575,180 +3800,292 @@
       <c r="O88" s="18"/>
     </row>
     <row r="89" spans="1:15">
-      <c r="A89" s="92"/>
+      <c r="A89" s="93"/>
       <c r="B89" s="10" t="s">
         <v>7</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D89" s="5"/>
-      <c r="E89" s="5"/>
-      <c r="F89" s="11"/>
-      <c r="G89" s="7"/>
-      <c r="H89" s="76" t="s">
+      <c r="D89" s="5">
+        <v>5.62</v>
+      </c>
+      <c r="E89" s="5">
+        <v>3.1993999999999998</v>
+      </c>
+      <c r="F89" s="11">
+        <v>3.1522000000000001</v>
+      </c>
+      <c r="G89" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H89" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I89" s="94"/>
+      <c r="I89" s="97"/>
       <c r="J89" s="21" t="s">
         <v>7</v>
       </c>
       <c r="K89" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="L89" s="15"/>
-      <c r="M89" s="22"/>
-      <c r="N89" s="69"/>
-      <c r="O89" s="18"/>
+      <c r="L89" s="15">
+        <v>7.0549999999999997</v>
+      </c>
+      <c r="M89" s="22">
+        <v>1.1328E-2</v>
+      </c>
+      <c r="N89" s="66">
+        <v>-9.1336000000000001E-2</v>
+      </c>
+      <c r="O89" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="90" spans="1:15">
-      <c r="A90" s="92"/>
+      <c r="A90" s="93"/>
       <c r="B90" s="12"/>
       <c r="C90" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="13"/>
-      <c r="G90" s="7"/>
-      <c r="H90" s="76" t="s">
+      <c r="D90" s="6">
+        <v>6.1120000000000001</v>
+      </c>
+      <c r="E90" s="6">
+        <v>3.1993999999999998</v>
+      </c>
+      <c r="F90" s="13">
+        <v>3.2488999999999999</v>
+      </c>
+      <c r="G90" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H90" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I90" s="94"/>
+      <c r="I90" s="97"/>
       <c r="J90" s="23"/>
       <c r="K90" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="L90" s="16"/>
-      <c r="M90" s="17"/>
-      <c r="N90" s="26"/>
-      <c r="O90" s="18"/>
+      <c r="L90" s="16">
+        <v>7.7779999999999996</v>
+      </c>
+      <c r="M90" s="17">
+        <v>1.1328E-2</v>
+      </c>
+      <c r="N90" s="25">
+        <v>8.0641000000000004E-2</v>
+      </c>
+      <c r="O90" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="91" spans="1:15">
-      <c r="A91" s="92"/>
+      <c r="A91" s="93"/>
       <c r="B91" s="12"/>
       <c r="C91" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D91" s="6"/>
-      <c r="E91" s="6"/>
-      <c r="F91" s="13"/>
-      <c r="G91" s="7"/>
-      <c r="H91" s="76" t="s">
+      <c r="D91" s="6">
+        <v>11.722</v>
+      </c>
+      <c r="E91" s="6">
+        <v>3.1993999999999998</v>
+      </c>
+      <c r="F91" s="13">
+        <v>2.9660000000000002</v>
+      </c>
+      <c r="G91" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H91" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I91" s="94"/>
+      <c r="I91" s="97"/>
       <c r="J91" s="23"/>
       <c r="K91" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="L91" s="16"/>
-      <c r="M91" s="17"/>
-      <c r="N91" s="26"/>
-      <c r="O91" s="18"/>
+      <c r="L91" s="16">
+        <v>8.5</v>
+      </c>
+      <c r="M91" s="17">
+        <v>1.1328E-2</v>
+      </c>
+      <c r="N91" s="25">
+        <v>-0.39086700000000002</v>
+      </c>
+      <c r="O91" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="92" spans="1:15">
-      <c r="A92" s="92"/>
+      <c r="A92" s="93"/>
       <c r="B92" s="12"/>
       <c r="C92" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D92" s="6"/>
-      <c r="E92" s="6"/>
-      <c r="F92" s="13"/>
-      <c r="G92" s="7"/>
-      <c r="H92" s="77" t="s">
+      <c r="D92" s="6">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="E92" s="6">
+        <v>3.1993999999999998</v>
+      </c>
+      <c r="F92" s="13">
+        <v>3.4556</v>
+      </c>
+      <c r="G92" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H92" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I92" s="94"/>
+      <c r="I92" s="97"/>
       <c r="J92" s="23"/>
       <c r="K92" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="L92" s="59"/>
-      <c r="M92" s="17"/>
-      <c r="N92" s="24"/>
-      <c r="O92" s="18"/>
+      <c r="L92" s="74">
+        <v>12</v>
+      </c>
+      <c r="M92" s="17">
+        <v>1.1328E-2</v>
+      </c>
+      <c r="N92" s="25">
+        <v>0.16190299999999999</v>
+      </c>
+      <c r="O92" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="93" spans="1:15">
-      <c r="A93" s="92"/>
+      <c r="A93" s="93"/>
       <c r="B93" s="12"/>
       <c r="C93" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D93" s="6"/>
-      <c r="E93" s="6"/>
-      <c r="F93" s="13"/>
-      <c r="G93" s="7"/>
-      <c r="H93" s="77" t="s">
+      <c r="D93" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="E93" s="6">
+        <v>3.1993999999999998</v>
+      </c>
+      <c r="F93" s="13">
+        <v>3.0322</v>
+      </c>
+      <c r="G93" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H93" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I93" s="94"/>
+      <c r="I93" s="97"/>
       <c r="J93" s="23"/>
       <c r="K93" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="L93" s="16"/>
-      <c r="M93" s="17"/>
-      <c r="N93" s="26"/>
-      <c r="O93" s="18"/>
+      <c r="L93" s="16">
+        <v>13.555999999999999</v>
+      </c>
+      <c r="M93" s="17">
+        <v>1.1328E-2</v>
+      </c>
+      <c r="N93" s="25">
+        <v>-0.24326800000000001</v>
+      </c>
+      <c r="O93" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="94" spans="1:15">
-      <c r="A94" s="92"/>
+      <c r="A94" s="93"/>
       <c r="B94" s="12"/>
       <c r="C94" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="6"/>
-      <c r="E94" s="6"/>
-      <c r="F94" s="13"/>
-      <c r="G94" s="7"/>
-      <c r="H94" s="77" t="s">
+      <c r="D94" s="6">
+        <v>13.34</v>
+      </c>
+      <c r="E94" s="6">
+        <v>3.1993999999999998</v>
+      </c>
+      <c r="F94" s="13">
+        <v>3.7469999999999999</v>
+      </c>
+      <c r="G94" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I94" s="94"/>
+      <c r="I94" s="97"/>
       <c r="J94" s="23"/>
       <c r="K94" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="L94" s="59"/>
-      <c r="M94" s="17"/>
-      <c r="N94" s="24"/>
-      <c r="O94" s="18"/>
+      <c r="L94" s="57">
+        <v>64.7</v>
+      </c>
+      <c r="M94" s="80">
+        <v>1.1328E-2</v>
+      </c>
+      <c r="N94" s="81">
+        <v>3.9855999999999998</v>
+      </c>
+      <c r="O94" s="82" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="95" spans="1:15">
-      <c r="A95" s="92"/>
+      <c r="A95" s="93"/>
       <c r="B95" s="14"/>
       <c r="C95" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="63"/>
-      <c r="E95" s="8"/>
-      <c r="F95" s="61"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="77" t="s">
+      <c r="D95" s="75">
+        <v>9.92</v>
+      </c>
+      <c r="E95" s="8">
+        <v>3.1993999999999998</v>
+      </c>
+      <c r="F95" s="59">
+        <v>2.6324999999999998</v>
+      </c>
+      <c r="G95" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H95" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I95" s="94"/>
-      <c r="J95" s="25"/>
+      <c r="I95" s="97"/>
+      <c r="J95" s="24"/>
       <c r="K95" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="L95" s="19"/>
-      <c r="M95" s="65"/>
-      <c r="N95" s="66"/>
-      <c r="O95" s="18"/>
+      <c r="L95" s="19">
+        <v>37.56</v>
+      </c>
+      <c r="M95" s="62">
+        <v>1.1328E-2</v>
+      </c>
+      <c r="N95" s="63">
+        <v>-0.66730500000000004</v>
+      </c>
+      <c r="O95" s="18" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="96" spans="1:15">
-      <c r="A96" s="93"/>
+      <c r="A96" s="94"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
-      <c r="H96" s="74"/>
-      <c r="I96" s="95"/>
+      <c r="H96" s="70"/>
+      <c r="I96" s="98"/>
       <c r="J96" s="19"/>
       <c r="K96" s="19"/>
       <c r="L96" s="19"/>
@@ -3757,545 +4094,616 @@
       <c r="O96" s="20"/>
     </row>
     <row r="97" spans="1:15">
-      <c r="A97" s="30"/>
-      <c r="B97" s="31"/>
-      <c r="C97" s="31"/>
-      <c r="D97" s="31"/>
-      <c r="E97" s="31"/>
-      <c r="F97" s="31"/>
-      <c r="G97" s="32"/>
-      <c r="H97" s="74"/>
-      <c r="I97" s="45"/>
-      <c r="J97" s="46"/>
-      <c r="K97" s="46"/>
-      <c r="L97" s="46"/>
-      <c r="M97" s="46"/>
-      <c r="N97" s="46"/>
-      <c r="O97" s="47"/>
+      <c r="A97" s="29"/>
+      <c r="B97" s="30"/>
+      <c r="C97" s="30"/>
+      <c r="D97" s="30"/>
+      <c r="E97" s="30"/>
+      <c r="F97" s="30"/>
+      <c r="G97" s="31"/>
+      <c r="H97" s="70"/>
+      <c r="I97" s="44"/>
+      <c r="J97" s="45"/>
+      <c r="K97" s="45"/>
+      <c r="L97" s="45"/>
+      <c r="M97" s="45"/>
+      <c r="N97" s="45"/>
+      <c r="O97" s="46"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="98" t="s">
+      <c r="A98" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="B98" s="33" t="s">
+      <c r="B98" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="C98" s="31" t="s">
+      <c r="C98" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D98" s="31">
+      <c r="D98" s="30">
         <v>5.0556000000000001</v>
       </c>
-      <c r="E98" s="31">
+      <c r="E98" s="30">
         <v>3.1736</v>
       </c>
-      <c r="F98" s="34">
+      <c r="F98" s="33">
         <v>3.1145</v>
       </c>
-      <c r="G98" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H98" s="76" t="s">
+      <c r="G98" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H98" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I98" s="100" t="s">
+      <c r="I98" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="J98" s="48" t="s">
+      <c r="J98" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="K98" s="46" t="s">
+      <c r="K98" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L98" s="46">
+      <c r="L98" s="45">
         <v>6.8888999999999996</v>
       </c>
-      <c r="M98" s="49">
+      <c r="M98" s="48">
         <v>4.0325999999999999E-3</v>
       </c>
-      <c r="N98" s="70">
+      <c r="N98" s="67">
         <v>-9.5796999999999993E-2</v>
       </c>
-      <c r="O98" s="50" t="s">
+      <c r="O98" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="98"/>
-      <c r="B99" s="36"/>
-      <c r="C99" s="37" t="s">
+      <c r="A99" s="95"/>
+      <c r="B99" s="35"/>
+      <c r="C99" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D99" s="37">
+      <c r="D99" s="36">
         <v>5.1666999999999996</v>
       </c>
-      <c r="E99" s="37">
+      <c r="E99" s="36">
         <v>3.1736</v>
       </c>
-      <c r="F99" s="38">
+      <c r="F99" s="37">
         <v>3.2321</v>
       </c>
-      <c r="G99" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H99" s="76" t="s">
+      <c r="G99" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H99" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I99" s="100"/>
-      <c r="J99" s="51"/>
-      <c r="K99" s="52" t="s">
+      <c r="I99" s="99"/>
+      <c r="J99" s="50"/>
+      <c r="K99" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="L99" s="52">
+      <c r="L99" s="51">
         <v>8.5</v>
       </c>
-      <c r="M99" s="53">
+      <c r="M99" s="52">
         <v>4.0325999999999999E-3</v>
       </c>
-      <c r="N99" s="54">
+      <c r="N99" s="53">
         <v>3.8047999999999998E-2</v>
       </c>
-      <c r="O99" s="50" t="s">
+      <c r="O99" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="98"/>
-      <c r="B100" s="36"/>
-      <c r="C100" s="37" t="s">
+      <c r="A100" s="95"/>
+      <c r="B100" s="35"/>
+      <c r="C100" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D100" s="37">
+      <c r="D100" s="36">
         <v>8.1669999999999998</v>
       </c>
-      <c r="E100" s="37">
+      <c r="E100" s="36">
         <v>3.1736</v>
       </c>
-      <c r="F100" s="38">
+      <c r="F100" s="37">
         <v>2.8822999999999999</v>
       </c>
-      <c r="G100" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H100" s="76" t="s">
+      <c r="G100" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H100" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I100" s="100"/>
-      <c r="J100" s="51"/>
-      <c r="K100" s="52" t="s">
+      <c r="I100" s="99"/>
+      <c r="J100" s="50"/>
+      <c r="K100" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L100" s="52">
+      <c r="L100" s="51">
         <v>9.1999999999999993</v>
       </c>
-      <c r="M100" s="53">
+      <c r="M100" s="52">
         <v>4.0325999999999999E-3</v>
       </c>
-      <c r="N100" s="54">
+      <c r="N100" s="53">
         <v>-0.382469</v>
       </c>
-      <c r="O100" s="50" t="s">
+      <c r="O100" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="98"/>
-      <c r="B101" s="36"/>
-      <c r="C101" s="37" t="s">
+      <c r="A101" s="95"/>
+      <c r="B101" s="35"/>
+      <c r="C101" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D101" s="37">
+      <c r="D101" s="36">
         <v>8.83</v>
       </c>
-      <c r="E101" s="37">
+      <c r="E101" s="36">
         <v>3.1736</v>
       </c>
-      <c r="F101" s="38">
+      <c r="F101" s="37">
         <v>3.4910999999999999</v>
       </c>
-      <c r="G101" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H101" s="77" t="s">
+      <c r="G101" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H101" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I101" s="100"/>
-      <c r="J101" s="51"/>
-      <c r="K101" s="52" t="s">
+      <c r="I101" s="99"/>
+      <c r="J101" s="50"/>
+      <c r="K101" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="L101" s="52">
+      <c r="L101" s="51">
         <v>11.888999999999999</v>
       </c>
-      <c r="M101" s="53">
+      <c r="M101" s="52">
         <v>4.0325999999999999E-3</v>
       </c>
-      <c r="N101" s="54">
+      <c r="N101" s="53">
         <v>5.5329000000000003E-2</v>
       </c>
-      <c r="O101" s="50" t="s">
+      <c r="O101" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="98"/>
-      <c r="B102" s="36"/>
-      <c r="C102" s="37" t="s">
+      <c r="A102" s="95"/>
+      <c r="B102" s="35"/>
+      <c r="C102" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D102" s="37">
+      <c r="D102" s="36">
         <v>13.055999999999999</v>
       </c>
-      <c r="E102" s="37">
+      <c r="E102" s="36">
         <v>3.1736</v>
       </c>
-      <c r="F102" s="38">
+      <c r="F102" s="37">
         <v>3.0105</v>
       </c>
-      <c r="G102" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H102" s="77" t="s">
+      <c r="G102" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H102" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I102" s="100"/>
-      <c r="J102" s="51"/>
-      <c r="K102" s="52" t="s">
+      <c r="I102" s="99"/>
+      <c r="J102" s="50"/>
+      <c r="K102" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L102" s="52">
+      <c r="L102" s="51">
         <v>14.388999999999999</v>
       </c>
-      <c r="M102" s="53">
+      <c r="M102" s="52">
         <v>4.0325999999999999E-3</v>
       </c>
-      <c r="N102" s="54">
+      <c r="N102" s="53">
         <v>-0.188282</v>
       </c>
-      <c r="O102" s="50" t="s">
+      <c r="O102" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="98"/>
-      <c r="B103" s="36"/>
-      <c r="C103" s="37" t="s">
+      <c r="A103" s="95"/>
+      <c r="B103" s="35"/>
+      <c r="C103" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="37">
+      <c r="D103" s="36">
         <v>15.5</v>
       </c>
-      <c r="E103" s="37">
+      <c r="E103" s="36">
         <v>3.1736</v>
       </c>
-      <c r="F103" s="38">
+      <c r="F103" s="37">
         <v>3.9140000000000001</v>
       </c>
-      <c r="G103" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H103" s="77" t="s">
+      <c r="G103" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H103" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I103" s="100"/>
-      <c r="J103" s="87"/>
-      <c r="K103" s="60" t="s">
+      <c r="I103" s="99"/>
+      <c r="J103" s="83"/>
+      <c r="K103" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="L103" s="60">
+      <c r="L103" s="58">
         <v>48</v>
       </c>
-      <c r="M103" s="82">
+      <c r="M103" s="78">
         <v>4.0325999999999999E-3</v>
       </c>
-      <c r="N103" s="83">
+      <c r="N103" s="79">
         <v>3.9773000000000001</v>
       </c>
-      <c r="O103" s="81" t="s">
+      <c r="O103" s="77" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="98"/>
-      <c r="B104" s="39"/>
-      <c r="C104" s="40" t="s">
+      <c r="A104" s="95"/>
+      <c r="B104" s="38"/>
+      <c r="C104" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D104" s="80">
+      <c r="D104" s="76">
         <v>16.22</v>
       </c>
-      <c r="E104" s="40">
+      <c r="E104" s="39">
         <v>3.1736</v>
       </c>
-      <c r="F104" s="62">
+      <c r="F104" s="60">
         <v>2.3022999999999998</v>
       </c>
-      <c r="G104" s="35" t="s">
-        <v>16</v>
-      </c>
-      <c r="H104" s="77" t="s">
+      <c r="G104" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H104" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I104" s="100"/>
-      <c r="J104" s="56"/>
-      <c r="K104" s="57" t="s">
+      <c r="I104" s="99"/>
+      <c r="J104" s="54"/>
+      <c r="K104" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L104" s="57">
+      <c r="L104" s="55">
         <v>28.388999999999999</v>
       </c>
-      <c r="M104" s="67">
+      <c r="M104" s="64">
         <v>4.0325999999999999E-3</v>
       </c>
-      <c r="N104" s="68">
+      <c r="N104" s="65">
         <v>-0.66978300000000002</v>
       </c>
-      <c r="O104" s="50" t="s">
+      <c r="O104" s="49" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="98"/>
-      <c r="B105" s="37"/>
-      <c r="C105" s="37"/>
-      <c r="D105" s="37"/>
-      <c r="E105" s="37"/>
-      <c r="F105" s="37"/>
-      <c r="G105" s="35"/>
-      <c r="H105" s="74"/>
-      <c r="I105" s="100"/>
-      <c r="J105" s="52"/>
-      <c r="K105" s="52"/>
-      <c r="L105" s="52"/>
-      <c r="M105" s="52"/>
-      <c r="N105" s="52"/>
-      <c r="O105" s="50"/>
+      <c r="A105" s="95"/>
+      <c r="B105" s="36"/>
+      <c r="C105" s="36"/>
+      <c r="D105" s="36"/>
+      <c r="E105" s="36"/>
+      <c r="F105" s="36"/>
+      <c r="G105" s="34"/>
+      <c r="H105" s="70"/>
+      <c r="I105" s="99"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="51"/>
+      <c r="O105" s="49"/>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="98"/>
-      <c r="B106" s="33" t="s">
+      <c r="A106" s="95"/>
+      <c r="B106" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C106" s="31" t="s">
+      <c r="C106" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="D106" s="31"/>
-      <c r="E106" s="31"/>
-      <c r="F106" s="34"/>
-      <c r="G106" s="35"/>
-      <c r="H106" s="76" t="s">
+      <c r="D106" s="30">
+        <v>5.7320000000000002</v>
+      </c>
+      <c r="E106" s="30">
+        <v>3.1736</v>
+      </c>
+      <c r="F106" s="33">
+        <v>3.1164000000000001</v>
+      </c>
+      <c r="G106" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H106" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I106" s="100"/>
-      <c r="J106" s="48" t="s">
+      <c r="I106" s="99"/>
+      <c r="J106" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="K106" s="46" t="s">
+      <c r="K106" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="L106" s="46"/>
-      <c r="M106" s="49"/>
-      <c r="N106" s="70"/>
-      <c r="O106" s="50"/>
+      <c r="L106" s="45">
+        <v>7.2320000000000002</v>
+      </c>
+      <c r="M106" s="48">
+        <v>4.0325999999999999E-3</v>
+      </c>
+      <c r="N106" s="67">
+        <v>-9.8292000000000004E-2</v>
+      </c>
+      <c r="O106" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="98"/>
-      <c r="B107" s="36"/>
-      <c r="C107" s="37" t="s">
+      <c r="A107" s="95"/>
+      <c r="B107" s="35"/>
+      <c r="C107" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="D107" s="37"/>
-      <c r="E107" s="37"/>
-      <c r="F107" s="38"/>
-      <c r="G107" s="35"/>
-      <c r="H107" s="76" t="s">
+      <c r="D107" s="36">
+        <v>5.1120000000000001</v>
+      </c>
+      <c r="E107" s="36">
+        <v>3.1736</v>
+      </c>
+      <c r="F107" s="37">
+        <v>3.2313999999999998</v>
+      </c>
+      <c r="G107" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H107" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I107" s="100"/>
-      <c r="J107" s="51"/>
-      <c r="K107" s="52" t="s">
+      <c r="I107" s="99"/>
+      <c r="J107" s="50"/>
+      <c r="K107" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="L107" s="52"/>
-      <c r="M107" s="53"/>
-      <c r="N107" s="54"/>
-      <c r="O107" s="50"/>
+      <c r="L107" s="51">
+        <v>8.5556000000000001</v>
+      </c>
+      <c r="M107" s="52">
+        <v>4.0325999999999999E-3</v>
+      </c>
+      <c r="N107" s="53">
+        <v>3.9231000000000002E-2</v>
+      </c>
+      <c r="O107" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="98"/>
-      <c r="B108" s="36"/>
-      <c r="C108" s="37" t="s">
+      <c r="A108" s="95"/>
+      <c r="B108" s="35"/>
+      <c r="C108" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="71"/>
-      <c r="E108" s="37"/>
-      <c r="F108" s="38"/>
-      <c r="G108" s="35"/>
-      <c r="H108" s="76" t="s">
+      <c r="D108" s="86">
+        <v>8.23</v>
+      </c>
+      <c r="E108" s="36">
+        <v>3.1736</v>
+      </c>
+      <c r="F108" s="37">
+        <v>2.8853</v>
+      </c>
+      <c r="G108" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H108" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I108" s="100"/>
-      <c r="J108" s="51"/>
-      <c r="K108" s="52" t="s">
+      <c r="I108" s="99"/>
+      <c r="J108" s="50"/>
+      <c r="K108" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="L108" s="52"/>
-      <c r="M108" s="53"/>
-      <c r="N108" s="54"/>
-      <c r="O108" s="50"/>
+      <c r="L108" s="51">
+        <v>8.7799999999999994</v>
+      </c>
+      <c r="M108" s="52">
+        <v>4.0325999999999999E-3</v>
+      </c>
+      <c r="N108" s="53">
+        <v>-0.40397300000000003</v>
+      </c>
+      <c r="O108" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="98"/>
-      <c r="B109" s="36"/>
-      <c r="C109" s="37" t="s">
+      <c r="A109" s="95"/>
+      <c r="B109" s="35"/>
+      <c r="C109" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D109" s="37"/>
-      <c r="E109" s="37"/>
-      <c r="F109" s="38"/>
-      <c r="G109" s="35"/>
-      <c r="H109" s="77" t="s">
+      <c r="D109" s="36">
+        <v>8.5</v>
+      </c>
+      <c r="E109" s="36">
+        <v>3.1736</v>
+      </c>
+      <c r="F109" s="37">
+        <v>3.5023</v>
+      </c>
+      <c r="G109" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H109" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I109" s="100"/>
-      <c r="J109" s="51"/>
-      <c r="K109" s="52" t="s">
+      <c r="I109" s="99"/>
+      <c r="J109" s="50"/>
+      <c r="K109" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="L109" s="52"/>
-      <c r="M109" s="53"/>
-      <c r="N109" s="54"/>
-      <c r="O109" s="50"/>
+      <c r="L109" s="51">
+        <v>12.12</v>
+      </c>
+      <c r="M109" s="52">
+        <v>4.0325999999999999E-3</v>
+      </c>
+      <c r="N109" s="53">
+        <v>5.6112000000000002E-2</v>
+      </c>
+      <c r="O109" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="98"/>
-      <c r="B110" s="36"/>
-      <c r="C110" s="37" t="s">
+      <c r="A110" s="95"/>
+      <c r="B110" s="35"/>
+      <c r="C110" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D110" s="37"/>
-      <c r="E110" s="37"/>
-      <c r="F110" s="38"/>
-      <c r="G110" s="35"/>
-      <c r="H110" s="77" t="s">
+      <c r="D110" s="36">
+        <v>12.58</v>
+      </c>
+      <c r="E110" s="36">
+        <v>3.1736</v>
+      </c>
+      <c r="F110" s="37">
+        <v>2.9723000000000002</v>
+      </c>
+      <c r="G110" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H110" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I110" s="100"/>
-      <c r="J110" s="51"/>
-      <c r="K110" s="52" t="s">
+      <c r="I110" s="99"/>
+      <c r="J110" s="50"/>
+      <c r="K110" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="L110" s="52"/>
-      <c r="M110" s="53"/>
-      <c r="N110" s="54"/>
-      <c r="O110" s="50"/>
+      <c r="L110" s="51">
+        <v>13.864000000000001</v>
+      </c>
+      <c r="M110" s="52">
+        <v>4.0325999999999999E-3</v>
+      </c>
+      <c r="N110" s="53">
+        <v>-0.23964199999999999</v>
+      </c>
+      <c r="O110" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="98"/>
-      <c r="B111" s="36"/>
-      <c r="C111" s="37" t="s">
+      <c r="A111" s="95"/>
+      <c r="B111" s="35"/>
+      <c r="C111" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D111" s="37"/>
-      <c r="E111" s="37"/>
-      <c r="F111" s="38"/>
-      <c r="G111" s="35"/>
-      <c r="H111" s="77" t="s">
+      <c r="D111" s="36">
+        <v>12.278</v>
+      </c>
+      <c r="E111" s="36">
+        <v>3.1736</v>
+      </c>
+      <c r="F111" s="37">
+        <v>3.9041000000000001</v>
+      </c>
+      <c r="G111" s="34" t="s">
+        <v>16</v>
+      </c>
+      <c r="H111" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I111" s="100"/>
-      <c r="J111" s="51"/>
-      <c r="K111" s="52" t="s">
+      <c r="I111" s="99"/>
+      <c r="J111" s="50"/>
+      <c r="K111" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="L111" s="60"/>
-      <c r="M111" s="53"/>
-      <c r="N111" s="55"/>
-      <c r="O111" s="50"/>
+      <c r="L111" s="58">
+        <v>66.353999999999999</v>
+      </c>
+      <c r="M111" s="78">
+        <v>4.0325999999999999E-3</v>
+      </c>
+      <c r="N111" s="79">
+        <v>3.9823</v>
+      </c>
+      <c r="O111" s="77" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="98"/>
-      <c r="B112" s="39"/>
-      <c r="C112" s="40" t="s">
+      <c r="A112" s="95"/>
+      <c r="B112" s="38"/>
+      <c r="C112" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="D112" s="64"/>
-      <c r="E112" s="40"/>
-      <c r="F112" s="62"/>
-      <c r="G112" s="35"/>
-      <c r="H112" s="77" t="s">
+      <c r="D112" s="61">
+        <v>14.23</v>
+      </c>
+      <c r="E112" s="61">
+        <v>3.1736</v>
+      </c>
+      <c r="F112" s="105">
+        <v>2.2071000000000001</v>
+      </c>
+      <c r="G112" s="106" t="s">
+        <v>31</v>
+      </c>
+      <c r="H112" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I112" s="100"/>
-      <c r="J112" s="56"/>
-      <c r="K112" s="57" t="s">
+      <c r="I112" s="99"/>
+      <c r="J112" s="54"/>
+      <c r="K112" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="L112" s="57"/>
-      <c r="M112" s="67"/>
-      <c r="N112" s="68"/>
-      <c r="O112" s="50"/>
+      <c r="L112" s="55">
+        <v>38.22</v>
+      </c>
+      <c r="M112" s="64">
+        <v>4.0325999999999999E-3</v>
+      </c>
+      <c r="N112" s="65">
+        <v>-0.66766700000000001</v>
+      </c>
+      <c r="O112" s="49" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="99"/>
-      <c r="B113" s="40"/>
-      <c r="C113" s="40"/>
-      <c r="D113" s="40"/>
-      <c r="E113" s="40"/>
-      <c r="F113" s="40"/>
-      <c r="G113" s="41"/>
-      <c r="H113" s="75"/>
-      <c r="I113" s="101"/>
-      <c r="J113" s="57"/>
-      <c r="K113" s="57"/>
-      <c r="L113" s="57"/>
-      <c r="M113" s="57"/>
-      <c r="N113" s="57"/>
-      <c r="O113" s="58"/>
+      <c r="A113" s="96"/>
+      <c r="B113" s="39"/>
+      <c r="C113" s="39"/>
+      <c r="D113" s="39"/>
+      <c r="E113" s="39"/>
+      <c r="F113" s="39"/>
+      <c r="G113" s="40"/>
+      <c r="H113" s="71"/>
+      <c r="I113" s="100"/>
+      <c r="J113" s="55"/>
+      <c r="K113" s="55"/>
+      <c r="L113" s="55"/>
+      <c r="M113" s="55"/>
+      <c r="N113" s="55"/>
+      <c r="O113" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="57">
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="I5:I20"/>
-    <mergeCell ref="I22:I37"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="I98:I113"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="I78:I79"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A39:O39"/>
     <mergeCell ref="A77:O77"/>
@@ -4312,6 +4720,47 @@
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="A43:A58"/>
     <mergeCell ref="I43:I58"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="I98:I113"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="I78:I79"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="I5:I20"/>
+    <mergeCell ref="I22:I37"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/Documentation/Comparador Tabla de NDout.xlsx
+++ b/Documentation/Comparador Tabla de NDout.xlsx
@@ -427,22 +427,18 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -451,16 +447,22 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -475,13 +477,11 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="3" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -784,8 +784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:O113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L115" sqref="L115"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="M57" sqref="M57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75"/>
@@ -805,85 +805,85 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="103" t="s">
+      <c r="A1" s="90" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="103"/>
-      <c r="C1" s="103"/>
-      <c r="D1" s="103"/>
-      <c r="E1" s="103"/>
-      <c r="F1" s="103"/>
-      <c r="G1" s="103"/>
-      <c r="H1" s="103"/>
-      <c r="I1" s="103"/>
-      <c r="J1" s="103"/>
-      <c r="K1" s="103"/>
-      <c r="L1" s="103"/>
-      <c r="M1" s="103"/>
-      <c r="N1" s="103"/>
-      <c r="O1" s="103"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
+      <c r="F1" s="90"/>
+      <c r="G1" s="90"/>
+      <c r="H1" s="90"/>
+      <c r="I1" s="90"/>
+      <c r="J1" s="90"/>
+      <c r="K1" s="90"/>
+      <c r="L1" s="90"/>
+      <c r="M1" s="90"/>
+      <c r="N1" s="90"/>
+      <c r="O1" s="90"/>
     </row>
     <row r="2" spans="1:15" s="1" customFormat="1" ht="15">
-      <c r="A2" s="101" t="s">
+      <c r="A2" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="89" t="s">
+      <c r="B2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="89" t="s">
+      <c r="C2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="89" t="s">
+      <c r="D2" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="89" t="s">
+      <c r="E2" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="89" t="s">
+      <c r="F2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="91" t="s">
+      <c r="G2" s="105" t="s">
         <v>15</v>
       </c>
       <c r="H2" s="68"/>
-      <c r="I2" s="91" t="s">
+      <c r="I2" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J2" s="89" t="s">
+      <c r="J2" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="89" t="s">
+      <c r="K2" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="L2" s="89" t="s">
+      <c r="L2" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="89" t="s">
+      <c r="M2" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="N2" s="89" t="s">
+      <c r="N2" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O2" s="87" t="s">
+      <c r="O2" s="91" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="2" customFormat="1" ht="15">
-      <c r="A3" s="102"/>
-      <c r="B3" s="90"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="90"/>
-      <c r="G3" s="92"/>
+      <c r="A3" s="104"/>
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="106"/>
       <c r="H3" s="69"/>
-      <c r="I3" s="92"/>
-      <c r="J3" s="90"/>
-      <c r="K3" s="90"/>
-      <c r="L3" s="90"/>
-      <c r="M3" s="90"/>
-      <c r="N3" s="90"/>
-      <c r="O3" s="88"/>
+      <c r="I3" s="106"/>
+      <c r="J3" s="98"/>
+      <c r="K3" s="98"/>
+      <c r="L3" s="98"/>
+      <c r="M3" s="98"/>
+      <c r="N3" s="98"/>
+      <c r="O3" s="92"/>
     </row>
     <row r="4" spans="1:15" s="2" customFormat="1">
       <c r="A4" s="26"/>
@@ -927,7 +927,7 @@
       <c r="H5" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="97" t="s">
+      <c r="I5" s="95" t="s">
         <v>19</v>
       </c>
       <c r="J5" s="21" t="s">
@@ -970,7 +970,7 @@
       <c r="H6" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I6" s="97"/>
+      <c r="I6" s="95"/>
       <c r="J6" s="23"/>
       <c r="K6" s="16" t="s">
         <v>3</v>
@@ -1009,7 +1009,7 @@
       <c r="H7" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I7" s="97"/>
+      <c r="I7" s="95"/>
       <c r="J7" s="23"/>
       <c r="K7" s="16" t="s">
         <v>2</v>
@@ -1048,7 +1048,7 @@
       <c r="H8" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="97"/>
+      <c r="I8" s="95"/>
       <c r="J8" s="23"/>
       <c r="K8" s="16" t="s">
         <v>4</v>
@@ -1087,7 +1087,7 @@
       <c r="H9" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I9" s="97"/>
+      <c r="I9" s="95"/>
       <c r="J9" s="23"/>
       <c r="K9" s="16" t="s">
         <v>8</v>
@@ -1126,7 +1126,7 @@
       <c r="H10" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I10" s="97"/>
+      <c r="I10" s="95"/>
       <c r="J10" s="23"/>
       <c r="K10" s="57" t="s">
         <v>5</v>
@@ -1165,7 +1165,7 @@
       <c r="H11" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I11" s="97"/>
+      <c r="I11" s="95"/>
       <c r="J11" s="24"/>
       <c r="K11" s="19" t="s">
         <v>6</v>
@@ -1192,7 +1192,7 @@
       <c r="F12" s="6"/>
       <c r="G12" s="7"/>
       <c r="H12" s="70"/>
-      <c r="I12" s="97"/>
+      <c r="I12" s="95"/>
       <c r="J12" s="16"/>
       <c r="K12" s="16"/>
       <c r="L12" s="16"/>
@@ -1223,7 +1223,7 @@
       <c r="H13" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="97"/>
+      <c r="I13" s="95"/>
       <c r="J13" s="21" t="s">
         <v>7</v>
       </c>
@@ -1264,7 +1264,7 @@
       <c r="H14" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="97"/>
+      <c r="I14" s="95"/>
       <c r="J14" s="23"/>
       <c r="K14" s="16" t="s">
         <v>3</v>
@@ -1303,7 +1303,7 @@
       <c r="H15" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I15" s="97"/>
+      <c r="I15" s="95"/>
       <c r="J15" s="23"/>
       <c r="K15" s="16" t="s">
         <v>2</v>
@@ -1342,7 +1342,7 @@
       <c r="H16" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I16" s="97"/>
+      <c r="I16" s="95"/>
       <c r="J16" s="23"/>
       <c r="K16" s="16" t="s">
         <v>4</v>
@@ -1381,7 +1381,7 @@
       <c r="H17" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I17" s="97"/>
+      <c r="I17" s="95"/>
       <c r="J17" s="23"/>
       <c r="K17" s="16" t="s">
         <v>8</v>
@@ -1420,7 +1420,7 @@
       <c r="H18" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="97"/>
+      <c r="I18" s="95"/>
       <c r="J18" s="23"/>
       <c r="K18" s="57" t="s">
         <v>5</v>
@@ -1459,7 +1459,7 @@
       <c r="H19" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I19" s="97"/>
+      <c r="I19" s="95"/>
       <c r="J19" s="24"/>
       <c r="K19" s="19" t="s">
         <v>6</v>
@@ -1486,7 +1486,7 @@
       <c r="F20" s="8"/>
       <c r="G20" s="9"/>
       <c r="H20" s="70"/>
-      <c r="I20" s="98"/>
+      <c r="I20" s="96"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
       <c r="L20" s="19"/>
@@ -1512,7 +1512,7 @@
       <c r="O21" s="46"/>
     </row>
     <row r="22" spans="1:15" ht="16.5" customHeight="1">
-      <c r="A22" s="95" t="s">
+      <c r="A22" s="99" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="32" t="s">
@@ -1536,7 +1536,7 @@
       <c r="H22" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I22" s="99" t="s">
+      <c r="I22" s="101" t="s">
         <v>20</v>
       </c>
       <c r="J22" s="47" t="s">
@@ -1559,7 +1559,7 @@
       </c>
     </row>
     <row r="23" spans="1:15">
-      <c r="A23" s="95"/>
+      <c r="A23" s="99"/>
       <c r="B23" s="35"/>
       <c r="C23" s="36" t="s">
         <v>3</v>
@@ -1579,7 +1579,7 @@
       <c r="H23" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I23" s="99"/>
+      <c r="I23" s="101"/>
       <c r="J23" s="50"/>
       <c r="K23" s="51" t="s">
         <v>3</v>
@@ -1598,7 +1598,7 @@
       </c>
     </row>
     <row r="24" spans="1:15">
-      <c r="A24" s="95"/>
+      <c r="A24" s="99"/>
       <c r="B24" s="35"/>
       <c r="C24" s="36" t="s">
         <v>2</v>
@@ -1618,7 +1618,7 @@
       <c r="H24" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I24" s="99"/>
+      <c r="I24" s="101"/>
       <c r="J24" s="50"/>
       <c r="K24" s="51" t="s">
         <v>2</v>
@@ -1637,7 +1637,7 @@
       </c>
     </row>
     <row r="25" spans="1:15">
-      <c r="A25" s="95"/>
+      <c r="A25" s="99"/>
       <c r="B25" s="35"/>
       <c r="C25" s="36" t="s">
         <v>4</v>
@@ -1657,7 +1657,7 @@
       <c r="H25" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I25" s="99"/>
+      <c r="I25" s="101"/>
       <c r="J25" s="50"/>
       <c r="K25" s="51" t="s">
         <v>4</v>
@@ -1676,7 +1676,7 @@
       </c>
     </row>
     <row r="26" spans="1:15">
-      <c r="A26" s="95"/>
+      <c r="A26" s="99"/>
       <c r="B26" s="35"/>
       <c r="C26" s="36" t="s">
         <v>8</v>
@@ -1696,7 +1696,7 @@
       <c r="H26" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I26" s="99"/>
+      <c r="I26" s="101"/>
       <c r="J26" s="50"/>
       <c r="K26" s="51" t="s">
         <v>8</v>
@@ -1715,7 +1715,7 @@
       </c>
     </row>
     <row r="27" spans="1:15">
-      <c r="A27" s="95"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="35"/>
       <c r="C27" s="36" t="s">
         <v>5</v>
@@ -1735,7 +1735,7 @@
       <c r="H27" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I27" s="99"/>
+      <c r="I27" s="101"/>
       <c r="J27" s="50"/>
       <c r="K27" s="58" t="s">
         <v>5</v>
@@ -1754,7 +1754,7 @@
       </c>
     </row>
     <row r="28" spans="1:15">
-      <c r="A28" s="95"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="38"/>
       <c r="C28" s="39" t="s">
         <v>6</v>
@@ -1774,7 +1774,7 @@
       <c r="H28" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I28" s="99"/>
+      <c r="I28" s="101"/>
       <c r="J28" s="54"/>
       <c r="K28" s="55" t="s">
         <v>6</v>
@@ -1793,7 +1793,7 @@
       </c>
     </row>
     <row r="29" spans="1:15">
-      <c r="A29" s="95"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="36"/>
       <c r="C29" s="36"/>
       <c r="D29" s="36"/>
@@ -1801,7 +1801,7 @@
       <c r="F29" s="36"/>
       <c r="G29" s="34"/>
       <c r="H29" s="70"/>
-      <c r="I29" s="99"/>
+      <c r="I29" s="101"/>
       <c r="J29" s="51"/>
       <c r="K29" s="51"/>
       <c r="L29" s="51"/>
@@ -1810,7 +1810,7 @@
       <c r="O29" s="49"/>
     </row>
     <row r="30" spans="1:15">
-      <c r="A30" s="95"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="32" t="s">
         <v>7</v>
       </c>
@@ -1832,7 +1832,7 @@
       <c r="H30" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I30" s="99"/>
+      <c r="I30" s="101"/>
       <c r="J30" s="47" t="s">
         <v>7</v>
       </c>
@@ -1853,7 +1853,7 @@
       </c>
     </row>
     <row r="31" spans="1:15">
-      <c r="A31" s="95"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="35"/>
       <c r="C31" s="36" t="s">
         <v>3</v>
@@ -1873,7 +1873,7 @@
       <c r="H31" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I31" s="99"/>
+      <c r="I31" s="101"/>
       <c r="J31" s="50"/>
       <c r="K31" s="51" t="s">
         <v>3</v>
@@ -1892,7 +1892,7 @@
       </c>
     </row>
     <row r="32" spans="1:15">
-      <c r="A32" s="95"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="35"/>
       <c r="C32" s="36" t="s">
         <v>2</v>
@@ -1912,7 +1912,7 @@
       <c r="H32" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I32" s="99"/>
+      <c r="I32" s="101"/>
       <c r="J32" s="50"/>
       <c r="K32" s="51" t="s">
         <v>2</v>
@@ -1931,7 +1931,7 @@
       </c>
     </row>
     <row r="33" spans="1:15">
-      <c r="A33" s="95"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="35"/>
       <c r="C33" s="36" t="s">
         <v>4</v>
@@ -1951,7 +1951,7 @@
       <c r="H33" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I33" s="99"/>
+      <c r="I33" s="101"/>
       <c r="J33" s="50"/>
       <c r="K33" s="51" t="s">
         <v>4</v>
@@ -1970,7 +1970,7 @@
       </c>
     </row>
     <row r="34" spans="1:15">
-      <c r="A34" s="95"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="35"/>
       <c r="C34" s="36" t="s">
         <v>8</v>
@@ -1990,7 +1990,7 @@
       <c r="H34" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I34" s="99"/>
+      <c r="I34" s="101"/>
       <c r="J34" s="50"/>
       <c r="K34" s="51" t="s">
         <v>8</v>
@@ -2009,7 +2009,7 @@
       </c>
     </row>
     <row r="35" spans="1:15">
-      <c r="A35" s="95"/>
+      <c r="A35" s="99"/>
       <c r="B35" s="35"/>
       <c r="C35" s="36" t="s">
         <v>5</v>
@@ -2029,7 +2029,7 @@
       <c r="H35" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I35" s="99"/>
+      <c r="I35" s="101"/>
       <c r="J35" s="50"/>
       <c r="K35" s="58" t="s">
         <v>5</v>
@@ -2048,7 +2048,7 @@
       </c>
     </row>
     <row r="36" spans="1:15">
-      <c r="A36" s="95"/>
+      <c r="A36" s="99"/>
       <c r="B36" s="38"/>
       <c r="C36" s="39" t="s">
         <v>6</v>
@@ -2068,7 +2068,7 @@
       <c r="H36" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I36" s="99"/>
+      <c r="I36" s="101"/>
       <c r="J36" s="54"/>
       <c r="K36" s="55" t="s">
         <v>6</v>
@@ -2087,7 +2087,7 @@
       </c>
     </row>
     <row r="37" spans="1:15">
-      <c r="A37" s="96"/>
+      <c r="A37" s="100"/>
       <c r="B37" s="39"/>
       <c r="C37" s="39"/>
       <c r="D37" s="39"/>
@@ -2095,7 +2095,7 @@
       <c r="F37" s="39"/>
       <c r="G37" s="40"/>
       <c r="H37" s="71"/>
-      <c r="I37" s="100"/>
+      <c r="I37" s="102"/>
       <c r="J37" s="55"/>
       <c r="K37" s="55"/>
       <c r="L37" s="55"/>
@@ -2105,85 +2105,85 @@
     </row>
     <row r="38" spans="1:15" ht="17.25" customHeight="1"/>
     <row r="39" spans="1:15">
-      <c r="A39" s="103" t="s">
+      <c r="A39" s="90" t="s">
         <v>22</v>
       </c>
-      <c r="B39" s="103"/>
-      <c r="C39" s="103"/>
-      <c r="D39" s="103"/>
-      <c r="E39" s="103"/>
-      <c r="F39" s="103"/>
-      <c r="G39" s="103"/>
-      <c r="H39" s="103"/>
-      <c r="I39" s="103"/>
-      <c r="J39" s="103"/>
-      <c r="K39" s="103"/>
-      <c r="L39" s="103"/>
-      <c r="M39" s="103"/>
-      <c r="N39" s="103"/>
-      <c r="O39" s="103"/>
+      <c r="B39" s="90"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="90"/>
+      <c r="E39" s="90"/>
+      <c r="F39" s="90"/>
+      <c r="G39" s="90"/>
+      <c r="H39" s="90"/>
+      <c r="I39" s="90"/>
+      <c r="J39" s="90"/>
+      <c r="K39" s="90"/>
+      <c r="L39" s="90"/>
+      <c r="M39" s="90"/>
+      <c r="N39" s="90"/>
+      <c r="O39" s="90"/>
     </row>
     <row r="40" spans="1:15" ht="15">
-      <c r="A40" s="101" t="s">
+      <c r="A40" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="89" t="s">
+      <c r="B40" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="C40" s="89" t="s">
+      <c r="C40" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="89" t="s">
+      <c r="D40" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E40" s="89" t="s">
+      <c r="E40" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="F40" s="89" t="s">
+      <c r="F40" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="91" t="s">
+      <c r="G40" s="105" t="s">
         <v>15</v>
       </c>
       <c r="H40" s="68"/>
-      <c r="I40" s="91" t="s">
+      <c r="I40" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J40" s="89" t="s">
+      <c r="J40" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="K40" s="89" t="s">
+      <c r="K40" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="L40" s="89" t="s">
+      <c r="L40" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="M40" s="89" t="s">
+      <c r="M40" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="N40" s="89" t="s">
+      <c r="N40" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O40" s="87" t="s">
+      <c r="O40" s="91" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="41" spans="1:15" ht="15">
-      <c r="A41" s="102"/>
-      <c r="B41" s="90"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="90"/>
-      <c r="E41" s="90"/>
-      <c r="F41" s="90"/>
-      <c r="G41" s="92"/>
+      <c r="A41" s="104"/>
+      <c r="B41" s="98"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
+      <c r="E41" s="98"/>
+      <c r="F41" s="98"/>
+      <c r="G41" s="106"/>
       <c r="H41" s="69"/>
-      <c r="I41" s="92"/>
-      <c r="J41" s="90"/>
-      <c r="K41" s="90"/>
-      <c r="L41" s="90"/>
-      <c r="M41" s="90"/>
-      <c r="N41" s="90"/>
-      <c r="O41" s="88"/>
+      <c r="I41" s="106"/>
+      <c r="J41" s="98"/>
+      <c r="K41" s="98"/>
+      <c r="L41" s="98"/>
+      <c r="M41" s="98"/>
+      <c r="N41" s="98"/>
+      <c r="O41" s="92"/>
     </row>
     <row r="42" spans="1:15">
       <c r="A42" s="26"/>
@@ -2227,7 +2227,7 @@
       <c r="H43" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I43" s="97" t="s">
+      <c r="I43" s="95" t="s">
         <v>19</v>
       </c>
       <c r="J43" s="21" t="s">
@@ -2240,7 +2240,7 @@
         <v>6.7778</v>
       </c>
       <c r="M43" s="22">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N43" s="66">
         <v>-9.2942999999999998E-2</v>
@@ -2270,7 +2270,7 @@
       <c r="H44" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I44" s="97"/>
+      <c r="I44" s="95"/>
       <c r="J44" s="23"/>
       <c r="K44" s="16" t="s">
         <v>3</v>
@@ -2279,7 +2279,7 @@
         <v>7.8890000000000002</v>
       </c>
       <c r="M44" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N44" s="25">
         <v>7.5215000000000004E-2</v>
@@ -2309,7 +2309,7 @@
       <c r="H45" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="97"/>
+      <c r="I45" s="95"/>
       <c r="J45" s="23"/>
       <c r="K45" s="16" t="s">
         <v>2</v>
@@ -2318,7 +2318,7 @@
         <v>8.7222000000000008</v>
       </c>
       <c r="M45" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N45" s="25">
         <v>-0.37559700000000001</v>
@@ -2348,7 +2348,7 @@
       <c r="H46" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I46" s="97"/>
+      <c r="I46" s="95"/>
       <c r="J46" s="23"/>
       <c r="K46" s="16" t="s">
         <v>4</v>
@@ -2357,7 +2357,7 @@
         <v>11.944000000000001</v>
       </c>
       <c r="M46" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N46" s="25">
         <v>0.14213100000000001</v>
@@ -2387,7 +2387,7 @@
       <c r="H47" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I47" s="97"/>
+      <c r="I47" s="95"/>
       <c r="J47" s="23"/>
       <c r="K47" s="16" t="s">
         <v>8</v>
@@ -2396,7 +2396,7 @@
         <v>14.111000000000001</v>
       </c>
       <c r="M47" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N47" s="25">
         <v>-0.18697900000000001</v>
@@ -2426,7 +2426,7 @@
       <c r="H48" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="97"/>
+      <c r="I48" s="95"/>
       <c r="J48" s="23"/>
       <c r="K48" s="57" t="s">
         <v>5</v>
@@ -2435,7 +2435,7 @@
         <v>47.25</v>
       </c>
       <c r="M48" s="80">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N48" s="81">
         <v>3.9748000000000001</v>
@@ -2465,7 +2465,7 @@
       <c r="H49" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I49" s="97"/>
+      <c r="I49" s="95"/>
       <c r="J49" s="24"/>
       <c r="K49" s="19" t="s">
         <v>6</v>
@@ -2474,7 +2474,7 @@
         <v>34</v>
       </c>
       <c r="M49" s="62">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N49" s="63">
         <v>-0.668937</v>
@@ -2492,7 +2492,7 @@
       <c r="F50" s="6"/>
       <c r="G50" s="7"/>
       <c r="H50" s="70"/>
-      <c r="I50" s="97"/>
+      <c r="I50" s="95"/>
       <c r="J50" s="16"/>
       <c r="K50" s="16"/>
       <c r="L50" s="16"/>
@@ -2523,7 +2523,7 @@
       <c r="H51" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I51" s="97"/>
+      <c r="I51" s="95"/>
       <c r="J51" s="21" t="s">
         <v>7</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>7.0556000000000001</v>
       </c>
       <c r="M51" s="22">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N51" s="66">
         <v>-9.5515000000000003E-2</v>
@@ -2564,7 +2564,7 @@
       <c r="H52" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I52" s="97"/>
+      <c r="I52" s="95"/>
       <c r="J52" s="23"/>
       <c r="K52" s="16" t="s">
         <v>3</v>
@@ -2573,7 +2573,7 @@
         <v>7.8339999999999996</v>
       </c>
       <c r="M52" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N52" s="25">
         <v>7.8512999999999999E-2</v>
@@ -2603,7 +2603,7 @@
       <c r="H53" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I53" s="97"/>
+      <c r="I53" s="95"/>
       <c r="J53" s="23"/>
       <c r="K53" s="16" t="s">
         <v>2</v>
@@ -2612,7 +2612,7 @@
         <v>8.5570000000000004</v>
       </c>
       <c r="M53" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N53" s="25">
         <v>-0.39083200000000001</v>
@@ -2642,7 +2642,7 @@
       <c r="H54" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I54" s="97"/>
+      <c r="I54" s="95"/>
       <c r="J54" s="23"/>
       <c r="K54" s="16" t="s">
         <v>4</v>
@@ -2651,7 +2651,7 @@
         <v>12.055999999999999</v>
       </c>
       <c r="M54" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N54" s="25">
         <v>0.15581400000000001</v>
@@ -2681,7 +2681,7 @@
       <c r="H55" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I55" s="97"/>
+      <c r="I55" s="95"/>
       <c r="J55" s="23"/>
       <c r="K55" s="16" t="s">
         <v>8</v>
@@ -2690,7 +2690,7 @@
         <v>13.788</v>
       </c>
       <c r="M55" s="17">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N55" s="25">
         <v>-0.23756099999999999</v>
@@ -2720,7 +2720,7 @@
       <c r="H56" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I56" s="97"/>
+      <c r="I56" s="95"/>
       <c r="J56" s="23"/>
       <c r="K56" s="16" t="s">
         <v>5</v>
@@ -2729,7 +2729,7 @@
         <v>76.546999999999997</v>
       </c>
       <c r="M56" s="80">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N56" s="81">
         <v>3.9866999999999999</v>
@@ -2744,7 +2744,7 @@
       <c r="C57" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="104">
+      <c r="D57" s="87">
         <v>11.5</v>
       </c>
       <c r="E57" s="8">
@@ -2759,7 +2759,7 @@
       <c r="H57" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I57" s="97"/>
+      <c r="I57" s="95"/>
       <c r="J57" s="24"/>
       <c r="K57" s="19" t="s">
         <v>6</v>
@@ -2768,7 +2768,7 @@
         <v>46.59</v>
       </c>
       <c r="M57" s="62">
-        <v>10.404</v>
+        <v>1.0404E-2</v>
       </c>
       <c r="N57" s="63">
         <v>-0.66685499999999998</v>
@@ -2786,7 +2786,7 @@
       <c r="F58" s="8"/>
       <c r="G58" s="9"/>
       <c r="H58" s="70"/>
-      <c r="I58" s="98"/>
+      <c r="I58" s="96"/>
       <c r="J58" s="19"/>
       <c r="K58" s="19"/>
       <c r="L58" s="19"/>
@@ -2812,7 +2812,7 @@
       <c r="O59" s="46"/>
     </row>
     <row r="60" spans="1:15">
-      <c r="A60" s="95" t="s">
+      <c r="A60" s="99" t="s">
         <v>18</v>
       </c>
       <c r="B60" s="32" t="s">
@@ -2836,7 +2836,7 @@
       <c r="H60" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I60" s="99" t="s">
+      <c r="I60" s="101" t="s">
         <v>20</v>
       </c>
       <c r="J60" s="47" t="s">
@@ -2859,7 +2859,7 @@
       </c>
     </row>
     <row r="61" spans="1:15">
-      <c r="A61" s="95"/>
+      <c r="A61" s="99"/>
       <c r="B61" s="35"/>
       <c r="C61" s="36" t="s">
         <v>3</v>
@@ -2879,7 +2879,7 @@
       <c r="H61" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I61" s="99"/>
+      <c r="I61" s="101"/>
       <c r="J61" s="50"/>
       <c r="K61" s="51" t="s">
         <v>3</v>
@@ -2898,7 +2898,7 @@
       </c>
     </row>
     <row r="62" spans="1:15" ht="15" customHeight="1">
-      <c r="A62" s="95"/>
+      <c r="A62" s="99"/>
       <c r="B62" s="35"/>
       <c r="C62" s="36" t="s">
         <v>2</v>
@@ -2918,7 +2918,7 @@
       <c r="H62" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="99"/>
+      <c r="I62" s="101"/>
       <c r="J62" s="50"/>
       <c r="K62" s="51" t="s">
         <v>2</v>
@@ -2937,7 +2937,7 @@
       </c>
     </row>
     <row r="63" spans="1:15">
-      <c r="A63" s="95"/>
+      <c r="A63" s="99"/>
       <c r="B63" s="35"/>
       <c r="C63" s="36" t="s">
         <v>4</v>
@@ -2957,7 +2957,7 @@
       <c r="H63" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I63" s="99"/>
+      <c r="I63" s="101"/>
       <c r="J63" s="50"/>
       <c r="K63" s="51" t="s">
         <v>4</v>
@@ -2976,7 +2976,7 @@
       </c>
     </row>
     <row r="64" spans="1:15">
-      <c r="A64" s="95"/>
+      <c r="A64" s="99"/>
       <c r="B64" s="35"/>
       <c r="C64" s="36" t="s">
         <v>8</v>
@@ -2996,7 +2996,7 @@
       <c r="H64" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I64" s="99"/>
+      <c r="I64" s="101"/>
       <c r="J64" s="50"/>
       <c r="K64" s="51" t="s">
         <v>8</v>
@@ -3015,7 +3015,7 @@
       </c>
     </row>
     <row r="65" spans="1:15">
-      <c r="A65" s="95"/>
+      <c r="A65" s="99"/>
       <c r="B65" s="35"/>
       <c r="C65" s="36" t="s">
         <v>5</v>
@@ -3035,7 +3035,7 @@
       <c r="H65" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I65" s="99"/>
+      <c r="I65" s="101"/>
       <c r="J65" s="50"/>
       <c r="K65" s="58" t="s">
         <v>5</v>
@@ -3054,7 +3054,7 @@
       </c>
     </row>
     <row r="66" spans="1:15">
-      <c r="A66" s="95"/>
+      <c r="A66" s="99"/>
       <c r="B66" s="38"/>
       <c r="C66" s="39" t="s">
         <v>6</v>
@@ -3074,7 +3074,7 @@
       <c r="H66" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I66" s="99"/>
+      <c r="I66" s="101"/>
       <c r="J66" s="54"/>
       <c r="K66" s="55" t="s">
         <v>6</v>
@@ -3093,7 +3093,7 @@
       </c>
     </row>
     <row r="67" spans="1:15">
-      <c r="A67" s="95"/>
+      <c r="A67" s="99"/>
       <c r="B67" s="36"/>
       <c r="C67" s="36"/>
       <c r="D67" s="36"/>
@@ -3101,7 +3101,7 @@
       <c r="F67" s="36"/>
       <c r="G67" s="34"/>
       <c r="H67" s="70"/>
-      <c r="I67" s="99"/>
+      <c r="I67" s="101"/>
       <c r="J67" s="51"/>
       <c r="K67" s="51"/>
       <c r="L67" s="51"/>
@@ -3110,7 +3110,7 @@
       <c r="O67" s="49"/>
     </row>
     <row r="68" spans="1:15">
-      <c r="A68" s="95"/>
+      <c r="A68" s="99"/>
       <c r="B68" s="32" t="s">
         <v>7</v>
       </c>
@@ -3132,7 +3132,7 @@
       <c r="H68" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I68" s="99"/>
+      <c r="I68" s="101"/>
       <c r="J68" s="47" t="s">
         <v>7</v>
       </c>
@@ -3153,7 +3153,7 @@
       </c>
     </row>
     <row r="69" spans="1:15">
-      <c r="A69" s="95"/>
+      <c r="A69" s="99"/>
       <c r="B69" s="35"/>
       <c r="C69" s="36" t="s">
         <v>3</v>
@@ -3173,7 +3173,7 @@
       <c r="H69" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I69" s="99"/>
+      <c r="I69" s="101"/>
       <c r="J69" s="50"/>
       <c r="K69" s="51" t="s">
         <v>3</v>
@@ -3192,7 +3192,7 @@
       </c>
     </row>
     <row r="70" spans="1:15">
-      <c r="A70" s="95"/>
+      <c r="A70" s="99"/>
       <c r="B70" s="35"/>
       <c r="C70" s="36" t="s">
         <v>2</v>
@@ -3212,7 +3212,7 @@
       <c r="H70" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I70" s="99"/>
+      <c r="I70" s="101"/>
       <c r="J70" s="50"/>
       <c r="K70" s="51" t="s">
         <v>2</v>
@@ -3231,7 +3231,7 @@
       </c>
     </row>
     <row r="71" spans="1:15">
-      <c r="A71" s="95"/>
+      <c r="A71" s="99"/>
       <c r="B71" s="35"/>
       <c r="C71" s="36" t="s">
         <v>4</v>
@@ -3251,7 +3251,7 @@
       <c r="H71" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I71" s="99"/>
+      <c r="I71" s="101"/>
       <c r="J71" s="50"/>
       <c r="K71" s="51" t="s">
         <v>4</v>
@@ -3270,7 +3270,7 @@
       </c>
     </row>
     <row r="72" spans="1:15">
-      <c r="A72" s="95"/>
+      <c r="A72" s="99"/>
       <c r="B72" s="35"/>
       <c r="C72" s="36" t="s">
         <v>8</v>
@@ -3290,7 +3290,7 @@
       <c r="H72" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I72" s="99"/>
+      <c r="I72" s="101"/>
       <c r="J72" s="50"/>
       <c r="K72" s="51" t="s">
         <v>8</v>
@@ -3309,7 +3309,7 @@
       </c>
     </row>
     <row r="73" spans="1:15">
-      <c r="A73" s="95"/>
+      <c r="A73" s="99"/>
       <c r="B73" s="35"/>
       <c r="C73" s="36" t="s">
         <v>5</v>
@@ -3329,7 +3329,7 @@
       <c r="H73" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I73" s="99"/>
+      <c r="I73" s="101"/>
       <c r="J73" s="50"/>
       <c r="K73" s="51" t="s">
         <v>5</v>
@@ -3348,7 +3348,7 @@
       </c>
     </row>
     <row r="74" spans="1:15">
-      <c r="A74" s="95"/>
+      <c r="A74" s="99"/>
       <c r="B74" s="38"/>
       <c r="C74" s="39" t="s">
         <v>6</v>
@@ -3368,7 +3368,7 @@
       <c r="H74" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I74" s="99"/>
+      <c r="I74" s="101"/>
       <c r="J74" s="54"/>
       <c r="K74" s="55" t="s">
         <v>6</v>
@@ -3387,7 +3387,7 @@
       </c>
     </row>
     <row r="75" spans="1:15">
-      <c r="A75" s="96"/>
+      <c r="A75" s="100"/>
       <c r="B75" s="39"/>
       <c r="C75" s="39"/>
       <c r="D75" s="39"/>
@@ -3395,7 +3395,7 @@
       <c r="F75" s="39"/>
       <c r="G75" s="40"/>
       <c r="H75" s="71"/>
-      <c r="I75" s="100"/>
+      <c r="I75" s="102"/>
       <c r="J75" s="55"/>
       <c r="K75" s="55"/>
       <c r="L75" s="55"/>
@@ -3404,85 +3404,85 @@
       <c r="O75" s="56"/>
     </row>
     <row r="77" spans="1:15">
-      <c r="A77" s="103" t="s">
+      <c r="A77" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="B77" s="103"/>
-      <c r="C77" s="103"/>
-      <c r="D77" s="103"/>
-      <c r="E77" s="103"/>
-      <c r="F77" s="103"/>
-      <c r="G77" s="103"/>
-      <c r="H77" s="103"/>
-      <c r="I77" s="103"/>
-      <c r="J77" s="103"/>
-      <c r="K77" s="103"/>
-      <c r="L77" s="103"/>
-      <c r="M77" s="103"/>
-      <c r="N77" s="103"/>
-      <c r="O77" s="103"/>
+      <c r="B77" s="90"/>
+      <c r="C77" s="90"/>
+      <c r="D77" s="90"/>
+      <c r="E77" s="90"/>
+      <c r="F77" s="90"/>
+      <c r="G77" s="90"/>
+      <c r="H77" s="90"/>
+      <c r="I77" s="90"/>
+      <c r="J77" s="90"/>
+      <c r="K77" s="90"/>
+      <c r="L77" s="90"/>
+      <c r="M77" s="90"/>
+      <c r="N77" s="90"/>
+      <c r="O77" s="90"/>
     </row>
     <row r="78" spans="1:15" ht="15">
-      <c r="A78" s="101" t="s">
+      <c r="A78" s="103" t="s">
         <v>14</v>
       </c>
-      <c r="B78" s="89" t="s">
+      <c r="B78" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="C78" s="89" t="s">
+      <c r="C78" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="D78" s="89" t="s">
+      <c r="D78" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="E78" s="89" t="s">
+      <c r="E78" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="F78" s="89" t="s">
+      <c r="F78" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="G78" s="91" t="s">
+      <c r="G78" s="105" t="s">
         <v>15</v>
       </c>
       <c r="H78" s="68"/>
-      <c r="I78" s="91" t="s">
+      <c r="I78" s="105" t="s">
         <v>14</v>
       </c>
-      <c r="J78" s="89" t="s">
+      <c r="J78" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="K78" s="89" t="s">
+      <c r="K78" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="L78" s="89" t="s">
+      <c r="L78" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="M78" s="89" t="s">
+      <c r="M78" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="N78" s="89" t="s">
+      <c r="N78" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="O78" s="87" t="s">
+      <c r="O78" s="91" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="79" spans="1:15" ht="15">
-      <c r="A79" s="102"/>
-      <c r="B79" s="90"/>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="92"/>
+      <c r="A79" s="104"/>
+      <c r="B79" s="98"/>
+      <c r="C79" s="98"/>
+      <c r="D79" s="98"/>
+      <c r="E79" s="98"/>
+      <c r="F79" s="98"/>
+      <c r="G79" s="106"/>
       <c r="H79" s="69"/>
-      <c r="I79" s="92"/>
-      <c r="J79" s="90"/>
-      <c r="K79" s="90"/>
-      <c r="L79" s="90"/>
-      <c r="M79" s="90"/>
-      <c r="N79" s="90"/>
-      <c r="O79" s="88"/>
+      <c r="I79" s="106"/>
+      <c r="J79" s="98"/>
+      <c r="K79" s="98"/>
+      <c r="L79" s="98"/>
+      <c r="M79" s="98"/>
+      <c r="N79" s="98"/>
+      <c r="O79" s="92"/>
     </row>
     <row r="80" spans="1:15">
       <c r="A80" s="26"/>
@@ -3526,7 +3526,7 @@
       <c r="H81" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I81" s="97" t="s">
+      <c r="I81" s="95" t="s">
         <v>19</v>
       </c>
       <c r="J81" s="21" t="s">
@@ -3569,7 +3569,7 @@
       <c r="H82" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I82" s="97"/>
+      <c r="I82" s="95"/>
       <c r="J82" s="23"/>
       <c r="K82" s="16" t="s">
         <v>3</v>
@@ -3608,7 +3608,7 @@
       <c r="H83" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I83" s="97"/>
+      <c r="I83" s="95"/>
       <c r="J83" s="23"/>
       <c r="K83" s="16" t="s">
         <v>2</v>
@@ -3647,7 +3647,7 @@
       <c r="H84" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I84" s="97"/>
+      <c r="I84" s="95"/>
       <c r="J84" s="23"/>
       <c r="K84" s="16" t="s">
         <v>4</v>
@@ -3686,7 +3686,7 @@
       <c r="H85" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I85" s="97"/>
+      <c r="I85" s="95"/>
       <c r="J85" s="23"/>
       <c r="K85" s="16" t="s">
         <v>8</v>
@@ -3725,7 +3725,7 @@
       <c r="H86" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I86" s="97"/>
+      <c r="I86" s="95"/>
       <c r="J86" s="84"/>
       <c r="K86" s="57" t="s">
         <v>5</v>
@@ -3764,7 +3764,7 @@
       <c r="H87" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I87" s="97"/>
+      <c r="I87" s="95"/>
       <c r="J87" s="24"/>
       <c r="K87" s="19" t="s">
         <v>6</v>
@@ -3791,7 +3791,7 @@
       <c r="F88" s="6"/>
       <c r="G88" s="7"/>
       <c r="H88" s="70"/>
-      <c r="I88" s="97"/>
+      <c r="I88" s="95"/>
       <c r="J88" s="16"/>
       <c r="K88" s="16"/>
       <c r="L88" s="16"/>
@@ -3822,7 +3822,7 @@
       <c r="H89" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I89" s="97"/>
+      <c r="I89" s="95"/>
       <c r="J89" s="21" t="s">
         <v>7</v>
       </c>
@@ -3863,7 +3863,7 @@
       <c r="H90" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I90" s="97"/>
+      <c r="I90" s="95"/>
       <c r="J90" s="23"/>
       <c r="K90" s="16" t="s">
         <v>3</v>
@@ -3902,7 +3902,7 @@
       <c r="H91" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I91" s="97"/>
+      <c r="I91" s="95"/>
       <c r="J91" s="23"/>
       <c r="K91" s="16" t="s">
         <v>2</v>
@@ -3941,7 +3941,7 @@
       <c r="H92" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I92" s="97"/>
+      <c r="I92" s="95"/>
       <c r="J92" s="23"/>
       <c r="K92" s="16" t="s">
         <v>4</v>
@@ -3980,7 +3980,7 @@
       <c r="H93" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I93" s="97"/>
+      <c r="I93" s="95"/>
       <c r="J93" s="23"/>
       <c r="K93" s="16" t="s">
         <v>8</v>
@@ -4019,7 +4019,7 @@
       <c r="H94" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I94" s="97"/>
+      <c r="I94" s="95"/>
       <c r="J94" s="23"/>
       <c r="K94" s="16" t="s">
         <v>5</v>
@@ -4058,7 +4058,7 @@
       <c r="H95" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I95" s="97"/>
+      <c r="I95" s="95"/>
       <c r="J95" s="24"/>
       <c r="K95" s="19" t="s">
         <v>6</v>
@@ -4085,7 +4085,7 @@
       <c r="F96" s="8"/>
       <c r="G96" s="9"/>
       <c r="H96" s="70"/>
-      <c r="I96" s="98"/>
+      <c r="I96" s="96"/>
       <c r="J96" s="19"/>
       <c r="K96" s="19"/>
       <c r="L96" s="19"/>
@@ -4111,7 +4111,7 @@
       <c r="O97" s="46"/>
     </row>
     <row r="98" spans="1:15">
-      <c r="A98" s="95" t="s">
+      <c r="A98" s="99" t="s">
         <v>18</v>
       </c>
       <c r="B98" s="32" t="s">
@@ -4135,7 +4135,7 @@
       <c r="H98" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I98" s="99" t="s">
+      <c r="I98" s="101" t="s">
         <v>20</v>
       </c>
       <c r="J98" s="47" t="s">
@@ -4158,7 +4158,7 @@
       </c>
     </row>
     <row r="99" spans="1:15">
-      <c r="A99" s="95"/>
+      <c r="A99" s="99"/>
       <c r="B99" s="35"/>
       <c r="C99" s="36" t="s">
         <v>3</v>
@@ -4178,7 +4178,7 @@
       <c r="H99" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I99" s="99"/>
+      <c r="I99" s="101"/>
       <c r="J99" s="50"/>
       <c r="K99" s="51" t="s">
         <v>3</v>
@@ -4197,7 +4197,7 @@
       </c>
     </row>
     <row r="100" spans="1:15">
-      <c r="A100" s="95"/>
+      <c r="A100" s="99"/>
       <c r="B100" s="35"/>
       <c r="C100" s="36" t="s">
         <v>2</v>
@@ -4217,7 +4217,7 @@
       <c r="H100" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I100" s="99"/>
+      <c r="I100" s="101"/>
       <c r="J100" s="50"/>
       <c r="K100" s="51" t="s">
         <v>2</v>
@@ -4236,7 +4236,7 @@
       </c>
     </row>
     <row r="101" spans="1:15">
-      <c r="A101" s="95"/>
+      <c r="A101" s="99"/>
       <c r="B101" s="35"/>
       <c r="C101" s="36" t="s">
         <v>4</v>
@@ -4256,7 +4256,7 @@
       <c r="H101" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I101" s="99"/>
+      <c r="I101" s="101"/>
       <c r="J101" s="50"/>
       <c r="K101" s="51" t="s">
         <v>4</v>
@@ -4275,7 +4275,7 @@
       </c>
     </row>
     <row r="102" spans="1:15">
-      <c r="A102" s="95"/>
+      <c r="A102" s="99"/>
       <c r="B102" s="35"/>
       <c r="C102" s="36" t="s">
         <v>8</v>
@@ -4295,7 +4295,7 @@
       <c r="H102" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I102" s="99"/>
+      <c r="I102" s="101"/>
       <c r="J102" s="50"/>
       <c r="K102" s="51" t="s">
         <v>8</v>
@@ -4314,7 +4314,7 @@
       </c>
     </row>
     <row r="103" spans="1:15">
-      <c r="A103" s="95"/>
+      <c r="A103" s="99"/>
       <c r="B103" s="35"/>
       <c r="C103" s="36" t="s">
         <v>5</v>
@@ -4334,7 +4334,7 @@
       <c r="H103" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I103" s="99"/>
+      <c r="I103" s="101"/>
       <c r="J103" s="83"/>
       <c r="K103" s="58" t="s">
         <v>5</v>
@@ -4353,7 +4353,7 @@
       </c>
     </row>
     <row r="104" spans="1:15">
-      <c r="A104" s="95"/>
+      <c r="A104" s="99"/>
       <c r="B104" s="38"/>
       <c r="C104" s="39" t="s">
         <v>6</v>
@@ -4373,7 +4373,7 @@
       <c r="H104" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I104" s="99"/>
+      <c r="I104" s="101"/>
       <c r="J104" s="54"/>
       <c r="K104" s="55" t="s">
         <v>6</v>
@@ -4392,7 +4392,7 @@
       </c>
     </row>
     <row r="105" spans="1:15">
-      <c r="A105" s="95"/>
+      <c r="A105" s="99"/>
       <c r="B105" s="36"/>
       <c r="C105" s="36"/>
       <c r="D105" s="36"/>
@@ -4400,7 +4400,7 @@
       <c r="F105" s="36"/>
       <c r="G105" s="34"/>
       <c r="H105" s="70"/>
-      <c r="I105" s="99"/>
+      <c r="I105" s="101"/>
       <c r="J105" s="51"/>
       <c r="K105" s="51"/>
       <c r="L105" s="51"/>
@@ -4409,7 +4409,7 @@
       <c r="O105" s="49"/>
     </row>
     <row r="106" spans="1:15">
-      <c r="A106" s="95"/>
+      <c r="A106" s="99"/>
       <c r="B106" s="32" t="s">
         <v>7</v>
       </c>
@@ -4431,7 +4431,7 @@
       <c r="H106" s="72" t="s">
         <v>24</v>
       </c>
-      <c r="I106" s="99"/>
+      <c r="I106" s="101"/>
       <c r="J106" s="47" t="s">
         <v>7</v>
       </c>
@@ -4452,7 +4452,7 @@
       </c>
     </row>
     <row r="107" spans="1:15">
-      <c r="A107" s="95"/>
+      <c r="A107" s="99"/>
       <c r="B107" s="35"/>
       <c r="C107" s="36" t="s">
         <v>3</v>
@@ -4472,7 +4472,7 @@
       <c r="H107" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="I107" s="99"/>
+      <c r="I107" s="101"/>
       <c r="J107" s="50"/>
       <c r="K107" s="51" t="s">
         <v>3</v>
@@ -4491,7 +4491,7 @@
       </c>
     </row>
     <row r="108" spans="1:15">
-      <c r="A108" s="95"/>
+      <c r="A108" s="99"/>
       <c r="B108" s="35"/>
       <c r="C108" s="36" t="s">
         <v>2</v>
@@ -4511,7 +4511,7 @@
       <c r="H108" s="72" t="s">
         <v>26</v>
       </c>
-      <c r="I108" s="99"/>
+      <c r="I108" s="101"/>
       <c r="J108" s="50"/>
       <c r="K108" s="51" t="s">
         <v>2</v>
@@ -4530,7 +4530,7 @@
       </c>
     </row>
     <row r="109" spans="1:15">
-      <c r="A109" s="95"/>
+      <c r="A109" s="99"/>
       <c r="B109" s="35"/>
       <c r="C109" s="36" t="s">
         <v>4</v>
@@ -4550,7 +4550,7 @@
       <c r="H109" s="73" t="s">
         <v>27</v>
       </c>
-      <c r="I109" s="99"/>
+      <c r="I109" s="101"/>
       <c r="J109" s="50"/>
       <c r="K109" s="51" t="s">
         <v>4</v>
@@ -4569,7 +4569,7 @@
       </c>
     </row>
     <row r="110" spans="1:15">
-      <c r="A110" s="95"/>
+      <c r="A110" s="99"/>
       <c r="B110" s="35"/>
       <c r="C110" s="36" t="s">
         <v>8</v>
@@ -4589,7 +4589,7 @@
       <c r="H110" s="73" t="s">
         <v>28</v>
       </c>
-      <c r="I110" s="99"/>
+      <c r="I110" s="101"/>
       <c r="J110" s="50"/>
       <c r="K110" s="51" t="s">
         <v>8</v>
@@ -4608,7 +4608,7 @@
       </c>
     </row>
     <row r="111" spans="1:15">
-      <c r="A111" s="95"/>
+      <c r="A111" s="99"/>
       <c r="B111" s="35"/>
       <c r="C111" s="36" t="s">
         <v>5</v>
@@ -4628,7 +4628,7 @@
       <c r="H111" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="I111" s="99"/>
+      <c r="I111" s="101"/>
       <c r="J111" s="50"/>
       <c r="K111" s="51" t="s">
         <v>5</v>
@@ -4647,7 +4647,7 @@
       </c>
     </row>
     <row r="112" spans="1:15">
-      <c r="A112" s="95"/>
+      <c r="A112" s="99"/>
       <c r="B112" s="38"/>
       <c r="C112" s="39" t="s">
         <v>6</v>
@@ -4658,16 +4658,16 @@
       <c r="E112" s="61">
         <v>3.1736</v>
       </c>
-      <c r="F112" s="105">
+      <c r="F112" s="88">
         <v>2.2071000000000001</v>
       </c>
-      <c r="G112" s="106" t="s">
+      <c r="G112" s="89" t="s">
         <v>31</v>
       </c>
       <c r="H112" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="I112" s="99"/>
+      <c r="I112" s="101"/>
       <c r="J112" s="54"/>
       <c r="K112" s="55" t="s">
         <v>6</v>
@@ -4686,7 +4686,7 @@
       </c>
     </row>
     <row r="113" spans="1:15">
-      <c r="A113" s="96"/>
+      <c r="A113" s="100"/>
       <c r="B113" s="39"/>
       <c r="C113" s="39"/>
       <c r="D113" s="39"/>
@@ -4694,7 +4694,7 @@
       <c r="F113" s="39"/>
       <c r="G113" s="40"/>
       <c r="H113" s="71"/>
-      <c r="I113" s="100"/>
+      <c r="I113" s="102"/>
       <c r="J113" s="55"/>
       <c r="K113" s="55"/>
       <c r="L113" s="55"/>
@@ -4704,6 +4704,47 @@
     </row>
   </sheetData>
   <mergeCells count="57">
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="A5:A20"/>
+    <mergeCell ref="A22:A37"/>
+    <mergeCell ref="I5:I20"/>
+    <mergeCell ref="I22:I37"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="C40:C41"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="F40:F41"/>
+    <mergeCell ref="G40:G41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="J40:J41"/>
+    <mergeCell ref="K40:K41"/>
+    <mergeCell ref="A98:A113"/>
+    <mergeCell ref="I98:I113"/>
+    <mergeCell ref="J78:J79"/>
+    <mergeCell ref="K78:K79"/>
+    <mergeCell ref="L78:L79"/>
+    <mergeCell ref="A78:A79"/>
+    <mergeCell ref="B78:B79"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="E78:E79"/>
+    <mergeCell ref="F78:F79"/>
+    <mergeCell ref="G78:G79"/>
+    <mergeCell ref="I78:I79"/>
     <mergeCell ref="A1:O1"/>
     <mergeCell ref="A39:O39"/>
     <mergeCell ref="A77:O77"/>
@@ -4720,47 +4761,6 @@
     <mergeCell ref="O40:O41"/>
     <mergeCell ref="A43:A58"/>
     <mergeCell ref="I43:I58"/>
-    <mergeCell ref="A98:A113"/>
-    <mergeCell ref="I98:I113"/>
-    <mergeCell ref="J78:J79"/>
-    <mergeCell ref="K78:K79"/>
-    <mergeCell ref="L78:L79"/>
-    <mergeCell ref="A78:A79"/>
-    <mergeCell ref="B78:B79"/>
-    <mergeCell ref="C78:C79"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="E78:E79"/>
-    <mergeCell ref="F78:F79"/>
-    <mergeCell ref="G78:G79"/>
-    <mergeCell ref="I78:I79"/>
-    <mergeCell ref="F40:F41"/>
-    <mergeCell ref="G40:G41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="J40:J41"/>
-    <mergeCell ref="K40:K41"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="C40:C41"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="A5:A20"/>
-    <mergeCell ref="A22:A37"/>
-    <mergeCell ref="I5:I20"/>
-    <mergeCell ref="I22:I37"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
